--- a/Code/Results/Cases/Case_0_41/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_41/res_line/pl_mw.xlsx
@@ -415,34 +415,34 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.1616208735079567</v>
+        <v>0.1616208735079425</v>
       </c>
       <c r="D2">
-        <v>0.04254181315177874</v>
+        <v>0.04254181315199901</v>
       </c>
       <c r="E2">
-        <v>0.06480504473879023</v>
+        <v>0.06480504473876536</v>
       </c>
       <c r="F2">
-        <v>2.263618093443597</v>
+        <v>2.263618093443569</v>
       </c>
       <c r="G2">
-        <v>1.850650894050915</v>
+        <v>1.850650894050872</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.02428383696769743</v>
+        <v>0.0242838369676921</v>
       </c>
       <c r="J2">
-        <v>8.457109775357651</v>
+        <v>8.457109775357594</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>4.871186861399011</v>
+        <v>4.87118686139894</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -453,34 +453,34 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.1371233190975545</v>
+        <v>0.1371233190977676</v>
       </c>
       <c r="D3">
-        <v>0.03275377060082008</v>
+        <v>0.03275377060095508</v>
       </c>
       <c r="E3">
-        <v>0.05799145606563272</v>
+        <v>0.05799145606561851</v>
       </c>
       <c r="F3">
         <v>1.90318809454601</v>
       </c>
       <c r="G3">
-        <v>1.550051247498388</v>
+        <v>1.550051247498359</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.02229623036475381</v>
+        <v>0.02229623036474493</v>
       </c>
       <c r="J3">
-        <v>7.260292699452322</v>
+        <v>7.260292699452236</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>4.178267138321459</v>
+        <v>4.178267138321473</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -491,28 +491,28 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.1226906512910091</v>
+        <v>0.1226906512913217</v>
       </c>
       <c r="D4">
-        <v>0.02757093307237213</v>
+        <v>0.02757093307238634</v>
       </c>
       <c r="E4">
-        <v>0.05389236699443245</v>
+        <v>0.0538923669944289</v>
       </c>
       <c r="F4">
-        <v>1.702936157204718</v>
+        <v>1.702936157204732</v>
       </c>
       <c r="G4">
-        <v>1.38357040478482</v>
+        <v>1.383570404784805</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.02126285411200435</v>
+        <v>0.02126285411201323</v>
       </c>
       <c r="J4">
-        <v>6.543397007059724</v>
+        <v>6.543397007059667</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -532,13 +532,13 @@
         <v>0.11693371713217</v>
       </c>
       <c r="D5">
-        <v>0.02562978611092959</v>
+        <v>0.02562978611083722</v>
       </c>
       <c r="E5">
-        <v>0.05223984642015012</v>
+        <v>0.05223984642018209</v>
       </c>
       <c r="F5">
-        <v>1.62575835070335</v>
+        <v>1.625758350703322</v>
       </c>
       <c r="G5">
         <v>1.319527347369004</v>
@@ -547,16 +547,16 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.02088237782485436</v>
+        <v>0.02088237782483837</v>
       </c>
       <c r="J5">
-        <v>6.25484295693866</v>
+        <v>6.254842956938575</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>3.597533676779847</v>
+        <v>3.597533676779875</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -567,34 +567,34 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.1159845587208252</v>
+        <v>0.1159845587206263</v>
       </c>
       <c r="D6">
         <v>0.0253168298787898</v>
       </c>
       <c r="E6">
-        <v>0.0519664394428041</v>
+        <v>0.05196643944279344</v>
       </c>
       <c r="F6">
         <v>1.613187922433227</v>
       </c>
       <c r="G6">
-        <v>1.309103123641023</v>
+        <v>1.309103123641037</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.02082148816682938</v>
+        <v>0.02082148816682228</v>
       </c>
       <c r="J6">
-        <v>6.207121284934288</v>
+        <v>6.20712128493426</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>3.570003172923549</v>
+        <v>3.570003172923563</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -605,34 +605,34 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.1226125413810024</v>
+        <v>0.1226125413812156</v>
       </c>
       <c r="D7">
-        <v>0.02754410599711932</v>
+        <v>0.02754410599714063</v>
       </c>
       <c r="E7">
-        <v>0.05387001211815701</v>
+        <v>0.05387001211813214</v>
       </c>
       <c r="F7">
-        <v>1.701878421550745</v>
+        <v>1.701878421550759</v>
       </c>
       <c r="G7">
-        <v>1.382692207236488</v>
+        <v>1.382692207236516</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.02125756599321527</v>
+        <v>0.02125756599320106</v>
       </c>
       <c r="J7">
-        <v>6.539492053531092</v>
+        <v>6.539492053531035</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>3.761809771929805</v>
+        <v>3.761809771929791</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -646,13 +646,13 @@
         <v>0.1530287776099897</v>
       </c>
       <c r="D8">
-        <v>0.03897049648307416</v>
+        <v>0.03897049648285389</v>
       </c>
       <c r="E8">
-        <v>0.06243598250902949</v>
+        <v>0.06243598250904725</v>
       </c>
       <c r="F8">
-        <v>2.134396445816463</v>
+        <v>2.134396445816506</v>
       </c>
       <c r="G8">
         <v>1.742752448486314</v>
@@ -661,16 +661,16 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.02355546137689757</v>
+        <v>0.02355546137689224</v>
       </c>
       <c r="J8">
-        <v>8.040106814305148</v>
+        <v>8.040106814305091</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>4.629556341345676</v>
+        <v>4.629556341345705</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -684,25 +684,25 @@
         <v>0.2191577252783787</v>
       </c>
       <c r="D9">
-        <v>0.07012488799094996</v>
+        <v>0.07012488799075101</v>
       </c>
       <c r="E9">
-        <v>0.08009273354405622</v>
+        <v>0.08009273354407753</v>
       </c>
       <c r="F9">
-        <v>3.199950135574142</v>
+        <v>3.199950135574085</v>
       </c>
       <c r="G9">
-        <v>2.63587396028943</v>
+        <v>2.635873960289402</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.02991284462639321</v>
+        <v>0.02991284462638966</v>
       </c>
       <c r="J9">
-        <v>11.17859891619196</v>
+        <v>11.1785989161919</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -719,19 +719,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.2748563937219188</v>
+        <v>0.2748563937217341</v>
       </c>
       <c r="D10">
-        <v>0.1026520570418157</v>
+        <v>0.1026520570417304</v>
       </c>
       <c r="E10">
-        <v>0.09393355401824266</v>
+        <v>0.09393355401823911</v>
       </c>
       <c r="F10">
-        <v>4.212577295889389</v>
+        <v>4.212577295889304</v>
       </c>
       <c r="G10">
-        <v>3.490269165157954</v>
+        <v>3.490269165157926</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -740,13 +740,13 @@
         <v>0.03640758073276729</v>
       </c>
       <c r="J10">
-        <v>13.70507075382085</v>
+        <v>13.70507075382082</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>7.929528215798513</v>
+        <v>7.92952821579857</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -757,34 +757,34 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.3028517257644978</v>
+        <v>0.3028517257641994</v>
       </c>
       <c r="D11">
-        <v>0.121114446327546</v>
+        <v>0.1211144463273968</v>
       </c>
       <c r="E11">
-        <v>0.1005311993380396</v>
+        <v>0.1005311993380218</v>
       </c>
       <c r="F11">
-        <v>4.757770792083392</v>
+        <v>4.757770792083562</v>
       </c>
       <c r="G11">
-        <v>3.952037237491197</v>
+        <v>3.952037237491282</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.03999793007840324</v>
+        <v>0.03999793007842811</v>
       </c>
       <c r="J11">
-        <v>14.93746243501045</v>
+        <v>14.93746243501059</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>8.652390705003882</v>
+        <v>8.65239070500391</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -795,25 +795,25 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.3139810568131907</v>
+        <v>0.3139810568133612</v>
       </c>
       <c r="D12">
-        <v>0.1288457592081045</v>
+        <v>0.1288457592079766</v>
       </c>
       <c r="E12">
-        <v>0.1030866432465452</v>
+        <v>0.1030866432465238</v>
       </c>
       <c r="F12">
-        <v>4.980977044577429</v>
+        <v>4.980977044577486</v>
       </c>
       <c r="G12">
-        <v>4.141403088192561</v>
+        <v>4.14140308819259</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.04147973000873151</v>
+        <v>0.0414797300087546</v>
       </c>
       <c r="J12">
         <v>15.42064014371974</v>
@@ -822,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>8.936296414422259</v>
+        <v>8.936296414422372</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -833,28 +833,28 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.3115576078251223</v>
+        <v>0.3115576078253213</v>
       </c>
       <c r="D13">
-        <v>0.127143233284329</v>
+        <v>0.1271432332842224</v>
       </c>
       <c r="E13">
-        <v>0.1025334687712984</v>
+        <v>0.1025334687712807</v>
       </c>
       <c r="F13">
-        <v>4.932063557905309</v>
+        <v>4.932063557905281</v>
       </c>
       <c r="G13">
-        <v>4.099890415592071</v>
+        <v>4.099890415592014</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.04115452641902628</v>
+        <v>0.04115452641901918</v>
       </c>
       <c r="J13">
-        <v>15.3157506580641</v>
+        <v>15.31575065806399</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -871,34 +871,34 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.3037556829352042</v>
+        <v>0.3037556829347352</v>
       </c>
       <c r="D14">
-        <v>0.1217340830311926</v>
+        <v>0.1217340830310576</v>
       </c>
       <c r="E14">
-        <v>0.1007401962898555</v>
+        <v>0.1007401962898129</v>
       </c>
       <c r="F14">
-        <v>4.775764301903848</v>
+        <v>4.775764301903877</v>
       </c>
       <c r="G14">
-        <v>3.96729619681679</v>
+        <v>3.967296196816847</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.04011716551505629</v>
+        <v>0.04011716551500832</v>
       </c>
       <c r="J14">
-        <v>14.97684979075575</v>
+        <v>14.97684979075586</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>8.675523379613168</v>
+        <v>8.675523379613111</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -909,34 +909,34 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.2990510040432923</v>
+        <v>0.2990510040433492</v>
       </c>
       <c r="D15">
-        <v>0.1185252507611025</v>
+        <v>0.1185252507609817</v>
       </c>
       <c r="E15">
-        <v>0.09964969122292544</v>
+        <v>0.09964969122290768</v>
       </c>
       <c r="F15">
         <v>4.68238069700763</v>
       </c>
       <c r="G15">
-        <v>3.888117193281076</v>
+        <v>3.888117193281104</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.03949880336135259</v>
+        <v>0.03949880336134726</v>
       </c>
       <c r="J15">
-        <v>14.77158069151571</v>
+        <v>14.77158069151574</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>8.554986810374999</v>
+        <v>8.55498681037497</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -947,28 +947,28 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.2730914029787073</v>
+        <v>0.273091402979162</v>
       </c>
       <c r="D16">
-        <v>0.1015353110175852</v>
+        <v>0.1015353110174644</v>
       </c>
       <c r="E16">
-        <v>0.09350950992106277</v>
+        <v>0.09350950992107698</v>
       </c>
       <c r="F16">
-        <v>4.178997215100424</v>
+        <v>4.17899721510048</v>
       </c>
       <c r="G16">
-        <v>3.461864989788452</v>
+        <v>3.461864989788481</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.03618809304485993</v>
+        <v>0.03618809304488657</v>
       </c>
       <c r="J16">
-        <v>13.62654988879211</v>
+        <v>13.62654988879203</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -985,19 +985,19 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.2579325115006981</v>
+        <v>0.2579325115004991</v>
       </c>
       <c r="D17">
-        <v>0.09217493798820442</v>
+        <v>0.09217493798832521</v>
       </c>
       <c r="E17">
-        <v>0.08982821899742532</v>
+        <v>0.08982821899741822</v>
       </c>
       <c r="F17">
-        <v>3.89453144204964</v>
+        <v>3.894531442049725</v>
       </c>
       <c r="G17">
-        <v>3.221430888779224</v>
+        <v>3.221430888779267</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1006,7 +1006,7 @@
         <v>0.03433822813847698</v>
       </c>
       <c r="J17">
-        <v>12.94807984549172</v>
+        <v>12.9480798454918</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1023,34 +1023,34 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.2494522946137607</v>
+        <v>0.2494522946140023</v>
       </c>
       <c r="D18">
-        <v>0.08711933224122959</v>
+        <v>0.08711933224110169</v>
       </c>
       <c r="E18">
-        <v>0.0877381657487355</v>
+        <v>0.08773816574876037</v>
       </c>
       <c r="F18">
-        <v>3.73851212311817</v>
+        <v>3.738512123118255</v>
       </c>
       <c r="G18">
-        <v>3.089707228534891</v>
+        <v>3.089707228534934</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.03333170567527155</v>
+        <v>0.0333317056752751</v>
       </c>
       <c r="J18">
-        <v>12.56530917298355</v>
+        <v>12.56530917298363</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>7.262591925238269</v>
+        <v>7.262591925238297</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1064,31 +1064,31 @@
         <v>0.2466185447385243</v>
       </c>
       <c r="D19">
-        <v>0.08545893580098607</v>
+        <v>0.08545893580097186</v>
       </c>
       <c r="E19">
-        <v>0.08703486045185471</v>
+        <v>0.08703486045187603</v>
       </c>
       <c r="F19">
-        <v>3.68688184439975</v>
+        <v>3.686881844399778</v>
       </c>
       <c r="G19">
-        <v>3.046140590033602</v>
+        <v>3.046140590033588</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.03300003569298404</v>
+        <v>0.03300003569300181</v>
       </c>
       <c r="J19">
-        <v>12.43688211736861</v>
+        <v>12.4368821173687</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>7.187537257201086</v>
+        <v>7.187537257201058</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1099,25 +1099,25 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.2595206246477062</v>
+        <v>0.2595206246481609</v>
       </c>
       <c r="D20">
-        <v>0.09313615131050312</v>
+        <v>0.09313615131061681</v>
       </c>
       <c r="E20">
-        <v>0.09021718630808451</v>
+        <v>0.09021718630808095</v>
       </c>
       <c r="F20">
-        <v>3.923999866031181</v>
+        <v>3.923999866031124</v>
       </c>
       <c r="G20">
-        <v>3.246322259760333</v>
+        <v>3.246322259760305</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.03452901690835475</v>
+        <v>0.03452901690834231</v>
       </c>
       <c r="J20">
         <v>13.01950419287851</v>
@@ -1126,7 +1126,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>7.528184128787103</v>
+        <v>7.528184128787075</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1137,25 +1137,25 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.3060314675984301</v>
+        <v>0.3060314675982028</v>
       </c>
       <c r="D21">
         <v>0.1233005816443082</v>
       </c>
       <c r="E21">
-        <v>0.1012652397372946</v>
+        <v>0.1012652397372804</v>
       </c>
       <c r="F21">
-        <v>4.821171116931936</v>
+        <v>4.821171116931964</v>
       </c>
       <c r="G21">
-        <v>4.005807494280091</v>
+        <v>4.00580749428012</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.04041823520773669</v>
+        <v>0.0404182352077207</v>
       </c>
       <c r="J21">
         <v>15.07589905834112</v>
@@ -1175,25 +1175,25 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.3396325748643392</v>
+        <v>0.3396325748646234</v>
       </c>
       <c r="D22">
-        <v>0.1475171149383243</v>
+        <v>0.1475171149382319</v>
       </c>
       <c r="E22">
-        <v>0.1088291747885748</v>
+        <v>0.1088291747886139</v>
       </c>
       <c r="F22">
-        <v>5.509168020382788</v>
+        <v>5.509168020382759</v>
       </c>
       <c r="G22">
-        <v>4.590191443751678</v>
+        <v>4.590191443751664</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.04500514009084355</v>
+        <v>0.04500514009086132</v>
       </c>
       <c r="J22">
         <v>16.51988731886212</v>
@@ -1213,25 +1213,25 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.321337812294928</v>
+        <v>0.3213378122946438</v>
       </c>
       <c r="D23">
-        <v>0.1340789378760689</v>
+        <v>0.1340789378760761</v>
       </c>
       <c r="E23">
         <v>0.1047546670304982</v>
       </c>
       <c r="F23">
-        <v>5.13051140833025</v>
+        <v>5.130511408330193</v>
       </c>
       <c r="G23">
-        <v>4.268363379738588</v>
+        <v>4.26836337973856</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.04247541589071702</v>
+        <v>0.04247541589071879</v>
       </c>
       <c r="J23">
         <v>15.73794773041112</v>
@@ -1240,7 +1240,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>9.122894424991841</v>
+        <v>9.122894424991813</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1251,34 +1251,34 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.258801917231807</v>
+        <v>0.2588019172319918</v>
       </c>
       <c r="D24">
-        <v>0.09270058643995327</v>
+        <v>0.09270058644007406</v>
       </c>
       <c r="E24">
-        <v>0.09004125300714705</v>
+        <v>0.0900412530071506</v>
       </c>
       <c r="F24">
-        <v>3.910654070172342</v>
+        <v>3.910654070172313</v>
       </c>
       <c r="G24">
-        <v>3.235048881417356</v>
+        <v>3.235048881417299</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.03444258591686378</v>
+        <v>0.03444258591688154</v>
       </c>
       <c r="J24">
-        <v>12.98719084860136</v>
+        <v>12.98719084860122</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>7.509280838855744</v>
+        <v>7.509280838855773</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1289,34 +1289,34 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.2003038113420956</v>
+        <v>0.200303811342124</v>
       </c>
       <c r="D25">
-        <v>0.06039860695631205</v>
+        <v>0.06039860695619836</v>
       </c>
       <c r="E25">
-        <v>0.07519378860483883</v>
+        <v>0.07519378860483528</v>
       </c>
       <c r="F25">
-        <v>2.880152026261072</v>
+        <v>2.880152026261101</v>
       </c>
       <c r="G25">
-        <v>2.367086765191033</v>
+        <v>2.36708676519109</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.02793495250918987</v>
+        <v>0.02793495250919698</v>
       </c>
       <c r="J25">
-        <v>10.29988764475195</v>
+        <v>10.29988764475206</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>5.941449210346462</v>
+        <v>5.941449210346519</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_41/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_41/res_line/pl_mw.xlsx
@@ -415,34 +415,34 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.1616208735079425</v>
+        <v>0.1616208735079567</v>
       </c>
       <c r="D2">
-        <v>0.04254181315199901</v>
+        <v>0.04254181315177874</v>
       </c>
       <c r="E2">
-        <v>0.06480504473876536</v>
+        <v>0.06480504473879023</v>
       </c>
       <c r="F2">
-        <v>2.263618093443569</v>
+        <v>2.263618093443597</v>
       </c>
       <c r="G2">
-        <v>1.850650894050872</v>
+        <v>1.850650894050915</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.0242838369676921</v>
+        <v>0.02428383696769743</v>
       </c>
       <c r="J2">
-        <v>8.457109775357594</v>
+        <v>8.457109775357651</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>4.87118686139894</v>
+        <v>4.871186861399011</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -453,34 +453,34 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.1371233190977676</v>
+        <v>0.1371233190975545</v>
       </c>
       <c r="D3">
-        <v>0.03275377060095508</v>
+        <v>0.03275377060082008</v>
       </c>
       <c r="E3">
-        <v>0.05799145606561851</v>
+        <v>0.05799145606563272</v>
       </c>
       <c r="F3">
         <v>1.90318809454601</v>
       </c>
       <c r="G3">
-        <v>1.550051247498359</v>
+        <v>1.550051247498388</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.02229623036474493</v>
+        <v>0.02229623036475381</v>
       </c>
       <c r="J3">
-        <v>7.260292699452236</v>
+        <v>7.260292699452322</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>4.178267138321473</v>
+        <v>4.178267138321459</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -491,28 +491,28 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.1226906512913217</v>
+        <v>0.1226906512910091</v>
       </c>
       <c r="D4">
-        <v>0.02757093307238634</v>
+        <v>0.02757093307237213</v>
       </c>
       <c r="E4">
-        <v>0.0538923669944289</v>
+        <v>0.05389236699443245</v>
       </c>
       <c r="F4">
-        <v>1.702936157204732</v>
+        <v>1.702936157204718</v>
       </c>
       <c r="G4">
-        <v>1.383570404784805</v>
+        <v>1.38357040478482</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.02126285411201323</v>
+        <v>0.02126285411200435</v>
       </c>
       <c r="J4">
-        <v>6.543397007059667</v>
+        <v>6.543397007059724</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -532,13 +532,13 @@
         <v>0.11693371713217</v>
       </c>
       <c r="D5">
-        <v>0.02562978611083722</v>
+        <v>0.02562978611092959</v>
       </c>
       <c r="E5">
-        <v>0.05223984642018209</v>
+        <v>0.05223984642015012</v>
       </c>
       <c r="F5">
-        <v>1.625758350703322</v>
+        <v>1.62575835070335</v>
       </c>
       <c r="G5">
         <v>1.319527347369004</v>
@@ -547,16 +547,16 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.02088237782483837</v>
+        <v>0.02088237782485436</v>
       </c>
       <c r="J5">
-        <v>6.254842956938575</v>
+        <v>6.25484295693866</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>3.597533676779875</v>
+        <v>3.597533676779847</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -567,34 +567,34 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.1159845587206263</v>
+        <v>0.1159845587208252</v>
       </c>
       <c r="D6">
         <v>0.0253168298787898</v>
       </c>
       <c r="E6">
-        <v>0.05196643944279344</v>
+        <v>0.0519664394428041</v>
       </c>
       <c r="F6">
         <v>1.613187922433227</v>
       </c>
       <c r="G6">
-        <v>1.309103123641037</v>
+        <v>1.309103123641023</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.02082148816682228</v>
+        <v>0.02082148816682938</v>
       </c>
       <c r="J6">
-        <v>6.20712128493426</v>
+        <v>6.207121284934288</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>3.570003172923563</v>
+        <v>3.570003172923549</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -605,34 +605,34 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.1226125413812156</v>
+        <v>0.1226125413810024</v>
       </c>
       <c r="D7">
-        <v>0.02754410599714063</v>
+        <v>0.02754410599711932</v>
       </c>
       <c r="E7">
-        <v>0.05387001211813214</v>
+        <v>0.05387001211815701</v>
       </c>
       <c r="F7">
-        <v>1.701878421550759</v>
+        <v>1.701878421550745</v>
       </c>
       <c r="G7">
-        <v>1.382692207236516</v>
+        <v>1.382692207236488</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.02125756599320106</v>
+        <v>0.02125756599321527</v>
       </c>
       <c r="J7">
-        <v>6.539492053531035</v>
+        <v>6.539492053531092</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>3.761809771929791</v>
+        <v>3.761809771929805</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -646,13 +646,13 @@
         <v>0.1530287776099897</v>
       </c>
       <c r="D8">
-        <v>0.03897049648285389</v>
+        <v>0.03897049648307416</v>
       </c>
       <c r="E8">
-        <v>0.06243598250904725</v>
+        <v>0.06243598250902949</v>
       </c>
       <c r="F8">
-        <v>2.134396445816506</v>
+        <v>2.134396445816463</v>
       </c>
       <c r="G8">
         <v>1.742752448486314</v>
@@ -661,16 +661,16 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.02355546137689224</v>
+        <v>0.02355546137689757</v>
       </c>
       <c r="J8">
-        <v>8.040106814305091</v>
+        <v>8.040106814305148</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>4.629556341345705</v>
+        <v>4.629556341345676</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -684,25 +684,25 @@
         <v>0.2191577252783787</v>
       </c>
       <c r="D9">
-        <v>0.07012488799075101</v>
+        <v>0.07012488799094996</v>
       </c>
       <c r="E9">
-        <v>0.08009273354407753</v>
+        <v>0.08009273354405622</v>
       </c>
       <c r="F9">
-        <v>3.199950135574085</v>
+        <v>3.199950135574142</v>
       </c>
       <c r="G9">
-        <v>2.635873960289402</v>
+        <v>2.63587396028943</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.02991284462638966</v>
+        <v>0.02991284462639321</v>
       </c>
       <c r="J9">
-        <v>11.1785989161919</v>
+        <v>11.17859891619196</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -719,19 +719,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.2748563937217341</v>
+        <v>0.2748563937219188</v>
       </c>
       <c r="D10">
-        <v>0.1026520570417304</v>
+        <v>0.1026520570418157</v>
       </c>
       <c r="E10">
-        <v>0.09393355401823911</v>
+        <v>0.09393355401824266</v>
       </c>
       <c r="F10">
-        <v>4.212577295889304</v>
+        <v>4.212577295889389</v>
       </c>
       <c r="G10">
-        <v>3.490269165157926</v>
+        <v>3.490269165157954</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -740,13 +740,13 @@
         <v>0.03640758073276729</v>
       </c>
       <c r="J10">
-        <v>13.70507075382082</v>
+        <v>13.70507075382085</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>7.92952821579857</v>
+        <v>7.929528215798513</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -757,34 +757,34 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.3028517257641994</v>
+        <v>0.3028517257644978</v>
       </c>
       <c r="D11">
-        <v>0.1211144463273968</v>
+        <v>0.121114446327546</v>
       </c>
       <c r="E11">
-        <v>0.1005311993380218</v>
+        <v>0.1005311993380396</v>
       </c>
       <c r="F11">
-        <v>4.757770792083562</v>
+        <v>4.757770792083392</v>
       </c>
       <c r="G11">
-        <v>3.952037237491282</v>
+        <v>3.952037237491197</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.03999793007842811</v>
+        <v>0.03999793007840324</v>
       </c>
       <c r="J11">
-        <v>14.93746243501059</v>
+        <v>14.93746243501045</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>8.65239070500391</v>
+        <v>8.652390705003882</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -795,25 +795,25 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.3139810568133612</v>
+        <v>0.3139810568131907</v>
       </c>
       <c r="D12">
-        <v>0.1288457592079766</v>
+        <v>0.1288457592081045</v>
       </c>
       <c r="E12">
-        <v>0.1030866432465238</v>
+        <v>0.1030866432465452</v>
       </c>
       <c r="F12">
-        <v>4.980977044577486</v>
+        <v>4.980977044577429</v>
       </c>
       <c r="G12">
-        <v>4.14140308819259</v>
+        <v>4.141403088192561</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.0414797300087546</v>
+        <v>0.04147973000873151</v>
       </c>
       <c r="J12">
         <v>15.42064014371974</v>
@@ -822,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>8.936296414422372</v>
+        <v>8.936296414422259</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -833,28 +833,28 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.3115576078253213</v>
+        <v>0.3115576078251223</v>
       </c>
       <c r="D13">
-        <v>0.1271432332842224</v>
+        <v>0.127143233284329</v>
       </c>
       <c r="E13">
-        <v>0.1025334687712807</v>
+        <v>0.1025334687712984</v>
       </c>
       <c r="F13">
-        <v>4.932063557905281</v>
+        <v>4.932063557905309</v>
       </c>
       <c r="G13">
-        <v>4.099890415592014</v>
+        <v>4.099890415592071</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.04115452641901918</v>
+        <v>0.04115452641902628</v>
       </c>
       <c r="J13">
-        <v>15.31575065806399</v>
+        <v>15.3157506580641</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -871,34 +871,34 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.3037556829347352</v>
+        <v>0.3037556829352042</v>
       </c>
       <c r="D14">
-        <v>0.1217340830310576</v>
+        <v>0.1217340830311926</v>
       </c>
       <c r="E14">
-        <v>0.1007401962898129</v>
+        <v>0.1007401962898555</v>
       </c>
       <c r="F14">
-        <v>4.775764301903877</v>
+        <v>4.775764301903848</v>
       </c>
       <c r="G14">
-        <v>3.967296196816847</v>
+        <v>3.96729619681679</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.04011716551500832</v>
+        <v>0.04011716551505629</v>
       </c>
       <c r="J14">
-        <v>14.97684979075586</v>
+        <v>14.97684979075575</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>8.675523379613111</v>
+        <v>8.675523379613168</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -909,34 +909,34 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.2990510040433492</v>
+        <v>0.2990510040432923</v>
       </c>
       <c r="D15">
-        <v>0.1185252507609817</v>
+        <v>0.1185252507611025</v>
       </c>
       <c r="E15">
-        <v>0.09964969122290768</v>
+        <v>0.09964969122292544</v>
       </c>
       <c r="F15">
         <v>4.68238069700763</v>
       </c>
       <c r="G15">
-        <v>3.888117193281104</v>
+        <v>3.888117193281076</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.03949880336134726</v>
+        <v>0.03949880336135259</v>
       </c>
       <c r="J15">
-        <v>14.77158069151574</v>
+        <v>14.77158069151571</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>8.55498681037497</v>
+        <v>8.554986810374999</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -947,28 +947,28 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.273091402979162</v>
+        <v>0.2730914029787073</v>
       </c>
       <c r="D16">
-        <v>0.1015353110174644</v>
+        <v>0.1015353110175852</v>
       </c>
       <c r="E16">
-        <v>0.09350950992107698</v>
+        <v>0.09350950992106277</v>
       </c>
       <c r="F16">
-        <v>4.17899721510048</v>
+        <v>4.178997215100424</v>
       </c>
       <c r="G16">
-        <v>3.461864989788481</v>
+        <v>3.461864989788452</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.03618809304488657</v>
+        <v>0.03618809304485993</v>
       </c>
       <c r="J16">
-        <v>13.62654988879203</v>
+        <v>13.62654988879211</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -985,19 +985,19 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.2579325115004991</v>
+        <v>0.2579325115006981</v>
       </c>
       <c r="D17">
-        <v>0.09217493798832521</v>
+        <v>0.09217493798820442</v>
       </c>
       <c r="E17">
-        <v>0.08982821899741822</v>
+        <v>0.08982821899742532</v>
       </c>
       <c r="F17">
-        <v>3.894531442049725</v>
+        <v>3.89453144204964</v>
       </c>
       <c r="G17">
-        <v>3.221430888779267</v>
+        <v>3.221430888779224</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1006,7 +1006,7 @@
         <v>0.03433822813847698</v>
       </c>
       <c r="J17">
-        <v>12.9480798454918</v>
+        <v>12.94807984549172</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1023,34 +1023,34 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.2494522946140023</v>
+        <v>0.2494522946137607</v>
       </c>
       <c r="D18">
-        <v>0.08711933224110169</v>
+        <v>0.08711933224122959</v>
       </c>
       <c r="E18">
-        <v>0.08773816574876037</v>
+        <v>0.0877381657487355</v>
       </c>
       <c r="F18">
-        <v>3.738512123118255</v>
+        <v>3.73851212311817</v>
       </c>
       <c r="G18">
-        <v>3.089707228534934</v>
+        <v>3.089707228534891</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.0333317056752751</v>
+        <v>0.03333170567527155</v>
       </c>
       <c r="J18">
-        <v>12.56530917298363</v>
+        <v>12.56530917298355</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>7.262591925238297</v>
+        <v>7.262591925238269</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1064,31 +1064,31 @@
         <v>0.2466185447385243</v>
       </c>
       <c r="D19">
-        <v>0.08545893580097186</v>
+        <v>0.08545893580098607</v>
       </c>
       <c r="E19">
-        <v>0.08703486045187603</v>
+        <v>0.08703486045185471</v>
       </c>
       <c r="F19">
-        <v>3.686881844399778</v>
+        <v>3.68688184439975</v>
       </c>
       <c r="G19">
-        <v>3.046140590033588</v>
+        <v>3.046140590033602</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.03300003569300181</v>
+        <v>0.03300003569298404</v>
       </c>
       <c r="J19">
-        <v>12.4368821173687</v>
+        <v>12.43688211736861</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>7.187537257201058</v>
+        <v>7.187537257201086</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1099,25 +1099,25 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.2595206246481609</v>
+        <v>0.2595206246477062</v>
       </c>
       <c r="D20">
-        <v>0.09313615131061681</v>
+        <v>0.09313615131050312</v>
       </c>
       <c r="E20">
-        <v>0.09021718630808095</v>
+        <v>0.09021718630808451</v>
       </c>
       <c r="F20">
-        <v>3.923999866031124</v>
+        <v>3.923999866031181</v>
       </c>
       <c r="G20">
-        <v>3.246322259760305</v>
+        <v>3.246322259760333</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.03452901690834231</v>
+        <v>0.03452901690835475</v>
       </c>
       <c r="J20">
         <v>13.01950419287851</v>
@@ -1126,7 +1126,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>7.528184128787075</v>
+        <v>7.528184128787103</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1137,25 +1137,25 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.3060314675982028</v>
+        <v>0.3060314675984301</v>
       </c>
       <c r="D21">
         <v>0.1233005816443082</v>
       </c>
       <c r="E21">
-        <v>0.1012652397372804</v>
+        <v>0.1012652397372946</v>
       </c>
       <c r="F21">
-        <v>4.821171116931964</v>
+        <v>4.821171116931936</v>
       </c>
       <c r="G21">
-        <v>4.00580749428012</v>
+        <v>4.005807494280091</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.0404182352077207</v>
+        <v>0.04041823520773669</v>
       </c>
       <c r="J21">
         <v>15.07589905834112</v>
@@ -1175,25 +1175,25 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.3396325748646234</v>
+        <v>0.3396325748643392</v>
       </c>
       <c r="D22">
-        <v>0.1475171149382319</v>
+        <v>0.1475171149383243</v>
       </c>
       <c r="E22">
-        <v>0.1088291747886139</v>
+        <v>0.1088291747885748</v>
       </c>
       <c r="F22">
-        <v>5.509168020382759</v>
+        <v>5.509168020382788</v>
       </c>
       <c r="G22">
-        <v>4.590191443751664</v>
+        <v>4.590191443751678</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.04500514009086132</v>
+        <v>0.04500514009084355</v>
       </c>
       <c r="J22">
         <v>16.51988731886212</v>
@@ -1213,25 +1213,25 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.3213378122946438</v>
+        <v>0.321337812294928</v>
       </c>
       <c r="D23">
-        <v>0.1340789378760761</v>
+        <v>0.1340789378760689</v>
       </c>
       <c r="E23">
         <v>0.1047546670304982</v>
       </c>
       <c r="F23">
-        <v>5.130511408330193</v>
+        <v>5.13051140833025</v>
       </c>
       <c r="G23">
-        <v>4.26836337973856</v>
+        <v>4.268363379738588</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.04247541589071879</v>
+        <v>0.04247541589071702</v>
       </c>
       <c r="J23">
         <v>15.73794773041112</v>
@@ -1240,7 +1240,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>9.122894424991813</v>
+        <v>9.122894424991841</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1251,34 +1251,34 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.2588019172319918</v>
+        <v>0.258801917231807</v>
       </c>
       <c r="D24">
-        <v>0.09270058644007406</v>
+        <v>0.09270058643995327</v>
       </c>
       <c r="E24">
-        <v>0.0900412530071506</v>
+        <v>0.09004125300714705</v>
       </c>
       <c r="F24">
-        <v>3.910654070172313</v>
+        <v>3.910654070172342</v>
       </c>
       <c r="G24">
-        <v>3.235048881417299</v>
+        <v>3.235048881417356</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.03444258591688154</v>
+        <v>0.03444258591686378</v>
       </c>
       <c r="J24">
-        <v>12.98719084860122</v>
+        <v>12.98719084860136</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>7.509280838855773</v>
+        <v>7.509280838855744</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1289,34 +1289,34 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.200303811342124</v>
+        <v>0.2003038113420956</v>
       </c>
       <c r="D25">
-        <v>0.06039860695619836</v>
+        <v>0.06039860695631205</v>
       </c>
       <c r="E25">
-        <v>0.07519378860483528</v>
+        <v>0.07519378860483883</v>
       </c>
       <c r="F25">
-        <v>2.880152026261101</v>
+        <v>2.880152026261072</v>
       </c>
       <c r="G25">
-        <v>2.36708676519109</v>
+        <v>2.367086765191033</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.02793495250919698</v>
+        <v>0.02793495250918987</v>
       </c>
       <c r="J25">
-        <v>10.29988764475206</v>
+        <v>10.29988764475195</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>5.941449210346519</v>
+        <v>5.941449210346462</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_41/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_41/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,8 +406,11 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -415,37 +418,40 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.1616208735079567</v>
+        <v>0.1615977079187871</v>
       </c>
       <c r="D2">
-        <v>0.04254181315177874</v>
+        <v>0.04231045569424197</v>
       </c>
       <c r="E2">
-        <v>0.06480504473879023</v>
+        <v>0.06474248901124113</v>
       </c>
       <c r="F2">
-        <v>2.263618093443597</v>
+        <v>2.258755792422633</v>
       </c>
       <c r="G2">
-        <v>1.850650894050915</v>
+        <v>0.6288016658078277</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1.220375530289573</v>
       </c>
       <c r="I2">
-        <v>0.02428383696769743</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>8.457109775357651</v>
+        <v>0.02431461008832336</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>8.455949416225252</v>
       </c>
       <c r="L2">
-        <v>4.871186861399011</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>4.870788595989765</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -453,37 +459,40 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.1371233190975545</v>
+        <v>0.1371081509806658</v>
       </c>
       <c r="D3">
-        <v>0.03275377060082008</v>
+        <v>0.03256752131559892</v>
       </c>
       <c r="E3">
-        <v>0.05799145606563272</v>
+        <v>0.05793790821924105</v>
       </c>
       <c r="F3">
-        <v>1.90318809454601</v>
+        <v>1.899146630690709</v>
       </c>
       <c r="G3">
-        <v>1.550051247498388</v>
+        <v>0.5221990206143232</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1.027430689339099</v>
       </c>
       <c r="I3">
-        <v>0.02229623036475381</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>7.260292699452322</v>
+        <v>0.0223218029531882</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>7.259490304167798</v>
       </c>
       <c r="L3">
-        <v>4.178267138321459</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>4.178038958063951</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -491,37 +500,40 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.1226906512910091</v>
+        <v>0.1226793793453567</v>
       </c>
       <c r="D4">
-        <v>0.02757093307237213</v>
+        <v>0.02740901783570138</v>
       </c>
       <c r="E4">
-        <v>0.05389236699443245</v>
+        <v>0.05384452732348421</v>
       </c>
       <c r="F4">
-        <v>1.702936157204718</v>
+        <v>1.699346353584104</v>
       </c>
       <c r="G4">
-        <v>1.38357040478482</v>
+        <v>0.4627501416918278</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.9209834188818888</v>
       </c>
       <c r="I4">
-        <v>0.02126285411200435</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>6.543397007059724</v>
+        <v>0.02128550450914446</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>6.542774826523583</v>
       </c>
       <c r="L4">
-        <v>3.764064132815733</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>3.763917317325195</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -529,37 +541,40 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.11693371713217</v>
+        <v>0.1169238384194244</v>
       </c>
       <c r="D5">
-        <v>0.02562978611092959</v>
+        <v>0.02547711132674735</v>
       </c>
       <c r="E5">
-        <v>0.05223984642015012</v>
+        <v>0.05219437918383463</v>
       </c>
       <c r="F5">
-        <v>1.62575835070335</v>
+        <v>1.622342202440095</v>
       </c>
       <c r="G5">
-        <v>1.319527347369004</v>
+        <v>0.4397809698753861</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.8801354947850797</v>
       </c>
       <c r="I5">
-        <v>0.02088237782485436</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>6.25484295693866</v>
+        <v>0.02090389769371725</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>6.254286446432474</v>
       </c>
       <c r="L5">
-        <v>3.597533676779847</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>3.597415489183263</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -567,37 +582,40 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.1159845587208252</v>
+        <v>0.1159749010810742</v>
       </c>
       <c r="D6">
-        <v>0.0253168298787898</v>
+        <v>0.02516565287877626</v>
       </c>
       <c r="E6">
-        <v>0.0519664394428041</v>
+        <v>0.05192136897827382</v>
       </c>
       <c r="F6">
-        <v>1.613187922433227</v>
+        <v>1.609800049816741</v>
       </c>
       <c r="G6">
-        <v>1.309103123641023</v>
+        <v>0.4360363010608097</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.8734927954295273</v>
       </c>
       <c r="I6">
-        <v>0.02082148816682938</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>6.207121284934288</v>
+        <v>0.02084282373382784</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>6.206575263445387</v>
       </c>
       <c r="L6">
-        <v>3.570003172923549</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>3.569889496683402</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -605,37 +623,40 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.1226125413810024</v>
+        <v>0.1226012889438977</v>
       </c>
       <c r="D7">
-        <v>0.02754410599711932</v>
+        <v>0.02738231792107015</v>
       </c>
       <c r="E7">
-        <v>0.05387001211815701</v>
+        <v>0.053822204253553</v>
       </c>
       <c r="F7">
-        <v>1.701878421550745</v>
+        <v>1.698290998845849</v>
       </c>
       <c r="G7">
-        <v>1.382692207236488</v>
+        <v>0.4624355848766726</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.9204228717596834</v>
       </c>
       <c r="I7">
-        <v>0.02125756599321527</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>6.539492053531092</v>
+        <v>0.02128020090956184</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>6.538870787606669</v>
       </c>
       <c r="L7">
-        <v>3.761809771929805</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>3.761663359413078</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -643,37 +664,40 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.1530287776099897</v>
+        <v>0.1530086222018099</v>
       </c>
       <c r="D8">
-        <v>0.03897049648307416</v>
+        <v>0.03875550607379097</v>
       </c>
       <c r="E8">
-        <v>0.06243598250902949</v>
+        <v>0.0623764972595815</v>
       </c>
       <c r="F8">
-        <v>2.134396445816463</v>
+        <v>2.129829926842945</v>
       </c>
       <c r="G8">
-        <v>1.742752448486314</v>
+        <v>0.5906304102806104</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1.151025979821938</v>
       </c>
       <c r="I8">
-        <v>0.02355546137689757</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>8.040106814305148</v>
+        <v>0.02358438025674481</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>8.039079600063417</v>
       </c>
       <c r="L8">
-        <v>4.629556341345676</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>4.629222387584264</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -681,37 +705,40 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.2191577252783787</v>
+        <v>0.2191080459033117</v>
       </c>
       <c r="D9">
-        <v>0.07012488799094996</v>
+        <v>0.06976819307561044</v>
       </c>
       <c r="E9">
-        <v>0.08009273354405622</v>
+        <v>0.08001160137652263</v>
       </c>
       <c r="F9">
-        <v>3.199950135574142</v>
+        <v>3.192871815318824</v>
       </c>
       <c r="G9">
-        <v>2.63587396028943</v>
+        <v>0.9043839318140385</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1.72723668288279</v>
       </c>
       <c r="I9">
-        <v>0.02991284462639321</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>11.17859891619196</v>
+        <v>0.02995660120238064</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>11.17632035869619</v>
       </c>
       <c r="L9">
-        <v>6.453188838043417</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>6.452221326775572</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -719,37 +746,40 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.2748563937219188</v>
+        <v>0.2747684018642076</v>
       </c>
       <c r="D10">
-        <v>0.1026520570418157</v>
+        <v>0.1021452372977549</v>
       </c>
       <c r="E10">
-        <v>0.09393355401824266</v>
+        <v>0.09383683331734716</v>
       </c>
       <c r="F10">
-        <v>4.212577295889389</v>
+        <v>4.202902625322849</v>
       </c>
       <c r="G10">
-        <v>3.490269165157954</v>
+        <v>1.201358408725028</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2.281501868139912</v>
       </c>
       <c r="I10">
-        <v>0.03640758073276729</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>13.70507075382085</v>
+        <v>0.03646420657389271</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>13.70127867458032</v>
       </c>
       <c r="L10">
-        <v>7.929528215798513</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>7.927746458499257</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -757,37 +787,40 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.3028517257644978</v>
+        <v>0.3027385554951678</v>
       </c>
       <c r="D11">
-        <v>0.121114446327546</v>
+        <v>0.1205196208895103</v>
       </c>
       <c r="E11">
-        <v>0.1005311993380396</v>
+        <v>0.1004272185525856</v>
       </c>
       <c r="F11">
-        <v>4.757770792083392</v>
+        <v>4.746585437263803</v>
       </c>
       <c r="G11">
-        <v>3.952037237491197</v>
+        <v>1.361027867043802</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2.581809673770366</v>
       </c>
       <c r="I11">
-        <v>0.03999793007840324</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>14.93746243501045</v>
+        <v>0.04006084364136164</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>14.9327156709748</v>
       </c>
       <c r="L11">
-        <v>8.652390705003882</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>8.650081293389206</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -795,37 +828,40 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.3139810568131907</v>
+        <v>0.3138565713014856</v>
       </c>
       <c r="D12">
-        <v>0.1288457592081045</v>
+        <v>0.1282132808577643</v>
       </c>
       <c r="E12">
-        <v>0.1030866432465452</v>
+        <v>0.1029798475335788</v>
       </c>
       <c r="F12">
-        <v>4.980977044577429</v>
+        <v>4.969146290815161</v>
       </c>
       <c r="G12">
-        <v>4.141403088192561</v>
+        <v>1.426370836610346</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2.70507688510024</v>
       </c>
       <c r="I12">
-        <v>0.04147973000873151</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>15.42064014371974</v>
+        <v>0.04154506730861129</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>15.4154720010273</v>
       </c>
       <c r="L12">
-        <v>8.936296414422259</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>8.933751677938034</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -833,37 +869,40 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.3115576078251223</v>
+        <v>0.3114356541436649</v>
       </c>
       <c r="D13">
-        <v>0.127143233284329</v>
+        <v>0.1265190909399507</v>
       </c>
       <c r="E13">
-        <v>0.1025334687712984</v>
+        <v>0.1024272832322914</v>
       </c>
       <c r="F13">
-        <v>4.932063557905309</v>
+        <v>4.92037566523183</v>
       </c>
       <c r="G13">
-        <v>4.099890415592071</v>
+        <v>1.412052651706333</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2.678049197515207</v>
       </c>
       <c r="I13">
-        <v>0.04115452641902628</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>15.3157506580641</v>
+        <v>0.0412193405193797</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>15.31067643174026</v>
       </c>
       <c r="L13">
-        <v>8.874641387264063</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>8.872149212986528</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -871,37 +910,40 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.3037556829352042</v>
+        <v>0.3036416228972598</v>
       </c>
       <c r="D14">
-        <v>0.1217340830311926</v>
+        <v>0.1211362585451781</v>
       </c>
       <c r="E14">
-        <v>0.1007401962898555</v>
+        <v>0.1006359855844714</v>
       </c>
       <c r="F14">
-        <v>4.775764301903848</v>
+        <v>4.764527528787738</v>
       </c>
       <c r="G14">
-        <v>3.96729619681679</v>
+        <v>1.366295907844972</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2.591740187528899</v>
       </c>
       <c r="I14">
-        <v>0.04011716551505629</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>14.97684979075575</v>
+        <v>0.04018027785881451</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>14.97206973423712</v>
       </c>
       <c r="L14">
-        <v>8.675523379613168</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>8.673195424245506</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -909,37 +951,40 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.2990510040432923</v>
+        <v>0.2989415198299952</v>
       </c>
       <c r="D15">
-        <v>0.1185252507611025</v>
+        <v>0.1179429231130484</v>
       </c>
       <c r="E15">
-        <v>0.09964969122292544</v>
+        <v>0.0995466798575606</v>
       </c>
       <c r="F15">
-        <v>4.68238069700763</v>
+        <v>4.671409646016002</v>
       </c>
       <c r="G15">
-        <v>3.888117193281076</v>
+        <v>1.338954549773121</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2.540215085437637</v>
       </c>
       <c r="I15">
-        <v>0.03949880336135259</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>14.77158069151571</v>
+        <v>0.03956087775083361</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>14.76697214887446</v>
       </c>
       <c r="L15">
-        <v>8.554986810374999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>8.552754292828212</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -947,37 +992,40 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.2730914029787073</v>
+        <v>0.2730048528484446</v>
       </c>
       <c r="D16">
-        <v>0.1015353110175852</v>
+        <v>0.101033737574916</v>
       </c>
       <c r="E16">
-        <v>0.09350950992106277</v>
+        <v>0.093413257372152</v>
       </c>
       <c r="F16">
-        <v>4.178997215100424</v>
+        <v>4.169412762316483</v>
       </c>
       <c r="G16">
-        <v>3.461864989788452</v>
+        <v>1.191520132385378</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2.263043927313575</v>
       </c>
       <c r="I16">
-        <v>0.03618809304485993</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>13.62654988879211</v>
+        <v>0.03624431567078901</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>13.62281328667135</v>
       </c>
       <c r="L16">
-        <v>7.883532595290859</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>7.881781227596662</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -985,37 +1033,40 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.2579325115006981</v>
+        <v>0.2578576889712707</v>
       </c>
       <c r="D17">
-        <v>0.09217493798820442</v>
+        <v>0.0917170399125169</v>
       </c>
       <c r="E17">
-        <v>0.08982821899742532</v>
+        <v>0.08973604805713364</v>
       </c>
       <c r="F17">
-        <v>3.89453144204964</v>
+        <v>3.885699118766638</v>
       </c>
       <c r="G17">
-        <v>3.221430888779224</v>
+        <v>1.108155532356392</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2.10687905898989</v>
       </c>
       <c r="I17">
-        <v>0.03433822813847698</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>12.94807984549172</v>
+        <v>0.03439096616419057</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>12.94479830396736</v>
       </c>
       <c r="L17">
-        <v>7.486402551794214</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>7.484899119260632</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1023,37 +1074,40 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.2494522946137607</v>
+        <v>0.249383543439194</v>
       </c>
       <c r="D18">
-        <v>0.08711933224122959</v>
+        <v>0.0866848220285803</v>
       </c>
       <c r="E18">
-        <v>0.0877381657487355</v>
+        <v>0.08764833008225992</v>
       </c>
       <c r="F18">
-        <v>3.73851212311817</v>
+        <v>3.730083519616898</v>
       </c>
       <c r="G18">
-        <v>3.089707228534891</v>
+        <v>1.062414072301152</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2.021385896521068</v>
       </c>
       <c r="I18">
-        <v>0.03333170567527155</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>12.56530917298355</v>
+        <v>0.03338248235185581</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>12.56226610022688</v>
       </c>
       <c r="L18">
-        <v>7.262591925238269</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>7.26121736519832</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1061,37 +1115,40 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.2466185447385243</v>
+        <v>0.2465517476382786</v>
       </c>
       <c r="D19">
-        <v>0.08545893580098607</v>
+        <v>0.0850320793018895</v>
       </c>
       <c r="E19">
-        <v>0.08703486045185471</v>
+        <v>0.08694581419142366</v>
       </c>
       <c r="F19">
-        <v>3.68688184439975</v>
+        <v>3.678585534972086</v>
       </c>
       <c r="G19">
-        <v>3.046140590033602</v>
+        <v>1.047273830699041</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>1.993120287819252</v>
       </c>
       <c r="I19">
-        <v>0.03300003569298404</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>12.43688211736861</v>
+        <v>0.03305015582862048</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>12.43391625491611</v>
       </c>
       <c r="L19">
-        <v>7.187537257201086</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>7.186204249812903</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1099,37 +1156,40 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.2595206246477062</v>
+        <v>0.259444627015057</v>
       </c>
       <c r="D20">
-        <v>0.09313615131050312</v>
+        <v>0.09267379143601318</v>
       </c>
       <c r="E20">
-        <v>0.09021718630808451</v>
+        <v>0.09012458236618315</v>
       </c>
       <c r="F20">
-        <v>3.923999866031181</v>
+        <v>3.915090607502293</v>
       </c>
       <c r="G20">
-        <v>3.246322259760333</v>
+        <v>1.116793420151836</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2.123039625279802</v>
       </c>
       <c r="I20">
-        <v>0.03452901690835475</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>13.01950419287851</v>
+        <v>0.03458212148746043</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>13.01617673427882</v>
       </c>
       <c r="L20">
-        <v>7.528184128787103</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>7.526655793933344</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1137,37 +1197,40 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.3060314675984301</v>
+        <v>0.3059151449285906</v>
       </c>
       <c r="D21">
-        <v>0.1233005816443082</v>
+        <v>0.1226951610484122</v>
       </c>
       <c r="E21">
-        <v>0.1012652397372946</v>
+        <v>0.1011604512445885</v>
       </c>
       <c r="F21">
-        <v>4.821171116931936</v>
+        <v>4.80980412074436</v>
       </c>
       <c r="G21">
-        <v>4.005807494280091</v>
+        <v>1.379589463460903</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2.616805104041958</v>
       </c>
       <c r="I21">
-        <v>0.04041823520773669</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>15.07589905834112</v>
+        <v>0.04048184656604548</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>15.07103446509029</v>
       </c>
       <c r="L21">
-        <v>8.733704486566637</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>8.731329405871747</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1175,37 +1238,40 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.3396325748643392</v>
+        <v>0.3394787909347485</v>
       </c>
       <c r="D22">
-        <v>0.1475171149383243</v>
+        <v>0.1467914193066591</v>
       </c>
       <c r="E22">
-        <v>0.1088291747885748</v>
+        <v>0.1087159921979648</v>
       </c>
       <c r="F22">
-        <v>5.509168020382788</v>
+        <v>5.495739856719752</v>
       </c>
       <c r="G22">
-        <v>4.590191443751678</v>
+        <v>1.580953382717766</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2.997435156290948</v>
       </c>
       <c r="I22">
-        <v>0.04500514009084355</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>16.51988731886212</v>
+        <v>0.0450758248506915</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>16.51364617048915</v>
       </c>
       <c r="L22">
-        <v>9.583255861977705</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>9.580106534083939</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1213,37 +1279,40 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.321337812294928</v>
+        <v>0.3212054006958169</v>
       </c>
       <c r="D23">
-        <v>0.1340789378760689</v>
+        <v>0.1334206724255864</v>
       </c>
       <c r="E23">
-        <v>0.1047546670304982</v>
+        <v>0.1046460273749652</v>
       </c>
       <c r="F23">
-        <v>5.13051140833025</v>
+        <v>5.118238767596978</v>
       </c>
       <c r="G23">
-        <v>4.268363379738588</v>
+        <v>1.470139796661783</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2.787753944788889</v>
       </c>
       <c r="I23">
-        <v>0.04247541589071702</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>15.73794773041112</v>
+        <v>0.04254232417048343</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>15.73248687401241</v>
       </c>
       <c r="L23">
-        <v>9.122894424991841</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>9.120185474247648</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1251,37 +1320,40 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.258801917231807</v>
+        <v>0.2587264529101532</v>
       </c>
       <c r="D24">
-        <v>0.09270058643995327</v>
+        <v>0.09224024901014616</v>
       </c>
       <c r="E24">
-        <v>0.09004125300714705</v>
+        <v>0.08994884485781895</v>
       </c>
       <c r="F24">
-        <v>3.910654070172342</v>
+        <v>3.901779681743335</v>
       </c>
       <c r="G24">
-        <v>3.235048881417356</v>
+        <v>1.1128815141671</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2.115720255626513</v>
       </c>
       <c r="I24">
-        <v>0.03444258591686378</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>12.98719084860136</v>
+        <v>0.03449552464549654</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>12.98388421982429</v>
       </c>
       <c r="L24">
-        <v>7.509280838855744</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>7.507763804081065</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1289,34 +1361,37 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.2003038113420956</v>
+        <v>0.2002641193160173</v>
       </c>
       <c r="D25">
-        <v>0.06039860695631205</v>
+        <v>0.06008608749053224</v>
       </c>
       <c r="E25">
-        <v>0.07519378860483883</v>
+        <v>0.07511840891800148</v>
       </c>
       <c r="F25">
-        <v>2.880152026261072</v>
+        <v>2.873847155114504</v>
       </c>
       <c r="G25">
-        <v>2.367086765191033</v>
+        <v>0.8104124319088015</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1.553381575614083</v>
       </c>
       <c r="I25">
-        <v>0.02793495250918987</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>10.29988764475195</v>
+        <v>0.02797437478389497</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>10.29802096836869</v>
       </c>
       <c r="L25">
-        <v>5.941449210346462</v>
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>5.940696010658741</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_41/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_41/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,8 +409,14 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -418,40 +424,46 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.1615977079187871</v>
+        <v>0.004470503726091479</v>
       </c>
       <c r="D2">
-        <v>0.04231045569424197</v>
+        <v>0.2457247543774628</v>
       </c>
       <c r="E2">
-        <v>0.06474248901124113</v>
+        <v>0.2009312460608115</v>
       </c>
       <c r="F2">
-        <v>2.258755792422633</v>
+        <v>2.590777990225064</v>
       </c>
       <c r="G2">
-        <v>0.6288016658078277</v>
+        <v>0.0007025928091006255</v>
       </c>
       <c r="H2">
-        <v>1.220375530289573</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.02431461008832336</v>
+        <v>0.2523785479861402</v>
       </c>
       <c r="K2">
-        <v>8.455949416225252</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.6286241813291298</v>
       </c>
       <c r="M2">
-        <v>4.870788595989765</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>34.0140530747218</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>2.406856802415092</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -459,40 +471,46 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.1371081509806658</v>
+        <v>0.007466060050788315</v>
       </c>
       <c r="D3">
-        <v>0.03256752131559892</v>
+        <v>0.1984516872189488</v>
       </c>
       <c r="E3">
-        <v>0.05793790821924105</v>
+        <v>0.16851337921549</v>
       </c>
       <c r="F3">
-        <v>1.899146630690709</v>
+        <v>2.114894929796463</v>
       </c>
       <c r="G3">
-        <v>0.5221990206143232</v>
+        <v>0.0007409950038378147</v>
       </c>
       <c r="H3">
-        <v>1.027430689339099</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.0223218029531882</v>
+        <v>0.1998351186514</v>
       </c>
       <c r="K3">
-        <v>7.259490304167798</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.5265021880190517</v>
       </c>
       <c r="M3">
-        <v>4.178038958063951</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>28.52707411461131</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>1.951299739892178</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -500,40 +518,46 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.1226793793453567</v>
+        <v>0.01045322942259475</v>
       </c>
       <c r="D4">
-        <v>0.02740901783570138</v>
+        <v>0.1732474635140022</v>
       </c>
       <c r="E4">
-        <v>0.05384452732348421</v>
+        <v>0.1505642673477539</v>
       </c>
       <c r="F4">
-        <v>1.699346353584104</v>
+        <v>1.929057412142711</v>
       </c>
       <c r="G4">
-        <v>0.4627501416918278</v>
+        <v>0.0007630447847664355</v>
       </c>
       <c r="H4">
-        <v>0.9209834188818888</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.02128550450914446</v>
+        <v>0.1747613888179345</v>
       </c>
       <c r="K4">
-        <v>6.542774826523583</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.4688502710558566</v>
       </c>
       <c r="M4">
-        <v>3.763917317325195</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>25.4450279750821</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>1.762452205606934</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -541,40 +565,46 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.1169238384194244</v>
+        <v>0.01187790701317581</v>
       </c>
       <c r="D5">
-        <v>0.02547711132674735</v>
+        <v>0.163647044686158</v>
       </c>
       <c r="E5">
-        <v>0.05219437918383463</v>
+        <v>0.1435888583922171</v>
       </c>
       <c r="F5">
-        <v>1.622342202440095</v>
+        <v>1.872332219075346</v>
       </c>
       <c r="G5">
-        <v>0.4397809698753861</v>
+        <v>0.0007717962062725235</v>
       </c>
       <c r="H5">
-        <v>0.8801354947850797</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.02090389769371725</v>
+        <v>0.1657870592830832</v>
       </c>
       <c r="K5">
-        <v>6.254286446432474</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.4462324881822752</v>
       </c>
       <c r="M5">
-        <v>3.597415489183263</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>24.23860055053382</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>1.701708745835319</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -582,40 +612,46 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.1159749010810742</v>
+        <v>0.01212531483636425</v>
       </c>
       <c r="D6">
-        <v>0.02516565287877626</v>
+        <v>0.1620872078261328</v>
       </c>
       <c r="E6">
-        <v>0.05192136897827382</v>
+        <v>0.1424478104163676</v>
       </c>
       <c r="F6">
-        <v>1.609800049816741</v>
+        <v>1.863897888860066</v>
       </c>
       <c r="G6">
-        <v>0.4360363010608097</v>
+        <v>0.0007732384522568173</v>
       </c>
       <c r="H6">
-        <v>0.8734927954295273</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.02084282373382784</v>
+        <v>0.1643601546495859</v>
       </c>
       <c r="K6">
-        <v>6.206575263445387</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.4425212361396973</v>
       </c>
       <c r="M6">
-        <v>3.569889496683402</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>24.04078034530517</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>1.692461707144659</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -623,40 +659,46 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.1226012889438977</v>
+        <v>0.01047168319074387</v>
       </c>
       <c r="D7">
-        <v>0.02738231792107015</v>
+        <v>0.1731155661622665</v>
       </c>
       <c r="E7">
-        <v>0.053822204253553</v>
+        <v>0.1504689757930464</v>
       </c>
       <c r="F7">
-        <v>1.698290998845849</v>
+        <v>1.928223147990892</v>
       </c>
       <c r="G7">
-        <v>0.4624355848766726</v>
+        <v>0.0007631636054727795</v>
       </c>
       <c r="H7">
-        <v>0.9204228717596834</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.02128020090956184</v>
+        <v>0.1746358823982135</v>
       </c>
       <c r="K7">
-        <v>6.538870787606669</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.4685420933442259</v>
       </c>
       <c r="M7">
-        <v>3.761663359413078</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>25.4285800071479</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>1.761573959394923</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -664,40 +706,46 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.1530086222018099</v>
+        <v>0.00520077122115481</v>
       </c>
       <c r="D8">
-        <v>0.03875550607379097</v>
+        <v>0.2284061564830751</v>
       </c>
       <c r="E8">
-        <v>0.0623764972595815</v>
+        <v>0.1892291915488826</v>
       </c>
       <c r="F8">
-        <v>2.129829926842945</v>
+        <v>2.39855685548433</v>
       </c>
       <c r="G8">
-        <v>0.5906304102806104</v>
+        <v>0.0007162680603965279</v>
       </c>
       <c r="H8">
-        <v>1.151025979821938</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.02358438025674481</v>
+        <v>0.2323263946604541</v>
       </c>
       <c r="K8">
-        <v>8.039079600063417</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.5920598263438137</v>
       </c>
       <c r="M8">
-        <v>4.629222387584264</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>32.04507985824034</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>2.22572636524022</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -705,40 +753,46 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.2191080459033117</v>
+        <v>0.01360682745941766</v>
       </c>
       <c r="D9">
-        <v>0.06976819307561044</v>
+        <v>0.3993222928895079</v>
       </c>
       <c r="E9">
-        <v>0.08001160137652263</v>
+        <v>0.2975433924555517</v>
       </c>
       <c r="F9">
-        <v>3.192871815318824</v>
+        <v>5.047908037619379</v>
       </c>
       <c r="G9">
-        <v>0.9043839318140385</v>
+        <v>0.0005956030193681442</v>
       </c>
       <c r="H9">
-        <v>1.72723668288279</v>
+        <v>0</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.02995660120238064</v>
+        <v>0.4675090279754812</v>
       </c>
       <c r="K9">
-        <v>11.17632035869619</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.9168426994743868</v>
       </c>
       <c r="M9">
-        <v>6.452221326775572</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>49.75456906358443</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>4.612626785499344</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -746,40 +800,46 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.2747684018642076</v>
+        <v>0.01360682745941766</v>
       </c>
       <c r="D10">
-        <v>0.1021452372977549</v>
+        <v>0.3993222928895079</v>
       </c>
       <c r="E10">
-        <v>0.09383683331734716</v>
+        <v>0.2975433924555517</v>
       </c>
       <c r="F10">
-        <v>4.202902625322849</v>
+        <v>5.047908037619379</v>
       </c>
       <c r="G10">
-        <v>1.201358408725028</v>
+        <v>0.0005956030193681442</v>
       </c>
       <c r="H10">
-        <v>2.281501868139912</v>
+        <v>0</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.03646420657389271</v>
+        <v>0.4675090279754812</v>
       </c>
       <c r="K10">
-        <v>13.70127867458032</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.9168426994743868</v>
       </c>
       <c r="M10">
-        <v>7.927746458499257</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>49.75456906358443</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>4.612626785499344</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -787,40 +847,46 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.3027385554951678</v>
+        <v>0.01360682745941766</v>
       </c>
       <c r="D11">
-        <v>0.1205196208895103</v>
+        <v>0.3993222928895079</v>
       </c>
       <c r="E11">
-        <v>0.1004272185525856</v>
+        <v>0.2975433924555517</v>
       </c>
       <c r="F11">
-        <v>4.746585437263803</v>
+        <v>5.047908037619379</v>
       </c>
       <c r="G11">
-        <v>1.361027867043802</v>
+        <v>0.0005956030193681442</v>
       </c>
       <c r="H11">
-        <v>2.581809673770366</v>
+        <v>0</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.04006084364136164</v>
+        <v>0.4675090279754812</v>
       </c>
       <c r="K11">
-        <v>14.9327156709748</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.9168426994743868</v>
       </c>
       <c r="M11">
-        <v>8.650081293389206</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>49.75456906358443</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>4.612626785499344</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -828,40 +894,46 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.3138565713014856</v>
+        <v>0.01360682745941766</v>
       </c>
       <c r="D12">
-        <v>0.1282132808577643</v>
+        <v>0.3993222928895079</v>
       </c>
       <c r="E12">
-        <v>0.1029798475335788</v>
+        <v>0.2975433924555517</v>
       </c>
       <c r="F12">
-        <v>4.969146290815161</v>
+        <v>5.047908037619379</v>
       </c>
       <c r="G12">
-        <v>1.426370836610346</v>
+        <v>0.0005956030193681442</v>
       </c>
       <c r="H12">
-        <v>2.70507688510024</v>
+        <v>0</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.04154506730861129</v>
+        <v>0.4675090279754812</v>
       </c>
       <c r="K12">
-        <v>15.4154720010273</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.9168426994743868</v>
       </c>
       <c r="M12">
-        <v>8.933751677938034</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>49.75456906358443</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>4.612626785499344</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -869,40 +941,46 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.3114356541436649</v>
+        <v>0.01360682745941766</v>
       </c>
       <c r="D13">
-        <v>0.1265190909399507</v>
+        <v>0.3993222928895079</v>
       </c>
       <c r="E13">
-        <v>0.1024272832322914</v>
+        <v>0.2975433924555517</v>
       </c>
       <c r="F13">
-        <v>4.92037566523183</v>
+        <v>5.047908037619379</v>
       </c>
       <c r="G13">
-        <v>1.412052651706333</v>
+        <v>0.0005956030193681442</v>
       </c>
       <c r="H13">
-        <v>2.678049197515207</v>
+        <v>0</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.0412193405193797</v>
+        <v>0.4675090279754812</v>
       </c>
       <c r="K13">
-        <v>15.31067643174026</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.9168426994743868</v>
       </c>
       <c r="M13">
-        <v>8.872149212986528</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>49.75456906358443</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>4.612626785499344</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -910,40 +988,46 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.3036416228972598</v>
+        <v>0.01360682745941766</v>
       </c>
       <c r="D14">
-        <v>0.1211362585451781</v>
+        <v>0.3993222928895079</v>
       </c>
       <c r="E14">
-        <v>0.1006359855844714</v>
+        <v>0.2975433924555517</v>
       </c>
       <c r="F14">
-        <v>4.764527528787738</v>
+        <v>5.047908037619379</v>
       </c>
       <c r="G14">
-        <v>1.366295907844972</v>
+        <v>0.0005956030193681442</v>
       </c>
       <c r="H14">
-        <v>2.591740187528899</v>
+        <v>0</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.04018027785881451</v>
+        <v>0.4675090279754812</v>
       </c>
       <c r="K14">
-        <v>14.97206973423712</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.9168426994743868</v>
       </c>
       <c r="M14">
-        <v>8.673195424245506</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>49.75456906358443</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>4.612626785499344</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -951,40 +1035,46 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.2989415198299952</v>
+        <v>0.01360682745941766</v>
       </c>
       <c r="D15">
-        <v>0.1179429231130484</v>
+        <v>0.3993222928895079</v>
       </c>
       <c r="E15">
-        <v>0.0995466798575606</v>
+        <v>0.2975433924555517</v>
       </c>
       <c r="F15">
-        <v>4.671409646016002</v>
+        <v>5.047908037619379</v>
       </c>
       <c r="G15">
-        <v>1.338954549773121</v>
+        <v>0.0005956030193681442</v>
       </c>
       <c r="H15">
-        <v>2.540215085437637</v>
+        <v>0</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.03956087775083361</v>
+        <v>0.4675090279754812</v>
       </c>
       <c r="K15">
-        <v>14.76697214887446</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.9168426994743868</v>
       </c>
       <c r="M15">
-        <v>8.552754292828212</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>49.75456906358443</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>4.612626785499344</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -992,40 +1082,46 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.2730048528484446</v>
+        <v>0.01360682745941766</v>
       </c>
       <c r="D16">
-        <v>0.101033737574916</v>
+        <v>0.3993222928895079</v>
       </c>
       <c r="E16">
-        <v>0.093413257372152</v>
+        <v>0.2975433924555517</v>
       </c>
       <c r="F16">
-        <v>4.169412762316483</v>
+        <v>5.047908037619379</v>
       </c>
       <c r="G16">
-        <v>1.191520132385378</v>
+        <v>0.0005956030193681442</v>
       </c>
       <c r="H16">
-        <v>2.263043927313575</v>
+        <v>0</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.03624431567078901</v>
+        <v>0.4675090279754812</v>
       </c>
       <c r="K16">
-        <v>13.62281328667135</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.9168426994743868</v>
       </c>
       <c r="M16">
-        <v>7.881781227596662</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>49.75456906358443</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>4.612626785499344</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1033,40 +1129,46 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.2578576889712707</v>
+        <v>0.01360682745941766</v>
       </c>
       <c r="D17">
-        <v>0.0917170399125169</v>
+        <v>0.3993222928895079</v>
       </c>
       <c r="E17">
-        <v>0.08973604805713364</v>
+        <v>0.2975433924555517</v>
       </c>
       <c r="F17">
-        <v>3.885699118766638</v>
+        <v>5.047908037619379</v>
       </c>
       <c r="G17">
-        <v>1.108155532356392</v>
+        <v>0.0005956030193681442</v>
       </c>
       <c r="H17">
-        <v>2.10687905898989</v>
+        <v>0</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.03439096616419057</v>
+        <v>0.4675090279754812</v>
       </c>
       <c r="K17">
-        <v>12.94479830396736</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.9168426994743868</v>
       </c>
       <c r="M17">
-        <v>7.484899119260632</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>49.75456906358443</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>4.612626785499344</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1074,40 +1176,46 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.249383543439194</v>
+        <v>0.01360682745941766</v>
       </c>
       <c r="D18">
-        <v>0.0866848220285803</v>
+        <v>0.3993222928895079</v>
       </c>
       <c r="E18">
-        <v>0.08764833008225992</v>
+        <v>0.2975433924555517</v>
       </c>
       <c r="F18">
-        <v>3.730083519616898</v>
+        <v>5.047908037619379</v>
       </c>
       <c r="G18">
-        <v>1.062414072301152</v>
+        <v>0.0005956030193681442</v>
       </c>
       <c r="H18">
-        <v>2.021385896521068</v>
+        <v>0</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.03338248235185581</v>
+        <v>0.4675090279754812</v>
       </c>
       <c r="K18">
-        <v>12.56226610022688</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.9168426994743868</v>
       </c>
       <c r="M18">
-        <v>7.26121736519832</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>49.75456906358443</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>4.612626785499344</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1115,40 +1223,46 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.2465517476382786</v>
+        <v>0.01360682745941766</v>
       </c>
       <c r="D19">
-        <v>0.0850320793018895</v>
+        <v>0.3993222928895079</v>
       </c>
       <c r="E19">
-        <v>0.08694581419142366</v>
+        <v>0.2975433924555517</v>
       </c>
       <c r="F19">
-        <v>3.678585534972086</v>
+        <v>5.047908037619379</v>
       </c>
       <c r="G19">
-        <v>1.047273830699041</v>
+        <v>0.0005956030193681442</v>
       </c>
       <c r="H19">
-        <v>1.993120287819252</v>
+        <v>0</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.03305015582862048</v>
+        <v>0.4675090279754812</v>
       </c>
       <c r="K19">
-        <v>12.43391625491611</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.9168426994743868</v>
       </c>
       <c r="M19">
-        <v>7.186204249812903</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>49.75456906358443</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>4.612626785499344</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1156,40 +1270,46 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.259444627015057</v>
+        <v>0.01360682745941766</v>
       </c>
       <c r="D20">
-        <v>0.09267379143601318</v>
+        <v>0.3993222928895079</v>
       </c>
       <c r="E20">
-        <v>0.09012458236618315</v>
+        <v>0.2975433924555517</v>
       </c>
       <c r="F20">
-        <v>3.915090607502293</v>
+        <v>5.047908037619379</v>
       </c>
       <c r="G20">
-        <v>1.116793420151836</v>
+        <v>0.0005956030193681442</v>
       </c>
       <c r="H20">
-        <v>2.123039625279802</v>
+        <v>0</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.03458212148746043</v>
+        <v>0.4675090279754812</v>
       </c>
       <c r="K20">
-        <v>13.01617673427882</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.9168426994743868</v>
       </c>
       <c r="M20">
-        <v>7.526655793933344</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>49.75456906358443</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>4.612626785499344</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1197,40 +1317,46 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.3059151449285906</v>
+        <v>0.01360682745941766</v>
       </c>
       <c r="D21">
-        <v>0.1226951610484122</v>
+        <v>0.3993222928895079</v>
       </c>
       <c r="E21">
-        <v>0.1011604512445885</v>
+        <v>0.2975433924555517</v>
       </c>
       <c r="F21">
-        <v>4.80980412074436</v>
+        <v>5.047908037619379</v>
       </c>
       <c r="G21">
-        <v>1.379589463460903</v>
+        <v>0.0005956030193681442</v>
       </c>
       <c r="H21">
-        <v>2.616805104041958</v>
+        <v>0</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.04048184656604548</v>
+        <v>0.4675090279754812</v>
       </c>
       <c r="K21">
-        <v>15.07103446509029</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.9168426994743868</v>
       </c>
       <c r="M21">
-        <v>8.731329405871747</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>49.75456906358443</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>4.612626785499344</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1238,40 +1364,46 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.3394787909347485</v>
+        <v>0.01360682745941766</v>
       </c>
       <c r="D22">
-        <v>0.1467914193066591</v>
+        <v>0.3993222928895079</v>
       </c>
       <c r="E22">
-        <v>0.1087159921979648</v>
+        <v>0.2975433924555517</v>
       </c>
       <c r="F22">
-        <v>5.495739856719752</v>
+        <v>5.047908037619379</v>
       </c>
       <c r="G22">
-        <v>1.580953382717766</v>
+        <v>0.0005956030193681442</v>
       </c>
       <c r="H22">
-        <v>2.997435156290948</v>
+        <v>0</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.0450758248506915</v>
+        <v>0.4675090279754812</v>
       </c>
       <c r="K22">
-        <v>16.51364617048915</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.9168426994743868</v>
       </c>
       <c r="M22">
-        <v>9.580106534083939</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>49.75456906358443</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>4.612626785499344</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1279,40 +1411,46 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.3212054006958169</v>
+        <v>0.01360682745941766</v>
       </c>
       <c r="D23">
-        <v>0.1334206724255864</v>
+        <v>0.3993222928895079</v>
       </c>
       <c r="E23">
-        <v>0.1046460273749652</v>
+        <v>0.2975433924555517</v>
       </c>
       <c r="F23">
-        <v>5.118238767596978</v>
+        <v>5.047908037619379</v>
       </c>
       <c r="G23">
-        <v>1.470139796661783</v>
+        <v>0.0005956030193681442</v>
       </c>
       <c r="H23">
-        <v>2.787753944788889</v>
+        <v>0</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.04254232417048343</v>
+        <v>0.4675090279754812</v>
       </c>
       <c r="K23">
-        <v>15.73248687401241</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.9168426994743868</v>
       </c>
       <c r="M23">
-        <v>9.120185474247648</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>49.75456906358443</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>4.612626785499344</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1320,40 +1458,46 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.2587264529101532</v>
+        <v>0.01360682745941766</v>
       </c>
       <c r="D24">
-        <v>0.09224024901014616</v>
+        <v>0.3993222928895079</v>
       </c>
       <c r="E24">
-        <v>0.08994884485781895</v>
+        <v>0.2975433924555517</v>
       </c>
       <c r="F24">
-        <v>3.901779681743335</v>
+        <v>5.047908037619379</v>
       </c>
       <c r="G24">
-        <v>1.1128815141671</v>
+        <v>0.0005956030193681442</v>
       </c>
       <c r="H24">
-        <v>2.115720255626513</v>
+        <v>0</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.03449552464549654</v>
+        <v>0.4675090279754812</v>
       </c>
       <c r="K24">
-        <v>12.98388421982429</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.9168426994743868</v>
       </c>
       <c r="M24">
-        <v>7.507763804081065</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>49.75456906358443</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>4.612626785499344</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1361,37 +1505,43 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.2002641193160173</v>
+        <v>0.01360682745941766</v>
       </c>
       <c r="D25">
-        <v>0.06008608749053224</v>
+        <v>0.3993222928895079</v>
       </c>
       <c r="E25">
-        <v>0.07511840891800148</v>
+        <v>0.2975433924555517</v>
       </c>
       <c r="F25">
-        <v>2.873847155114504</v>
+        <v>5.047908037619379</v>
       </c>
       <c r="G25">
-        <v>0.8104124319088015</v>
+        <v>0.0005956030193681442</v>
       </c>
       <c r="H25">
-        <v>1.553381575614083</v>
+        <v>0</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.02797437478389497</v>
+        <v>0.4675090279754812</v>
       </c>
       <c r="K25">
-        <v>10.29802096836869</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.9168426994743868</v>
       </c>
       <c r="M25">
-        <v>5.940696010658741</v>
+        <v>49.75456906358443</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>4.612626785499344</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_41/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_41/res_line/pl_mw.xlsx
@@ -424,19 +424,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.004470503726091479</v>
+        <v>0.2316109937791424</v>
       </c>
       <c r="D2">
-        <v>0.2457247543774628</v>
+        <v>0.07322757390849688</v>
       </c>
       <c r="E2">
-        <v>0.2009312460608115</v>
+        <v>0.06387083454620068</v>
       </c>
       <c r="F2">
-        <v>2.590777990225064</v>
+        <v>1.05163927435656</v>
       </c>
       <c r="G2">
-        <v>0.0007025928091006255</v>
+        <v>0.0008207975979310128</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,22 +445,22 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.2523785479861402</v>
+        <v>0.07968277256458123</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>2.771521378238987</v>
       </c>
       <c r="L2">
-        <v>0.6286241813291298</v>
+        <v>0.04315316679626946</v>
       </c>
       <c r="M2">
-        <v>34.0140530747218</v>
+        <v>0.6278900881090053</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.9717932176774582</v>
       </c>
       <c r="O2">
-        <v>2.406856802415092</v>
+        <v>2.755005491064765</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,19 +471,19 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.007466060050788315</v>
+        <v>0.2144386742867255</v>
       </c>
       <c r="D3">
-        <v>0.1984516872189488</v>
+        <v>0.0666940888434624</v>
       </c>
       <c r="E3">
-        <v>0.16851337921549</v>
+        <v>0.06172233965597407</v>
       </c>
       <c r="F3">
-        <v>2.114894929796463</v>
+        <v>1.016405671018774</v>
       </c>
       <c r="G3">
-        <v>0.0007409950038378147</v>
+        <v>0.0008255264242522653</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,22 +492,22 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1998351186514</v>
+        <v>0.07997656003345455</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>2.413786445595264</v>
       </c>
       <c r="L3">
-        <v>0.5265021880190517</v>
+        <v>0.04344599329077425</v>
       </c>
       <c r="M3">
-        <v>28.52707411461131</v>
+        <v>0.5527064332387823</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>1.00222713600602</v>
       </c>
       <c r="O3">
-        <v>1.951299739892178</v>
+        <v>2.682109957843721</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,19 +518,19 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.01045322942259475</v>
+        <v>0.2041663483889238</v>
       </c>
       <c r="D4">
-        <v>0.1732474635140022</v>
+        <v>0.06272607878804592</v>
       </c>
       <c r="E4">
-        <v>0.1505642673477539</v>
+        <v>0.06047305992296792</v>
       </c>
       <c r="F4">
-        <v>1.929057412142711</v>
+        <v>0.9966864407742548</v>
       </c>
       <c r="G4">
-        <v>0.0007630447847664355</v>
+        <v>0.00082852704686537</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,22 +539,22 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1747613888179345</v>
+        <v>0.08026654013725576</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>2.194931070878454</v>
       </c>
       <c r="L4">
-        <v>0.4688502710558566</v>
+        <v>0.0436564218438722</v>
       </c>
       <c r="M4">
-        <v>25.4450279750821</v>
+        <v>0.5068460469752907</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>1.022068784905024</v>
       </c>
       <c r="O4">
-        <v>1.762452205606934</v>
+        <v>2.642846091028673</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,19 +565,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.01187790701317581</v>
+        <v>0.2000446815042238</v>
       </c>
       <c r="D5">
-        <v>0.163647044686158</v>
+        <v>0.06111936565325493</v>
       </c>
       <c r="E5">
-        <v>0.1435888583922171</v>
+        <v>0.0599808845753298</v>
       </c>
       <c r="F5">
-        <v>1.872332219075346</v>
+        <v>0.9891085517330183</v>
       </c>
       <c r="G5">
-        <v>0.0007717962062725235</v>
+        <v>0.0008297747091865079</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,22 +586,22 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1657870592830832</v>
+        <v>0.0804113955923178</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>2.105910229797729</v>
       </c>
       <c r="L5">
-        <v>0.4462324881822752</v>
+        <v>0.04374976805308428</v>
       </c>
       <c r="M5">
-        <v>24.23860055053382</v>
+        <v>0.4882251656847671</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>1.030437517269782</v>
       </c>
       <c r="O5">
-        <v>1.701708745835319</v>
+        <v>2.628159580904651</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,19 +612,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.01212531483636425</v>
+        <v>0.1993640608924068</v>
       </c>
       <c r="D6">
-        <v>0.1620872078261328</v>
+        <v>0.06085317427825032</v>
       </c>
       <c r="E6">
-        <v>0.1424478104163676</v>
+        <v>0.05990016224702721</v>
       </c>
       <c r="F6">
-        <v>1.863897888860066</v>
+        <v>0.9878772381880196</v>
       </c>
       <c r="G6">
-        <v>0.0007732384522568173</v>
+        <v>0.0008299833988114511</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,22 +633,22 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1643601546495859</v>
+        <v>0.08043703588227658</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>2.091137327028434</v>
       </c>
       <c r="L6">
-        <v>0.4425212361396973</v>
+        <v>0.0437657237902922</v>
       </c>
       <c r="M6">
-        <v>24.04078034530517</v>
+        <v>0.485137026196405</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>1.031844030151795</v>
       </c>
       <c r="O6">
-        <v>1.692461707144659</v>
+        <v>2.625798336307298</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,19 +659,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.01047168319074387</v>
+        <v>0.2041105064333522</v>
       </c>
       <c r="D7">
-        <v>0.1731155661622665</v>
+        <v>0.06270436931917089</v>
       </c>
       <c r="E7">
-        <v>0.1504689757930464</v>
+        <v>0.06046635462982053</v>
       </c>
       <c r="F7">
-        <v>1.928223147990892</v>
+        <v>0.9965824190472361</v>
       </c>
       <c r="G7">
-        <v>0.0007631636054727795</v>
+        <v>0.0008285437719163571</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,22 +680,22 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1746358823982135</v>
+        <v>0.08026838677576009</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>2.193729883937465</v>
       </c>
       <c r="L7">
-        <v>0.4685420933442259</v>
+        <v>0.04365765013016265</v>
       </c>
       <c r="M7">
-        <v>25.4285800071479</v>
+        <v>0.5065946564356807</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>1.022180511712314</v>
       </c>
       <c r="O7">
-        <v>1.761573959394923</v>
+        <v>2.642642790873595</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.00520077122115481</v>
+        <v>0.2256312049448752</v>
       </c>
       <c r="D8">
-        <v>0.2284061564830751</v>
+        <v>0.07096536377364515</v>
       </c>
       <c r="E8">
-        <v>0.1892291915488826</v>
+        <v>0.06311511470163467</v>
       </c>
       <c r="F8">
-        <v>2.39855685548433</v>
+        <v>1.039078848644536</v>
       </c>
       <c r="G8">
-        <v>0.0007162680603965279</v>
+        <v>0.0008224082313763449</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,22 +727,22 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.2323263946604541</v>
+        <v>0.0797607850120059</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>2.647987150472517</v>
       </c>
       <c r="L8">
-        <v>0.5920598263438137</v>
+        <v>0.04324770899383701</v>
       </c>
       <c r="M8">
-        <v>32.04507985824034</v>
+        <v>0.6018986357910876</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.982042536073088</v>
       </c>
       <c r="O8">
-        <v>2.22572636524022</v>
+        <v>2.728688843285795</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,19 +753,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.01360682745941766</v>
+        <v>0.2701762584130876</v>
       </c>
       <c r="D9">
-        <v>0.3993222928895079</v>
+        <v>0.08754418173410983</v>
       </c>
       <c r="E9">
-        <v>0.2975433924555517</v>
+        <v>0.06889596651702234</v>
       </c>
       <c r="F9">
-        <v>5.047908037619379</v>
+        <v>1.138733837530467</v>
       </c>
       <c r="G9">
-        <v>0.0005956030193681442</v>
+        <v>0.0008111245670980474</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,22 +774,22 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.4675090279754812</v>
+        <v>0.07967674165876204</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>3.546852408993288</v>
       </c>
       <c r="L9">
-        <v>0.9168426994743868</v>
+        <v>0.0426920486207667</v>
       </c>
       <c r="M9">
-        <v>49.75456906358443</v>
+        <v>0.7916106861017056</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.9128486722792886</v>
       </c>
       <c r="O9">
-        <v>4.612626785499344</v>
+        <v>2.944272734366933</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,19 +800,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.01360682745941766</v>
+        <v>0.3046139455870502</v>
       </c>
       <c r="D10">
-        <v>0.3993222928895079</v>
+        <v>0.1000063612565114</v>
       </c>
       <c r="E10">
-        <v>0.2975433924555517</v>
+        <v>0.07354858750238691</v>
       </c>
       <c r="F10">
-        <v>5.047908037619379</v>
+        <v>1.223581313780272</v>
       </c>
       <c r="G10">
-        <v>0.0005956030193681442</v>
+        <v>0.000803257368868742</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,22 +821,22 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.4675090279754812</v>
+        <v>0.08023263065754449</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>4.21485521810132</v>
       </c>
       <c r="L10">
-        <v>0.9168426994743868</v>
+        <v>0.04244284925654185</v>
       </c>
       <c r="M10">
-        <v>49.75456906358443</v>
+        <v>0.9333508916085975</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.8683326806377352</v>
       </c>
       <c r="O10">
-        <v>4.612626785499344</v>
+        <v>3.136061730277021</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,19 +847,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.01360682745941766</v>
+        <v>0.3207196233735488</v>
       </c>
       <c r="D11">
-        <v>0.3993222928895079</v>
+        <v>0.1057491258177521</v>
       </c>
       <c r="E11">
-        <v>0.2975433924555517</v>
+        <v>0.07576468021310134</v>
       </c>
       <c r="F11">
-        <v>5.047908037619379</v>
+        <v>1.26511018283604</v>
       </c>
       <c r="G11">
-        <v>0.0005956030193681442</v>
+        <v>0.0007997623525346088</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.4675090279754812</v>
+        <v>0.08063453026568013</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>4.521052365066623</v>
       </c>
       <c r="L11">
-        <v>0.9168426994743868</v>
+        <v>0.04236587033443584</v>
       </c>
       <c r="M11">
-        <v>49.75456906358443</v>
+        <v>0.9984992983831091</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.8495784365593266</v>
       </c>
       <c r="O11">
-        <v>4.612626785499344</v>
+        <v>3.231727281283696</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,19 +894,19 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.01360682745941766</v>
+        <v>0.326887708929263</v>
       </c>
       <c r="D12">
-        <v>0.3993222928895079</v>
+        <v>0.1079354305757505</v>
       </c>
       <c r="E12">
-        <v>0.2975433924555517</v>
+        <v>0.07661920222162522</v>
       </c>
       <c r="F12">
-        <v>5.047908037619379</v>
+        <v>1.281294046059543</v>
       </c>
       <c r="G12">
-        <v>0.0005956030193681442</v>
+        <v>0.0007984502409403753</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,22 +915,22 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.4675090279754812</v>
+        <v>0.08080949658106817</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>4.637392888724605</v>
       </c>
       <c r="L12">
-        <v>0.9168426994743868</v>
+        <v>0.042342119730165</v>
       </c>
       <c r="M12">
-        <v>49.75456906358443</v>
+        <v>1.023279445996913</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.8427032516511304</v>
       </c>
       <c r="O12">
-        <v>4.612626785499344</v>
+        <v>3.26926925213894</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.01360682745941766</v>
+        <v>0.3255561229757404</v>
       </c>
       <c r="D13">
-        <v>0.3993222928895079</v>
+        <v>0.1074640351876894</v>
       </c>
       <c r="E13">
-        <v>0.2975433924555517</v>
+        <v>0.07643446657137076</v>
       </c>
       <c r="F13">
-        <v>5.047908037619379</v>
+        <v>1.277787593708624</v>
       </c>
       <c r="G13">
-        <v>0.0005956030193681442</v>
+        <v>0.0007987323330370346</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,22 +962,22 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.4675090279754812</v>
+        <v>0.08077077893888429</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>4.612318560284393</v>
       </c>
       <c r="L13">
-        <v>0.9168426994743868</v>
+        <v>0.04234699188837965</v>
       </c>
       <c r="M13">
-        <v>49.75456906358443</v>
+        <v>1.017937484737104</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.8441736738830627</v>
       </c>
       <c r="O13">
-        <v>4.612626785499344</v>
+        <v>3.261123652887647</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,19 +988,19 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.01360682745941766</v>
+        <v>0.3212256524717532</v>
       </c>
       <c r="D14">
-        <v>0.3993222928895079</v>
+        <v>0.1059287547287511</v>
       </c>
       <c r="E14">
-        <v>0.2975433924555517</v>
+        <v>0.07583466881444423</v>
       </c>
       <c r="F14">
-        <v>5.047908037619379</v>
+        <v>1.266432246547225</v>
       </c>
       <c r="G14">
-        <v>0.0005956030193681442</v>
+        <v>0.0007996541804299494</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,22 +1009,22 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.4675090279754812</v>
+        <v>0.08064846030632111</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>4.530615605127139</v>
       </c>
       <c r="L14">
-        <v>0.9168426994743868</v>
+        <v>0.04236380713436461</v>
       </c>
       <c r="M14">
-        <v>49.75456906358443</v>
+        <v>1.000535692941554</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.8490081999477965</v>
       </c>
       <c r="O14">
-        <v>4.612626785499344</v>
+        <v>3.234788887674</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,19 +1035,19 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.01360682745941766</v>
+        <v>0.3185823131215102</v>
       </c>
       <c r="D15">
-        <v>0.3993222928895079</v>
+        <v>0.104989900220076</v>
       </c>
       <c r="E15">
-        <v>0.2975433924555517</v>
+        <v>0.07546930396668827</v>
       </c>
       <c r="F15">
-        <v>5.047908037619379</v>
+        <v>1.259537509767142</v>
       </c>
       <c r="G15">
-        <v>0.0005956030193681442</v>
+        <v>0.0008002202990334145</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.4675090279754812</v>
+        <v>0.08057654441630291</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>4.480622783190483</v>
       </c>
       <c r="L15">
-        <v>0.9168426994743868</v>
+        <v>0.04237481534832277</v>
       </c>
       <c r="M15">
-        <v>49.75456906358443</v>
+        <v>0.9898913198444532</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.8519993572745648</v>
       </c>
       <c r="O15">
-        <v>4.612626785499344</v>
+        <v>3.21883265062695</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,19 +1082,19 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.01360682745941766</v>
+        <v>0.3035707518255322</v>
       </c>
       <c r="D16">
-        <v>0.3993222928895079</v>
+        <v>0.09963262838060416</v>
       </c>
       <c r="E16">
-        <v>0.2975433924555517</v>
+        <v>0.07340584968036268</v>
       </c>
       <c r="F16">
-        <v>5.047908037619379</v>
+        <v>1.220929326401901</v>
       </c>
       <c r="G16">
-        <v>0.0005956030193681442</v>
+        <v>0.0008034874061403562</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,22 +1103,22 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.4675090279754812</v>
+        <v>0.08020947703956693</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>4.194895932292127</v>
       </c>
       <c r="L16">
-        <v>0.9168426994743868</v>
+        <v>0.04244862618893208</v>
       </c>
       <c r="M16">
-        <v>49.75456906358443</v>
+        <v>0.9291079028936693</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.8695893854626178</v>
       </c>
       <c r="O16">
-        <v>4.612626785499344</v>
+        <v>3.129987958055295</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,19 +1129,19 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.01360682745941766</v>
+        <v>0.2944783972274507</v>
       </c>
       <c r="D17">
-        <v>0.3993222928895079</v>
+        <v>0.09636570442980741</v>
       </c>
       <c r="E17">
-        <v>0.2975433924555517</v>
+        <v>0.07216619343448372</v>
       </c>
       <c r="F17">
-        <v>5.047908037619379</v>
+        <v>1.198020168730906</v>
       </c>
       <c r="G17">
-        <v>0.0005956030193681442</v>
+        <v>0.0008055126699213294</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,22 +1150,22 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.4675090279754812</v>
+        <v>0.08002338725734504</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>4.020244730870616</v>
       </c>
       <c r="L17">
-        <v>0.9168426994743868</v>
+        <v>0.0425033408039539</v>
       </c>
       <c r="M17">
-        <v>49.75456906358443</v>
+        <v>0.8920001320254087</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.880771434922309</v>
       </c>
       <c r="O17">
-        <v>4.612626785499344</v>
+        <v>3.077713117896423</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,19 +1176,19 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.01360682745941766</v>
+        <v>0.2892897280347171</v>
       </c>
       <c r="D18">
-        <v>0.3993222928895079</v>
+        <v>0.09449352135094102</v>
       </c>
       <c r="E18">
-        <v>0.2975433924555517</v>
+        <v>0.0714624849224279</v>
       </c>
       <c r="F18">
-        <v>5.047908037619379</v>
+        <v>1.185117006584974</v>
       </c>
       <c r="G18">
-        <v>0.0005956030193681442</v>
+        <v>0.0008066854800112266</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,22 +1197,22 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.4675090279754812</v>
+        <v>0.07993029356982362</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>3.920004611596141</v>
       </c>
       <c r="L18">
-        <v>0.9168426994743868</v>
+        <v>0.04253822498601778</v>
       </c>
       <c r="M18">
-        <v>49.75456906358443</v>
+        <v>0.8707189224806839</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.8873431570525199</v>
       </c>
       <c r="O18">
-        <v>4.612626785499344</v>
+        <v>3.04843178435388</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.01360682745941766</v>
+        <v>0.2875398031008274</v>
       </c>
       <c r="D19">
-        <v>0.3993222928895079</v>
+        <v>0.09386078067113601</v>
       </c>
       <c r="E19">
-        <v>0.2975433924555517</v>
+        <v>0.07122579045053001</v>
       </c>
       <c r="F19">
-        <v>5.047908037619379</v>
+        <v>1.180794145419824</v>
       </c>
       <c r="G19">
-        <v>0.0005956030193681442</v>
+        <v>0.0008070839555997003</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,22 +1244,22 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.4675090279754812</v>
+        <v>0.07990112853798337</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>3.886100238939662</v>
       </c>
       <c r="L19">
-        <v>0.9168426994743868</v>
+        <v>0.04255061758164658</v>
       </c>
       <c r="M19">
-        <v>49.75456906358443</v>
+        <v>0.8635237596793175</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.889591956267374</v>
       </c>
       <c r="O19">
-        <v>4.612626785499344</v>
+        <v>3.038649524851138</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,19 +1270,19 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.01360682745941766</v>
+        <v>0.2954420074152324</v>
       </c>
       <c r="D20">
-        <v>0.3993222928895079</v>
+        <v>0.09671275617600372</v>
       </c>
       <c r="E20">
-        <v>0.2975433924555517</v>
+        <v>0.07229718640715177</v>
       </c>
       <c r="F20">
-        <v>5.047908037619379</v>
+        <v>1.200430319472503</v>
       </c>
       <c r="G20">
-        <v>0.0005956030193681442</v>
+        <v>0.0008052962609642587</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.4675090279754812</v>
+        <v>0.08004174464673142</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>4.038814039423698</v>
       </c>
       <c r="L20">
-        <v>0.9168426994743868</v>
+        <v>0.04249716185088914</v>
       </c>
       <c r="M20">
-        <v>49.75456906358443</v>
+        <v>0.8959437859348469</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.8795665061369178</v>
       </c>
       <c r="O20">
-        <v>4.612626785499344</v>
+        <v>3.083195806589657</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,19 +1317,19 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.01360682745941766</v>
+        <v>0.322495688282828</v>
       </c>
       <c r="D21">
-        <v>0.3993222928895079</v>
+        <v>0.1063793789871994</v>
       </c>
       <c r="E21">
-        <v>0.2975433924555517</v>
+        <v>0.07601041927675922</v>
       </c>
       <c r="F21">
-        <v>5.047908037619379</v>
+        <v>1.269754860094196</v>
       </c>
       <c r="G21">
-        <v>0.0005956030193681442</v>
+        <v>0.0007993831083934222</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.4675090279754812</v>
+        <v>0.08068375887838997</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>4.554602674144689</v>
       </c>
       <c r="L21">
-        <v>0.9168426994743868</v>
+        <v>0.04235872014354669</v>
       </c>
       <c r="M21">
-        <v>49.75456906358443</v>
+        <v>1.00564392626098</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.847581935762598</v>
       </c>
       <c r="O21">
-        <v>4.612626785499344</v>
+        <v>3.242487468251682</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,19 +1364,19 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.01360682745941766</v>
+        <v>0.3405833790166355</v>
       </c>
       <c r="D22">
-        <v>0.3993222928895079</v>
+        <v>0.1127654978356247</v>
       </c>
       <c r="E22">
-        <v>0.2975433924555517</v>
+        <v>0.0785271479077565</v>
       </c>
       <c r="F22">
-        <v>5.047908037619379</v>
+        <v>1.317749678121757</v>
       </c>
       <c r="G22">
-        <v>0.0005956030193681442</v>
+        <v>0.0007955844747736986</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,22 +1385,22 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.4675090279754812</v>
+        <v>0.08123680820878576</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>4.894005279741748</v>
       </c>
       <c r="L22">
-        <v>0.9168426994743868</v>
+        <v>0.04229980098818942</v>
       </c>
       <c r="M22">
-        <v>49.75456906358443</v>
+        <v>1.077986748034213</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.8280051616180728</v>
       </c>
       <c r="O22">
-        <v>4.612626785499344</v>
+        <v>3.354316246374736</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,19 +1411,19 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.01360682745941766</v>
+        <v>0.3308903440972983</v>
       </c>
       <c r="D23">
-        <v>0.3993222928895079</v>
+        <v>0.1093504756481565</v>
       </c>
       <c r="E23">
-        <v>0.2975433924555517</v>
+        <v>0.07717533943683819</v>
       </c>
       <c r="F23">
-        <v>5.047908037619379</v>
+        <v>1.291875323874521</v>
       </c>
       <c r="G23">
-        <v>0.0005956030193681442</v>
+        <v>0.0007976060787773838</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.4675090279754812</v>
+        <v>0.08092895147732904</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>4.712628780122145</v>
       </c>
       <c r="L23">
-        <v>0.9168426994743868</v>
+        <v>0.04232830063429027</v>
       </c>
       <c r="M23">
-        <v>49.75456906358443</v>
+        <v>1.039312022719173</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.8383282146610966</v>
       </c>
       <c r="O23">
-        <v>4.612626785499344</v>
+        <v>3.293887707075868</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,19 +1458,19 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.01360682745941766</v>
+        <v>0.295006239319747</v>
       </c>
       <c r="D24">
-        <v>0.3993222928895079</v>
+        <v>0.09655583542470225</v>
       </c>
       <c r="E24">
-        <v>0.2975433924555517</v>
+        <v>0.07223793656942235</v>
       </c>
       <c r="F24">
-        <v>5.047908037619379</v>
+        <v>1.19933985946038</v>
       </c>
       <c r="G24">
-        <v>0.0005956030193681442</v>
+        <v>0.0008053940730449023</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,22 +1479,22 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.4675090279754812</v>
+        <v>0.0800334021016802</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>4.030418332294857</v>
       </c>
       <c r="L24">
-        <v>0.9168426994743868</v>
+        <v>0.04249994469055629</v>
       </c>
       <c r="M24">
-        <v>49.75456906358443</v>
+        <v>0.8941606973523477</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.8801108098450214</v>
       </c>
       <c r="O24">
-        <v>4.612626785499344</v>
+        <v>3.080714685720579</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.01360682745941766</v>
+        <v>0.2578468460769443</v>
       </c>
       <c r="D25">
-        <v>0.3993222928895079</v>
+        <v>0.08301358018938032</v>
       </c>
       <c r="E25">
-        <v>0.2975433924555517</v>
+        <v>0.06726455052204372</v>
       </c>
       <c r="F25">
-        <v>5.047908037619379</v>
+        <v>1.109860822506931</v>
       </c>
       <c r="G25">
-        <v>0.0005956030193681442</v>
+        <v>0.0008141003103008442</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,22 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.4675090279754812</v>
+        <v>0.07959576654504374</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>3.302556550858526</v>
       </c>
       <c r="L25">
-        <v>0.9168426994743868</v>
+        <v>0.04281503059470992</v>
       </c>
       <c r="M25">
-        <v>49.75456906358443</v>
+        <v>0.7399234170089457</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.9304973065630264</v>
       </c>
       <c r="O25">
-        <v>4.612626785499344</v>
+        <v>2.880457115796531</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_41/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_41/res_line/pl_mw.xlsx
@@ -424,19 +424,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.2316109937791424</v>
+        <v>0.3821797679500634</v>
       </c>
       <c r="D2">
-        <v>0.07322757390849688</v>
+        <v>0.1164598247785733</v>
       </c>
       <c r="E2">
-        <v>0.06387083454620068</v>
+        <v>0.1528805847024266</v>
       </c>
       <c r="F2">
-        <v>1.05163927435656</v>
+        <v>2.24439011372813</v>
       </c>
       <c r="G2">
-        <v>0.0008207975979310128</v>
+        <v>0.002527910193161421</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,22 +445,22 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.07968277256458123</v>
+        <v>0.2221476803079945</v>
       </c>
       <c r="K2">
-        <v>2.771521378238987</v>
+        <v>1.54036593527286</v>
       </c>
       <c r="L2">
-        <v>0.04315316679626946</v>
+        <v>0.1311291549212932</v>
       </c>
       <c r="M2">
-        <v>0.6278900881090053</v>
+        <v>0.5356190831377674</v>
       </c>
       <c r="N2">
-        <v>0.9717932176774582</v>
+        <v>1.773140863759188</v>
       </c>
       <c r="O2">
-        <v>2.755005491064765</v>
+        <v>6.032816548646593</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,19 +471,19 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.2144386742867255</v>
+        <v>0.379915756642859</v>
       </c>
       <c r="D3">
-        <v>0.0666940888434624</v>
+        <v>0.1151106274258282</v>
       </c>
       <c r="E3">
-        <v>0.06172233965597407</v>
+        <v>0.153099355475895</v>
       </c>
       <c r="F3">
-        <v>1.016405671018774</v>
+        <v>2.251739254823214</v>
       </c>
       <c r="G3">
-        <v>0.0008255264242522653</v>
+        <v>0.002531104959684601</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,22 +492,22 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.07997656003345455</v>
+        <v>0.2234671281972531</v>
       </c>
       <c r="K3">
-        <v>2.413786445595264</v>
+        <v>1.439829800276584</v>
       </c>
       <c r="L3">
-        <v>0.04344599329077425</v>
+        <v>0.1316593918146367</v>
       </c>
       <c r="M3">
-        <v>0.5527064332387823</v>
+        <v>0.5162963364559019</v>
       </c>
       <c r="N3">
-        <v>1.00222713600602</v>
+        <v>1.78744045044936</v>
       </c>
       <c r="O3">
-        <v>2.682109957843721</v>
+        <v>6.060364373047605</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,19 +518,19 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.2041663483889238</v>
+        <v>0.3786914858254136</v>
       </c>
       <c r="D4">
-        <v>0.06272607878804592</v>
+        <v>0.1143167553953006</v>
       </c>
       <c r="E4">
-        <v>0.06047305992296792</v>
+        <v>0.1532838631964406</v>
       </c>
       <c r="F4">
-        <v>0.9966864407742548</v>
+        <v>2.257336318726892</v>
       </c>
       <c r="G4">
-        <v>0.00082852704686537</v>
+        <v>0.002533172424661997</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,22 +539,22 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.08026654013725576</v>
+        <v>0.2243520027899848</v>
       </c>
       <c r="K4">
-        <v>2.194931070878454</v>
+        <v>1.378461397391078</v>
       </c>
       <c r="L4">
-        <v>0.0436564218438722</v>
+        <v>0.1320108852503346</v>
       </c>
       <c r="M4">
-        <v>0.5068460469752907</v>
+        <v>0.5046084039483389</v>
       </c>
       <c r="N4">
-        <v>1.022068784905024</v>
+        <v>1.796819800191223</v>
       </c>
       <c r="O4">
-        <v>2.642846091028673</v>
+        <v>6.080305283952413</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,19 +565,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.2000446815042238</v>
+        <v>0.378234370772546</v>
       </c>
       <c r="D5">
-        <v>0.06111936565325493</v>
+        <v>0.1140019811559441</v>
       </c>
       <c r="E5">
-        <v>0.0599808845753298</v>
+        <v>0.1533716971467012</v>
       </c>
       <c r="F5">
-        <v>0.9891085517330183</v>
+        <v>2.259889997019386</v>
       </c>
       <c r="G5">
-        <v>0.0008297747091865079</v>
+        <v>0.002534041634524889</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,22 +586,22 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.0804113955923178</v>
+        <v>0.2247314075392239</v>
       </c>
       <c r="K5">
-        <v>2.105910229797729</v>
+        <v>1.353545694184305</v>
       </c>
       <c r="L5">
-        <v>0.04374976805308428</v>
+        <v>0.1321606558915907</v>
       </c>
       <c r="M5">
-        <v>0.4882251656847671</v>
+        <v>0.4998901714195156</v>
       </c>
       <c r="N5">
-        <v>1.030437517269782</v>
+        <v>1.800792824462988</v>
       </c>
       <c r="O5">
-        <v>2.628159580904651</v>
+        <v>6.089192359844503</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,19 +612,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.1993640608924068</v>
+        <v>0.3781609933450909</v>
       </c>
       <c r="D6">
-        <v>0.06085317427825032</v>
+        <v>0.1139502421695937</v>
       </c>
       <c r="E6">
-        <v>0.05990016224702721</v>
+        <v>0.1533870464631946</v>
       </c>
       <c r="F6">
-        <v>0.9878772381880196</v>
+        <v>2.260330514044284</v>
       </c>
       <c r="G6">
-        <v>0.0008299833988114511</v>
+        <v>0.002534187581192449</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,22 +633,22 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.08043703588227658</v>
+        <v>0.2247955441520908</v>
       </c>
       <c r="K6">
-        <v>2.091137327028434</v>
+        <v>1.349414089611599</v>
       </c>
       <c r="L6">
-        <v>0.0437657237902922</v>
+        <v>0.1321859202830176</v>
       </c>
       <c r="M6">
-        <v>0.485137026196405</v>
+        <v>0.4991094225768862</v>
       </c>
       <c r="N6">
-        <v>1.031844030151795</v>
+        <v>1.801461658462969</v>
       </c>
       <c r="O6">
-        <v>2.625798336307298</v>
+        <v>6.090714013417909</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,19 +659,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.2041105064333522</v>
+        <v>0.3786851517135403</v>
       </c>
       <c r="D7">
-        <v>0.06270436931917089</v>
+        <v>0.1143124748062903</v>
       </c>
       <c r="E7">
-        <v>0.06046635462982053</v>
+        <v>0.1532849965183907</v>
       </c>
       <c r="F7">
-        <v>0.9965824190472361</v>
+        <v>2.257369653743559</v>
       </c>
       <c r="G7">
-        <v>0.0008285437719163571</v>
+        <v>0.00253318403882744</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,22 +680,22 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.08026838677576009</v>
+        <v>0.2243570433826534</v>
       </c>
       <c r="K7">
-        <v>2.193729883937465</v>
+        <v>1.378124999185957</v>
       </c>
       <c r="L7">
-        <v>0.04365765013016265</v>
+        <v>0.1320128786326311</v>
       </c>
       <c r="M7">
-        <v>0.5065946564356807</v>
+        <v>0.5045445907691644</v>
       </c>
       <c r="N7">
-        <v>1.022180511712314</v>
+        <v>1.796872770743711</v>
       </c>
       <c r="O7">
-        <v>2.642642790873595</v>
+        <v>6.080422056983679</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.2256312049448752</v>
+        <v>0.3813647647090335</v>
       </c>
       <c r="D8">
-        <v>0.07096536377364515</v>
+        <v>0.1159874817022626</v>
       </c>
       <c r="E8">
-        <v>0.06311511470163467</v>
+        <v>0.1529456176333497</v>
       </c>
       <c r="F8">
-        <v>1.039078848644536</v>
+        <v>2.246699021549659</v>
       </c>
       <c r="G8">
-        <v>0.0008224082313763449</v>
+        <v>0.002528989824790048</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,22 +727,22 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.0797607850120059</v>
+        <v>0.2225871281235392</v>
       </c>
       <c r="K8">
-        <v>2.647987150472517</v>
+        <v>1.505627033281115</v>
       </c>
       <c r="L8">
-        <v>0.04324770899383701</v>
+        <v>0.1313066086595445</v>
       </c>
       <c r="M8">
-        <v>0.6018986357910876</v>
+        <v>0.5289202151068011</v>
       </c>
       <c r="N8">
-        <v>0.982042536073088</v>
+        <v>1.777947058070154</v>
       </c>
       <c r="O8">
-        <v>2.728688843285795</v>
+        <v>6.041686875597577</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,19 +753,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.2701762584130876</v>
+        <v>0.3879323826221253</v>
       </c>
       <c r="D9">
-        <v>0.08754418173410983</v>
+        <v>0.1195442998297622</v>
       </c>
       <c r="E9">
-        <v>0.06889596651702234</v>
+        <v>0.1526771733792565</v>
       </c>
       <c r="F9">
-        <v>1.138733837530467</v>
+        <v>2.234378449173136</v>
       </c>
       <c r="G9">
-        <v>0.0008111245670980474</v>
+        <v>0.0025216013044854</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,22 +774,22 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.07967674165876204</v>
+        <v>0.2197084029779397</v>
       </c>
       <c r="K9">
-        <v>3.546852408993288</v>
+        <v>1.7584672173939</v>
       </c>
       <c r="L9">
-        <v>0.0426920486207667</v>
+        <v>0.1301266657612761</v>
       </c>
       <c r="M9">
-        <v>0.7916106861017056</v>
+        <v>0.5781066983801608</v>
       </c>
       <c r="N9">
-        <v>0.9128486722792886</v>
+        <v>1.745582574060997</v>
       </c>
       <c r="O9">
-        <v>2.944272734366933</v>
+        <v>5.989746281364177</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,19 +800,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.3046139455870502</v>
+        <v>0.3935550052284498</v>
       </c>
       <c r="D10">
-        <v>0.1000063612565114</v>
+        <v>0.1223211653692005</v>
       </c>
       <c r="E10">
-        <v>0.07354858750238691</v>
+        <v>0.1527206875282872</v>
       </c>
       <c r="F10">
-        <v>1.223581313780272</v>
+        <v>2.23057234958128</v>
       </c>
       <c r="G10">
-        <v>0.000803257368868742</v>
+        <v>0.002516677657417078</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,22 +821,22 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.08023263065754449</v>
+        <v>0.217953223115174</v>
       </c>
       <c r="K10">
-        <v>4.21485521810132</v>
+        <v>1.94588462307803</v>
       </c>
       <c r="L10">
-        <v>0.04244284925654185</v>
+        <v>0.1293838750310758</v>
       </c>
       <c r="M10">
-        <v>0.9333508916085975</v>
+        <v>0.615075593061448</v>
       </c>
       <c r="N10">
-        <v>0.8683326806377352</v>
+        <v>1.724690212224075</v>
       </c>
       <c r="O10">
-        <v>3.136061730277021</v>
+        <v>5.966242035779402</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,19 +847,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.3207196233735488</v>
+        <v>0.3962854641870308</v>
       </c>
       <c r="D11">
-        <v>0.1057491258177521</v>
+        <v>0.1236195251715628</v>
       </c>
       <c r="E11">
-        <v>0.07576468021310134</v>
+        <v>0.1527924874257671</v>
       </c>
       <c r="F11">
-        <v>1.26511018283604</v>
+        <v>2.229980229942072</v>
       </c>
       <c r="G11">
-        <v>0.0007997623525346088</v>
+        <v>0.002514546259199084</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.08063453026568013</v>
+        <v>0.2172326467223193</v>
       </c>
       <c r="K11">
-        <v>4.521052365066623</v>
+        <v>2.031494405899991</v>
       </c>
       <c r="L11">
-        <v>0.04236587033443584</v>
+        <v>0.1290727229733371</v>
       </c>
       <c r="M11">
-        <v>0.9984992983831091</v>
+        <v>0.632071715858963</v>
       </c>
       <c r="N11">
-        <v>0.8495784365593266</v>
+        <v>1.715810533304513</v>
       </c>
       <c r="O11">
-        <v>3.231727281283696</v>
+        <v>5.958735405497322</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,19 +894,19 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.326887708929263</v>
+        <v>0.3973441849697679</v>
       </c>
       <c r="D12">
-        <v>0.1079354305757505</v>
+        <v>0.1241161899659318</v>
       </c>
       <c r="E12">
-        <v>0.07661920222162522</v>
+        <v>0.1528271299198387</v>
       </c>
       <c r="F12">
-        <v>1.281294046059543</v>
+        <v>2.22991982364627</v>
       </c>
       <c r="G12">
-        <v>0.0007984502409403753</v>
+        <v>0.002513754658181266</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,22 +915,22 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.08080949658106817</v>
+        <v>0.2169709617839288</v>
       </c>
       <c r="K12">
-        <v>4.637392888724605</v>
+        <v>2.063961980883221</v>
       </c>
       <c r="L12">
-        <v>0.042342119730165</v>
+        <v>0.128958729217894</v>
       </c>
       <c r="M12">
-        <v>1.023279445996913</v>
+        <v>0.6385331112120198</v>
       </c>
       <c r="N12">
-        <v>0.8427032516511304</v>
+        <v>1.712537690602396</v>
       </c>
       <c r="O12">
-        <v>3.26926925213894</v>
+        <v>5.956351133628459</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.3255561229757404</v>
+        <v>0.3971150707630784</v>
       </c>
       <c r="D13">
-        <v>0.1074640351876894</v>
+        <v>0.1240090025566332</v>
       </c>
       <c r="E13">
-        <v>0.07643446657137076</v>
+        <v>0.1528193379397287</v>
       </c>
       <c r="F13">
-        <v>1.277787593708624</v>
+        <v>2.229925547622116</v>
       </c>
       <c r="G13">
-        <v>0.0007987323330370346</v>
+        <v>0.002513924454796092</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,22 +962,22 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.08077077893888429</v>
+        <v>0.2170268232454546</v>
       </c>
       <c r="K13">
-        <v>4.612318560284393</v>
+        <v>2.056967355116853</v>
       </c>
       <c r="L13">
-        <v>0.04234699188837965</v>
+        <v>0.1289831095620766</v>
       </c>
       <c r="M13">
-        <v>1.017937484737104</v>
+        <v>0.6371404134299823</v>
       </c>
       <c r="N13">
-        <v>0.8441736738830627</v>
+        <v>1.713238567715599</v>
       </c>
       <c r="O13">
-        <v>3.261123652887647</v>
+        <v>5.95684424110928</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,19 +988,19 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.3212256524717532</v>
+        <v>0.3963720701018758</v>
       </c>
       <c r="D14">
-        <v>0.1059287547287511</v>
+        <v>0.1236602860808063</v>
       </c>
       <c r="E14">
-        <v>0.07583466881444423</v>
+        <v>0.1527951882486178</v>
       </c>
       <c r="F14">
-        <v>1.266432246547225</v>
+        <v>2.229971977219222</v>
       </c>
       <c r="G14">
-        <v>0.0007996541804299494</v>
+        <v>0.002514480823169686</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,22 +1009,22 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.08064846030632111</v>
+        <v>0.2172108937322079</v>
       </c>
       <c r="K14">
-        <v>4.530615605127139</v>
+        <v>2.034164560380418</v>
       </c>
       <c r="L14">
-        <v>0.04236380713436461</v>
+        <v>0.1290632679004062</v>
       </c>
       <c r="M14">
-        <v>1.000535692941554</v>
+        <v>0.632602793196277</v>
       </c>
       <c r="N14">
-        <v>0.8490081999477965</v>
+        <v>1.715539477321357</v>
       </c>
       <c r="O14">
-        <v>3.234788887674</v>
+        <v>5.958530063060067</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,19 +1035,19 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.3185823131215102</v>
+        <v>0.3959201822718228</v>
       </c>
       <c r="D15">
-        <v>0.104989900220076</v>
+        <v>0.1234473373626201</v>
       </c>
       <c r="E15">
-        <v>0.07546930396668827</v>
+        <v>0.1527813657871206</v>
       </c>
       <c r="F15">
-        <v>1.259537509767142</v>
+        <v>2.230021750089918</v>
       </c>
       <c r="G15">
-        <v>0.0008002202990334145</v>
+        <v>0.002514823633017924</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.08057654441630291</v>
+        <v>0.2173250979662953</v>
       </c>
       <c r="K15">
-        <v>4.480622783190483</v>
+        <v>2.020203522010206</v>
       </c>
       <c r="L15">
-        <v>0.04237481534832277</v>
+        <v>0.1291128659405061</v>
       </c>
       <c r="M15">
-        <v>0.9898913198444532</v>
+        <v>0.6298266576600398</v>
       </c>
       <c r="N15">
-        <v>0.8519993572745648</v>
+        <v>1.716960529972887</v>
       </c>
       <c r="O15">
-        <v>3.21883265062695</v>
+        <v>5.959622372613069</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,19 +1082,19 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.3035707518255322</v>
+        <v>0.3933800317344662</v>
       </c>
       <c r="D16">
-        <v>0.09963262838060416</v>
+        <v>0.1222370174955429</v>
       </c>
       <c r="E16">
-        <v>0.07340584968036268</v>
+        <v>0.1527170395854434</v>
       </c>
       <c r="F16">
-        <v>1.220929326401901</v>
+        <v>2.230633970399396</v>
       </c>
       <c r="G16">
-        <v>0.0008034874061403562</v>
+        <v>0.002516819124277979</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,22 +1103,22 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.08020947703956693</v>
+        <v>0.2180018800068133</v>
       </c>
       <c r="K16">
-        <v>4.194895932292127</v>
+        <v>1.940296773108628</v>
       </c>
       <c r="L16">
-        <v>0.04244862618893208</v>
+        <v>0.1294047466206543</v>
       </c>
       <c r="M16">
-        <v>0.9291079028936693</v>
+        <v>0.6139684218754695</v>
       </c>
       <c r="N16">
-        <v>0.8695893854626178</v>
+        <v>1.725283076606075</v>
       </c>
       <c r="O16">
-        <v>3.129987958055295</v>
+        <v>5.966796734378505</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,19 +1129,19 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.2944783972274507</v>
+        <v>0.3918659080752036</v>
       </c>
       <c r="D17">
-        <v>0.09636570442980741</v>
+        <v>0.1215034922503477</v>
       </c>
       <c r="E17">
-        <v>0.07216619343448372</v>
+        <v>0.1526908795832043</v>
       </c>
       <c r="F17">
-        <v>1.198020168730906</v>
+        <v>2.231301338943936</v>
       </c>
       <c r="G17">
-        <v>0.0008055126699213294</v>
+        <v>0.002518071003109742</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,22 +1150,22 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.08002338725734504</v>
+        <v>0.2184369958962016</v>
       </c>
       <c r="K17">
-        <v>4.020244730870616</v>
+        <v>1.891365682098524</v>
       </c>
       <c r="L17">
-        <v>0.0425033408039539</v>
+        <v>0.1295906469668253</v>
       </c>
       <c r="M17">
-        <v>0.8920001320254087</v>
+        <v>0.6042854309991554</v>
       </c>
       <c r="N17">
-        <v>0.880771434922309</v>
+        <v>1.7305485420991</v>
       </c>
       <c r="O17">
-        <v>3.077713117896423</v>
+        <v>5.972014046759369</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,19 +1176,19 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.2892897280347171</v>
+        <v>0.391011284207039</v>
       </c>
       <c r="D18">
-        <v>0.09449352135094102</v>
+        <v>0.121084899391704</v>
       </c>
       <c r="E18">
-        <v>0.0714624849224279</v>
+        <v>0.1526807294846932</v>
       </c>
       <c r="F18">
-        <v>1.185117006584974</v>
+        <v>2.231792428089094</v>
       </c>
       <c r="G18">
-        <v>0.0008066854800112266</v>
+        <v>0.002518801257519507</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,22 +1197,22 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.07993029356982362</v>
+        <v>0.218694592834396</v>
       </c>
       <c r="K18">
-        <v>3.920004611596141</v>
+        <v>1.863255108740645</v>
       </c>
       <c r="L18">
-        <v>0.04253822498601778</v>
+        <v>0.1297000902966587</v>
       </c>
       <c r="M18">
-        <v>0.8707189224806839</v>
+        <v>0.5987328814934116</v>
       </c>
       <c r="N18">
-        <v>0.8873431570525199</v>
+        <v>1.733635871022294</v>
       </c>
       <c r="O18">
-        <v>3.04843178435388</v>
+        <v>5.975314732714821</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.2875398031008274</v>
+        <v>0.3907247183265667</v>
       </c>
       <c r="D19">
-        <v>0.09386078067113601</v>
+        <v>0.1209437413266414</v>
       </c>
       <c r="E19">
-        <v>0.07122579045053001</v>
+        <v>0.1526781345633381</v>
       </c>
       <c r="F19">
-        <v>1.180794145419824</v>
+        <v>2.231977120802995</v>
       </c>
       <c r="G19">
-        <v>0.0008070839555997003</v>
+        <v>0.002519050264535077</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,22 +1244,22 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.07990112853798337</v>
+        <v>0.2187830700903035</v>
       </c>
       <c r="K19">
-        <v>3.886100238939662</v>
+        <v>1.853743122268952</v>
       </c>
       <c r="L19">
-        <v>0.04255061758164658</v>
+        <v>0.1297375788705288</v>
       </c>
       <c r="M19">
-        <v>0.8635237596793175</v>
+        <v>0.5968557892728441</v>
       </c>
       <c r="N19">
-        <v>0.889591956267374</v>
+        <v>1.734691284412534</v>
       </c>
       <c r="O19">
-        <v>3.038649524851138</v>
+        <v>5.976483776263251</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,19 +1270,19 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.2954420074152324</v>
+        <v>0.3920254068446525</v>
       </c>
       <c r="D20">
-        <v>0.09671275617600372</v>
+        <v>0.1215812349070831</v>
       </c>
       <c r="E20">
-        <v>0.07229718640715177</v>
+        <v>0.1526931577771009</v>
       </c>
       <c r="F20">
-        <v>1.200430319472503</v>
+        <v>2.231219197948178</v>
       </c>
       <c r="G20">
-        <v>0.0008052962609642587</v>
+        <v>0.00251793668257839</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.08004174464673142</v>
+        <v>0.2183899185707112</v>
       </c>
       <c r="K20">
-        <v>4.038814039423698</v>
+        <v>1.896571046620977</v>
       </c>
       <c r="L20">
-        <v>0.04249716185088914</v>
+        <v>0.1295705970136574</v>
       </c>
       <c r="M20">
-        <v>0.8959437859348469</v>
+        <v>0.6053144606534602</v>
       </c>
       <c r="N20">
-        <v>0.8795665061369178</v>
+        <v>1.729981942201086</v>
       </c>
       <c r="O20">
-        <v>3.083195806589657</v>
+        <v>5.971427622320675</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,19 +1317,19 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.322495688282828</v>
+        <v>0.3965896361833643</v>
       </c>
       <c r="D21">
-        <v>0.1063793789871994</v>
+        <v>0.1237625771532862</v>
       </c>
       <c r="E21">
-        <v>0.07601041927675922</v>
+        <v>0.1528020795115985</v>
       </c>
       <c r="F21">
-        <v>1.269754860094196</v>
+        <v>2.229953893879951</v>
       </c>
       <c r="G21">
-        <v>0.0007993831083934222</v>
+        <v>0.00251431698387206</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.08068375887838997</v>
+        <v>0.2171565244187121</v>
       </c>
       <c r="K21">
-        <v>4.554602674144689</v>
+        <v>2.040860977429759</v>
       </c>
       <c r="L21">
-        <v>0.04235872014354669</v>
+        <v>0.1290396195394816</v>
       </c>
       <c r="M21">
-        <v>1.00564392626098</v>
+        <v>0.6339349177323115</v>
       </c>
       <c r="N21">
-        <v>0.847581935762598</v>
+        <v>1.71486121062609</v>
       </c>
       <c r="O21">
-        <v>3.242487468251682</v>
+        <v>5.958022455475117</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,19 +1364,19 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.3405833790166355</v>
+        <v>0.3997168799570545</v>
       </c>
       <c r="D22">
-        <v>0.1127654978356247</v>
+        <v>0.1252173549736142</v>
       </c>
       <c r="E22">
-        <v>0.0785271479077565</v>
+        <v>0.15291669902523</v>
       </c>
       <c r="F22">
-        <v>1.317749678121757</v>
+        <v>2.230081787950752</v>
       </c>
       <c r="G22">
-        <v>0.0007955844747736986</v>
+        <v>0.002512041690742478</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,22 +1385,22 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.08123680820878576</v>
+        <v>0.2164155987419534</v>
       </c>
       <c r="K22">
-        <v>4.894005279741748</v>
+        <v>2.135447658727799</v>
       </c>
       <c r="L22">
-        <v>0.04229980098818942</v>
+        <v>0.1287149292521992</v>
       </c>
       <c r="M22">
-        <v>1.077986748034213</v>
+        <v>0.6527875242283727</v>
       </c>
       <c r="N22">
-        <v>0.8280051616180728</v>
+        <v>1.705501738231249</v>
       </c>
       <c r="O22">
-        <v>3.354316246374736</v>
+        <v>5.951932995957691</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,19 +1411,19 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.3308903440972983</v>
+        <v>0.3980346376298769</v>
       </c>
       <c r="D23">
-        <v>0.1093504756481565</v>
+        <v>0.1244382625394564</v>
       </c>
       <c r="E23">
-        <v>0.07717533943683819</v>
+        <v>0.1528515584974386</v>
       </c>
       <c r="F23">
-        <v>1.291875323874521</v>
+        <v>2.229926164042809</v>
       </c>
       <c r="G23">
-        <v>0.0007976060787773838</v>
+        <v>0.002513247810931386</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.08092895147732904</v>
+        <v>0.216805086685504</v>
       </c>
       <c r="K23">
-        <v>4.712628780122145</v>
+        <v>2.084939462845398</v>
       </c>
       <c r="L23">
-        <v>0.04232830063429027</v>
+        <v>0.1288861834037878</v>
       </c>
       <c r="M23">
-        <v>1.039312022719173</v>
+        <v>0.6427121627886976</v>
       </c>
       <c r="N23">
-        <v>0.8383282146610966</v>
+        <v>1.710449254626639</v>
       </c>
       <c r="O23">
-        <v>3.293887707075868</v>
+        <v>5.954938522228503</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,19 +1458,19 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.295006239319747</v>
+        <v>0.3919532480250751</v>
       </c>
       <c r="D24">
-        <v>0.09655583542470225</v>
+        <v>0.1215460777286168</v>
       </c>
       <c r="E24">
-        <v>0.07223793656942235</v>
+        <v>0.1526921125731953</v>
       </c>
       <c r="F24">
-        <v>1.19933985946038</v>
+        <v>2.231255999310406</v>
       </c>
       <c r="G24">
-        <v>0.0008053940730449023</v>
+        <v>0.002517997376027662</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,22 +1479,22 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.0800334021016802</v>
+        <v>0.2184111790440646</v>
       </c>
       <c r="K24">
-        <v>4.030418332294857</v>
+        <v>1.894217637138183</v>
       </c>
       <c r="L24">
-        <v>0.04249994469055629</v>
+        <v>0.1295796536012528</v>
       </c>
       <c r="M24">
-        <v>0.8941606973523477</v>
+        <v>0.6048491916783405</v>
       </c>
       <c r="N24">
-        <v>0.8801108098450214</v>
+        <v>1.730237914662681</v>
       </c>
       <c r="O24">
-        <v>3.080714685720579</v>
+        <v>5.97169180664028</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.2578468460769443</v>
+        <v>0.3860154223818739</v>
       </c>
       <c r="D25">
-        <v>0.08301358018938032</v>
+        <v>0.1185531835547238</v>
       </c>
       <c r="E25">
-        <v>0.06726455052204372</v>
+        <v>0.1527074226922238</v>
       </c>
       <c r="F25">
-        <v>1.109860822506931</v>
+        <v>2.236790295248724</v>
       </c>
       <c r="G25">
-        <v>0.0008141003103008442</v>
+        <v>0.002523511094935467</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,22 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.07959576654504374</v>
+        <v>0.2204239058841502</v>
       </c>
       <c r="K25">
-        <v>3.302556550858526</v>
+        <v>1.689772408408828</v>
       </c>
       <c r="L25">
-        <v>0.04281503059470992</v>
+        <v>0.1304240119785423</v>
       </c>
       <c r="M25">
-        <v>0.7399234170089457</v>
+        <v>0.564653458386509</v>
       </c>
       <c r="N25">
-        <v>0.9304973065630264</v>
+        <v>1.753830604800243</v>
       </c>
       <c r="O25">
-        <v>2.880457115796531</v>
+        <v>6.001224772901935</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_41/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_41/res_line/pl_mw.xlsx
@@ -424,19 +424,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.3821797679500634</v>
+        <v>0.2316109937794977</v>
       </c>
       <c r="D2">
-        <v>0.1164598247785733</v>
+        <v>0.07322757390867451</v>
       </c>
       <c r="E2">
-        <v>0.1528805847024266</v>
+        <v>0.06387083454620068</v>
       </c>
       <c r="F2">
-        <v>2.24439011372813</v>
+        <v>1.051639274356546</v>
       </c>
       <c r="G2">
-        <v>0.002527910193161421</v>
+        <v>0.0008207975979592277</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,22 +445,22 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.2221476803079945</v>
+        <v>0.07968277256457412</v>
       </c>
       <c r="K2">
-        <v>1.54036593527286</v>
+        <v>2.771521378239015</v>
       </c>
       <c r="L2">
-        <v>0.1311291549212932</v>
+        <v>0.04315316679636716</v>
       </c>
       <c r="M2">
-        <v>0.5356190831377674</v>
+        <v>0.6278900881089982</v>
       </c>
       <c r="N2">
-        <v>1.773140863759188</v>
+        <v>0.9717932176774582</v>
       </c>
       <c r="O2">
-        <v>6.032816548646593</v>
+        <v>2.755005491064765</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,19 +471,19 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.379915756642859</v>
+        <v>0.2144386742870807</v>
       </c>
       <c r="D3">
-        <v>0.1151106274258282</v>
+        <v>0.06669408884345529</v>
       </c>
       <c r="E3">
-        <v>0.153099355475895</v>
+        <v>0.06172233965597229</v>
       </c>
       <c r="F3">
-        <v>2.251739254823214</v>
+        <v>1.016405671018752</v>
       </c>
       <c r="G3">
-        <v>0.002531104959684601</v>
+        <v>0.0008255264242492578</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,22 +492,22 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.2234671281972531</v>
+        <v>0.07997656003344744</v>
       </c>
       <c r="K3">
-        <v>1.439829800276584</v>
+        <v>2.413786445595292</v>
       </c>
       <c r="L3">
-        <v>0.1316593918146367</v>
+        <v>0.04344599329085419</v>
       </c>
       <c r="M3">
-        <v>0.5162963364559019</v>
+        <v>0.5527064332387894</v>
       </c>
       <c r="N3">
-        <v>1.78744045044936</v>
+        <v>1.002227136006063</v>
       </c>
       <c r="O3">
-        <v>6.060364373047605</v>
+        <v>2.682109957843721</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,19 +518,19 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.3786914858254136</v>
+        <v>0.2041663483887959</v>
       </c>
       <c r="D4">
-        <v>0.1143167553953006</v>
+        <v>0.06272607878798908</v>
       </c>
       <c r="E4">
-        <v>0.1532838631964406</v>
+        <v>0.06047305992298035</v>
       </c>
       <c r="F4">
-        <v>2.257336318726892</v>
+        <v>0.9966864407742833</v>
       </c>
       <c r="G4">
-        <v>0.002533172424661997</v>
+        <v>0.0008285270468948793</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,22 +539,22 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.2243520027899848</v>
+        <v>0.08026654013731616</v>
       </c>
       <c r="K4">
-        <v>1.378461397391078</v>
+        <v>2.194931070878511</v>
       </c>
       <c r="L4">
-        <v>0.1320108852503346</v>
+        <v>0.04365642184387397</v>
       </c>
       <c r="M4">
-        <v>0.5046084039483389</v>
+        <v>0.5068460469752907</v>
       </c>
       <c r="N4">
-        <v>1.796819800191223</v>
+        <v>1.022068784905045</v>
       </c>
       <c r="O4">
-        <v>6.080305283952413</v>
+        <v>2.642846091028758</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,19 +565,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.378234370772546</v>
+        <v>0.2000446815038828</v>
       </c>
       <c r="D5">
-        <v>0.1140019811559441</v>
+        <v>0.06111936565327625</v>
       </c>
       <c r="E5">
-        <v>0.1533716971467012</v>
+        <v>0.05998088457531736</v>
       </c>
       <c r="F5">
-        <v>2.259889997019386</v>
+        <v>0.9891085517329969</v>
       </c>
       <c r="G5">
-        <v>0.002534041634524889</v>
+        <v>0.0008297747092172832</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,22 +586,22 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.2247314075392239</v>
+        <v>0.08041139559222898</v>
       </c>
       <c r="K5">
-        <v>1.353545694184305</v>
+        <v>2.105910229797843</v>
       </c>
       <c r="L5">
-        <v>0.1321606558915907</v>
+        <v>0.04374976805293684</v>
       </c>
       <c r="M5">
-        <v>0.4998901714195156</v>
+        <v>0.4882251656847671</v>
       </c>
       <c r="N5">
-        <v>1.800792824462988</v>
+        <v>1.030437517269768</v>
       </c>
       <c r="O5">
-        <v>6.089192359844503</v>
+        <v>2.628159580904622</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,19 +612,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.3781609933450909</v>
+        <v>0.1993640608926341</v>
       </c>
       <c r="D6">
-        <v>0.1139502421695937</v>
+        <v>0.06085317427817927</v>
       </c>
       <c r="E6">
-        <v>0.1533870464631946</v>
+        <v>0.05990016224699879</v>
       </c>
       <c r="F6">
-        <v>2.260330514044284</v>
+        <v>0.9878772381880054</v>
       </c>
       <c r="G6">
-        <v>0.002534187581192449</v>
+        <v>0.0008299833987579497</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,22 +633,22 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2247955441520908</v>
+        <v>0.08043703588214512</v>
       </c>
       <c r="K6">
-        <v>1.349414089611599</v>
+        <v>2.091137327028264</v>
       </c>
       <c r="L6">
-        <v>0.1321859202830176</v>
+        <v>0.04376572379034194</v>
       </c>
       <c r="M6">
-        <v>0.4991094225768862</v>
+        <v>0.4851370261964192</v>
       </c>
       <c r="N6">
-        <v>1.801461658462969</v>
+        <v>1.031844030151781</v>
       </c>
       <c r="O6">
-        <v>6.090714013417909</v>
+        <v>2.625798336307184</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,19 +659,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.3786851517135403</v>
+        <v>0.2041105064335085</v>
       </c>
       <c r="D7">
-        <v>0.1143124748062903</v>
+        <v>0.06270436931911405</v>
       </c>
       <c r="E7">
-        <v>0.1532849965183907</v>
+        <v>0.06046635462981875</v>
       </c>
       <c r="F7">
-        <v>2.257369653743559</v>
+        <v>0.9965824190472219</v>
       </c>
       <c r="G7">
-        <v>0.00253318403882744</v>
+        <v>0.0008285437719415653</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,22 +680,22 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.2243570433826534</v>
+        <v>0.08026838677569259</v>
       </c>
       <c r="K7">
-        <v>1.378124999185957</v>
+        <v>2.193729883937465</v>
       </c>
       <c r="L7">
-        <v>0.1320128786326311</v>
+        <v>0.04365765013009515</v>
       </c>
       <c r="M7">
-        <v>0.5045445907691644</v>
+        <v>0.5065946564356878</v>
       </c>
       <c r="N7">
-        <v>1.796872770743711</v>
+        <v>1.022180511712378</v>
       </c>
       <c r="O7">
-        <v>6.080422056983679</v>
+        <v>2.642642790873595</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.3813647647090335</v>
+        <v>0.2256312049450031</v>
       </c>
       <c r="D8">
-        <v>0.1159874817022626</v>
+        <v>0.07096536377376594</v>
       </c>
       <c r="E8">
-        <v>0.1529456176333497</v>
+        <v>0.06311511470163111</v>
       </c>
       <c r="F8">
-        <v>2.246699021549659</v>
+        <v>1.039078848644522</v>
       </c>
       <c r="G8">
-        <v>0.002528989824790048</v>
+        <v>0.0008224082314349272</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,22 +727,22 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.2225871281235392</v>
+        <v>0.07976078501211248</v>
       </c>
       <c r="K8">
-        <v>1.505627033281115</v>
+        <v>2.64798715047246</v>
       </c>
       <c r="L8">
-        <v>0.1313066086595445</v>
+        <v>0.04324770899372687</v>
       </c>
       <c r="M8">
-        <v>0.5289202151068011</v>
+        <v>0.6018986357910734</v>
       </c>
       <c r="N8">
-        <v>1.777947058070154</v>
+        <v>0.9820425360731377</v>
       </c>
       <c r="O8">
-        <v>6.041686875597577</v>
+        <v>2.72868884328588</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,19 +753,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.3879323826221253</v>
+        <v>0.2701762584129597</v>
       </c>
       <c r="D9">
-        <v>0.1195442998297622</v>
+        <v>0.08754418173393219</v>
       </c>
       <c r="E9">
-        <v>0.1526771733792565</v>
+        <v>0.0688959665170259</v>
       </c>
       <c r="F9">
-        <v>2.234378449173136</v>
+        <v>1.138733837530467</v>
       </c>
       <c r="G9">
-        <v>0.0025216013044854</v>
+        <v>0.000811124567098222</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,22 +774,22 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.2197084029779397</v>
+        <v>0.07967674165876559</v>
       </c>
       <c r="K9">
-        <v>1.7584672173939</v>
+        <v>3.546852408993232</v>
       </c>
       <c r="L9">
-        <v>0.1301266657612761</v>
+        <v>0.04269204862077025</v>
       </c>
       <c r="M9">
-        <v>0.5781066983801608</v>
+        <v>0.7916106861017056</v>
       </c>
       <c r="N9">
-        <v>1.745582574060997</v>
+        <v>0.9128486722793028</v>
       </c>
       <c r="O9">
-        <v>5.989746281364177</v>
+        <v>2.944272734366905</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,19 +800,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.3935550052284498</v>
+        <v>0.3046139455869081</v>
       </c>
       <c r="D10">
-        <v>0.1223211653692005</v>
+        <v>0.1000063612567459</v>
       </c>
       <c r="E10">
-        <v>0.1527206875282872</v>
+        <v>0.0735485875023798</v>
       </c>
       <c r="F10">
-        <v>2.23057234958128</v>
+        <v>1.223581313780272</v>
       </c>
       <c r="G10">
-        <v>0.002516677657417078</v>
+        <v>0.0008032573688694621</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,22 +821,22 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.217953223115174</v>
+        <v>0.08023263065748409</v>
       </c>
       <c r="K10">
-        <v>1.94588462307803</v>
+        <v>4.214855218101377</v>
       </c>
       <c r="L10">
-        <v>0.1293838750310758</v>
+        <v>0.04244284925654362</v>
       </c>
       <c r="M10">
-        <v>0.615075593061448</v>
+        <v>0.9333508916086046</v>
       </c>
       <c r="N10">
-        <v>1.724690212224075</v>
+        <v>0.8683326806377494</v>
       </c>
       <c r="O10">
-        <v>5.966242035779402</v>
+        <v>3.136061730277106</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,19 +847,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.3962854641870308</v>
+        <v>0.3207196233736909</v>
       </c>
       <c r="D11">
-        <v>0.1236195251715628</v>
+        <v>0.1057491258174821</v>
       </c>
       <c r="E11">
-        <v>0.1527924874257671</v>
+        <v>0.07576468021309779</v>
       </c>
       <c r="F11">
-        <v>2.229980229942072</v>
+        <v>1.265110182836025</v>
       </c>
       <c r="G11">
-        <v>0.002514546259199084</v>
+        <v>0.0007997623525676876</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.2172326467223193</v>
+        <v>0.08063453026562328</v>
       </c>
       <c r="K11">
-        <v>2.031494405899991</v>
+        <v>4.521052365066623</v>
       </c>
       <c r="L11">
-        <v>0.1290727229733371</v>
+        <v>0.04236587033443939</v>
       </c>
       <c r="M11">
-        <v>0.632071715858963</v>
+        <v>0.998499298383102</v>
       </c>
       <c r="N11">
-        <v>1.715810533304513</v>
+        <v>0.8495784365593764</v>
       </c>
       <c r="O11">
-        <v>5.958735405497322</v>
+        <v>3.231727281283696</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,19 +894,19 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.3973441849697679</v>
+        <v>0.3268877089292346</v>
       </c>
       <c r="D12">
-        <v>0.1241161899659318</v>
+        <v>0.1079354305759352</v>
       </c>
       <c r="E12">
-        <v>0.1528271299198387</v>
+        <v>0.07661920222158969</v>
       </c>
       <c r="F12">
-        <v>2.22991982364627</v>
+        <v>1.281294046059543</v>
       </c>
       <c r="G12">
-        <v>0.002513754658181266</v>
+        <v>0.0007984502409407939</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,22 +915,22 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2169709617839288</v>
+        <v>0.0808094965810362</v>
       </c>
       <c r="K12">
-        <v>2.063961980883221</v>
+        <v>4.637392888724605</v>
       </c>
       <c r="L12">
-        <v>0.128958729217894</v>
+        <v>0.04234211973017032</v>
       </c>
       <c r="M12">
-        <v>0.6385331112120198</v>
+        <v>1.023279445996906</v>
       </c>
       <c r="N12">
-        <v>1.712537690602396</v>
+        <v>0.8427032516511304</v>
       </c>
       <c r="O12">
-        <v>5.956351133628459</v>
+        <v>3.269269252138912</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.3971150707630784</v>
+        <v>0.3255561229755983</v>
       </c>
       <c r="D13">
-        <v>0.1240090025566332</v>
+        <v>0.1074640351876326</v>
       </c>
       <c r="E13">
-        <v>0.1528193379397287</v>
+        <v>0.07643446657138142</v>
       </c>
       <c r="F13">
-        <v>2.229925547622116</v>
+        <v>1.277787593708609</v>
       </c>
       <c r="G13">
-        <v>0.002513924454796092</v>
+        <v>0.0007987323330033676</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,22 +962,22 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2170268232454546</v>
+        <v>0.08077077893892692</v>
       </c>
       <c r="K13">
-        <v>2.056967355116853</v>
+        <v>4.612318560284393</v>
       </c>
       <c r="L13">
-        <v>0.1289831095620766</v>
+        <v>0.04234699188843649</v>
       </c>
       <c r="M13">
-        <v>0.6371404134299823</v>
+        <v>1.017937484737097</v>
       </c>
       <c r="N13">
-        <v>1.713238567715599</v>
+        <v>0.8441736738830485</v>
       </c>
       <c r="O13">
-        <v>5.95684424110928</v>
+        <v>3.261123652887619</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,19 +988,19 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.3963720701018758</v>
+        <v>0.3212256524713553</v>
       </c>
       <c r="D14">
-        <v>0.1236602860808063</v>
+        <v>0.1059287547288221</v>
       </c>
       <c r="E14">
-        <v>0.1527951882486178</v>
+        <v>0.07583466881444423</v>
       </c>
       <c r="F14">
-        <v>2.229971977219222</v>
+        <v>1.266432246547225</v>
       </c>
       <c r="G14">
-        <v>0.002514480823169686</v>
+        <v>0.0007996541804007035</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,22 +1009,22 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.2172108937322079</v>
+        <v>0.08064846030631401</v>
       </c>
       <c r="K14">
-        <v>2.034164560380418</v>
+        <v>4.530615605127252</v>
       </c>
       <c r="L14">
-        <v>0.1290632679004062</v>
+        <v>0.04236380713437171</v>
       </c>
       <c r="M14">
-        <v>0.632602793196277</v>
+        <v>1.000535692941547</v>
       </c>
       <c r="N14">
-        <v>1.715539477321357</v>
+        <v>0.8490081999478605</v>
       </c>
       <c r="O14">
-        <v>5.958530063060067</v>
+        <v>3.234788887674057</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,19 +1035,19 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.3959201822718228</v>
+        <v>0.3185823131213965</v>
       </c>
       <c r="D15">
-        <v>0.1234473373626201</v>
+        <v>0.1049899002201045</v>
       </c>
       <c r="E15">
-        <v>0.1527813657871206</v>
+        <v>0.07546930396672025</v>
       </c>
       <c r="F15">
-        <v>2.230021750089918</v>
+        <v>1.259537509767142</v>
       </c>
       <c r="G15">
-        <v>0.002514823633017924</v>
+        <v>0.0008002202990682063</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.2173250979662953</v>
+        <v>0.08057654441638817</v>
       </c>
       <c r="K15">
-        <v>2.020203522010206</v>
+        <v>4.48062278319037</v>
       </c>
       <c r="L15">
-        <v>0.1291128659405061</v>
+        <v>0.04237481534834409</v>
       </c>
       <c r="M15">
-        <v>0.6298266576600398</v>
+        <v>0.989891319844439</v>
       </c>
       <c r="N15">
-        <v>1.716960529972887</v>
+        <v>0.8519993572746429</v>
       </c>
       <c r="O15">
-        <v>5.959622372613069</v>
+        <v>3.218832650626979</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,19 +1082,19 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.3933800317344662</v>
+        <v>0.3035707518254753</v>
       </c>
       <c r="D16">
-        <v>0.1222370174955429</v>
+        <v>0.09963262838083864</v>
       </c>
       <c r="E16">
-        <v>0.1527170395854434</v>
+        <v>0.07340584968034847</v>
       </c>
       <c r="F16">
-        <v>2.230633970399396</v>
+        <v>1.220929326401915</v>
       </c>
       <c r="G16">
-        <v>0.002516819124277979</v>
+        <v>0.0008034874061068815</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,22 +1103,22 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.2180018800068133</v>
+        <v>0.08020947703956693</v>
       </c>
       <c r="K16">
-        <v>1.940296773108628</v>
+        <v>4.194895932292184</v>
       </c>
       <c r="L16">
-        <v>0.1294047466206543</v>
+        <v>0.0424486261889907</v>
       </c>
       <c r="M16">
-        <v>0.6139684218754695</v>
+        <v>0.9291079028936551</v>
       </c>
       <c r="N16">
-        <v>1.725283076606075</v>
+        <v>0.8695893854626107</v>
       </c>
       <c r="O16">
-        <v>5.966796734378505</v>
+        <v>3.129987958055352</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,19 +1129,19 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.3918659080752036</v>
+        <v>0.2944783972273086</v>
       </c>
       <c r="D17">
-        <v>0.1215034922503477</v>
+        <v>0.09636570442999925</v>
       </c>
       <c r="E17">
-        <v>0.1526908795832043</v>
+        <v>0.07216619343448372</v>
       </c>
       <c r="F17">
-        <v>2.231301338943936</v>
+        <v>1.198020168730892</v>
       </c>
       <c r="G17">
-        <v>0.002518071003109742</v>
+        <v>0.0008055126699537126</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,22 +1150,22 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.2184369958962016</v>
+        <v>0.08002338725735925</v>
       </c>
       <c r="K17">
-        <v>1.891365682098524</v>
+        <v>4.020244730870729</v>
       </c>
       <c r="L17">
-        <v>0.1295906469668253</v>
+        <v>0.04250334080391482</v>
       </c>
       <c r="M17">
-        <v>0.6042854309991554</v>
+        <v>0.89200013202543</v>
       </c>
       <c r="N17">
-        <v>1.7305485420991</v>
+        <v>0.8807714349223019</v>
       </c>
       <c r="O17">
-        <v>5.972014046759369</v>
+        <v>3.077713117896423</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,19 +1176,19 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.391011284207039</v>
+        <v>0.2892897280347313</v>
       </c>
       <c r="D18">
-        <v>0.121084899391704</v>
+        <v>0.09449352135068523</v>
       </c>
       <c r="E18">
-        <v>0.1526807294846932</v>
+        <v>0.0714624849224279</v>
       </c>
       <c r="F18">
-        <v>2.231792428089094</v>
+        <v>1.185117006584946</v>
       </c>
       <c r="G18">
-        <v>0.002518801257519507</v>
+        <v>0.000806685480102253</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,22 +1197,22 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.218694592834396</v>
+        <v>0.07993029356971704</v>
       </c>
       <c r="K18">
-        <v>1.863255108740645</v>
+        <v>3.920004611596198</v>
       </c>
       <c r="L18">
-        <v>0.1297000902966587</v>
+        <v>0.04253822498601778</v>
       </c>
       <c r="M18">
-        <v>0.5987328814934116</v>
+        <v>0.8707189224806839</v>
       </c>
       <c r="N18">
-        <v>1.733635871022294</v>
+        <v>0.8873431570525554</v>
       </c>
       <c r="O18">
-        <v>5.975314732714821</v>
+        <v>3.048431784353852</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.3907247183265667</v>
+        <v>0.2875398031011116</v>
       </c>
       <c r="D19">
-        <v>0.1209437413266414</v>
+        <v>0.09386078067100811</v>
       </c>
       <c r="E19">
-        <v>0.1526781345633381</v>
+        <v>0.07122579045053001</v>
       </c>
       <c r="F19">
-        <v>2.231977120802995</v>
+        <v>1.180794145419824</v>
       </c>
       <c r="G19">
-        <v>0.002519050264535077</v>
+        <v>0.0008070839556607554</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,22 +1244,22 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.2187830700903035</v>
+        <v>0.07990112853799403</v>
       </c>
       <c r="K19">
-        <v>1.853743122268952</v>
+        <v>3.886100238939775</v>
       </c>
       <c r="L19">
-        <v>0.1297375788705288</v>
+        <v>0.0425506175816377</v>
       </c>
       <c r="M19">
-        <v>0.5968557892728441</v>
+        <v>0.8635237596793317</v>
       </c>
       <c r="N19">
-        <v>1.734691284412534</v>
+        <v>0.889591956267374</v>
       </c>
       <c r="O19">
-        <v>5.976483776263251</v>
+        <v>3.038649524851081</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,19 +1270,19 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.3920254068446525</v>
+        <v>0.2954420074150619</v>
       </c>
       <c r="D20">
-        <v>0.1215812349070831</v>
+        <v>0.09671275617601083</v>
       </c>
       <c r="E20">
-        <v>0.1526931577771009</v>
+        <v>0.07229718640714111</v>
       </c>
       <c r="F20">
-        <v>2.231219197948178</v>
+        <v>1.200430319472503</v>
       </c>
       <c r="G20">
-        <v>0.00251793668257839</v>
+        <v>0.0008052962609650476</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.2183899185707112</v>
+        <v>0.0800417446466426</v>
       </c>
       <c r="K20">
-        <v>1.896571046620977</v>
+        <v>4.038814039423869</v>
       </c>
       <c r="L20">
-        <v>0.1295705970136574</v>
+        <v>0.04249716185089802</v>
       </c>
       <c r="M20">
-        <v>0.6053144606534602</v>
+        <v>0.8959437859348398</v>
       </c>
       <c r="N20">
-        <v>1.729981942201086</v>
+        <v>0.8795665061369675</v>
       </c>
       <c r="O20">
-        <v>5.971427622320675</v>
+        <v>3.083195806589657</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,19 +1317,19 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.3965896361833643</v>
+        <v>0.3224956882827996</v>
       </c>
       <c r="D21">
-        <v>0.1237625771532862</v>
+        <v>0.106379378987242</v>
       </c>
       <c r="E21">
-        <v>0.1528020795115985</v>
+        <v>0.07601041927675212</v>
       </c>
       <c r="F21">
-        <v>2.229953893879951</v>
+        <v>1.269754860094196</v>
       </c>
       <c r="G21">
-        <v>0.00251431698387206</v>
+        <v>0.0007993831084171362</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.2171565244187121</v>
+        <v>0.08068375887837931</v>
       </c>
       <c r="K21">
-        <v>2.040860977429759</v>
+        <v>4.554602674144803</v>
       </c>
       <c r="L21">
-        <v>0.1290396195394816</v>
+        <v>0.04235872014359643</v>
       </c>
       <c r="M21">
-        <v>0.6339349177323115</v>
+        <v>1.005643926260959</v>
       </c>
       <c r="N21">
-        <v>1.71486121062609</v>
+        <v>0.847581935762598</v>
       </c>
       <c r="O21">
-        <v>5.958022455475117</v>
+        <v>3.242487468251653</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,19 +1364,19 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.3997168799570545</v>
+        <v>0.340583379016806</v>
       </c>
       <c r="D22">
-        <v>0.1252173549736142</v>
+        <v>0.1127654978356958</v>
       </c>
       <c r="E22">
-        <v>0.15291669902523</v>
+        <v>0.07852714790777426</v>
       </c>
       <c r="F22">
-        <v>2.230081787950752</v>
+        <v>1.317749678121771</v>
       </c>
       <c r="G22">
-        <v>0.002512041690742478</v>
+        <v>0.0007955844747734419</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,22 +1385,22 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.2164155987419534</v>
+        <v>0.08123680820877865</v>
       </c>
       <c r="K22">
-        <v>2.135447658727799</v>
+        <v>4.894005279741805</v>
       </c>
       <c r="L22">
-        <v>0.1287149292521992</v>
+        <v>0.04229980098818054</v>
       </c>
       <c r="M22">
-        <v>0.6527875242283727</v>
+        <v>1.077986748034206</v>
       </c>
       <c r="N22">
-        <v>1.705501738231249</v>
+        <v>0.8280051616180586</v>
       </c>
       <c r="O22">
-        <v>5.951932995957691</v>
+        <v>3.354316246374765</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,19 +1411,19 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.3980346376298769</v>
+        <v>0.3308903440969857</v>
       </c>
       <c r="D23">
-        <v>0.1244382625394564</v>
+        <v>0.1093504756480428</v>
       </c>
       <c r="E23">
-        <v>0.1528515584974386</v>
+        <v>0.0771753394368595</v>
       </c>
       <c r="F23">
-        <v>2.229926164042809</v>
+        <v>1.291875323874521</v>
       </c>
       <c r="G23">
-        <v>0.002513247810931386</v>
+        <v>0.0007976060788114097</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.216805086685504</v>
+        <v>0.08092895147726153</v>
       </c>
       <c r="K23">
-        <v>2.084939462845398</v>
+        <v>4.712628780122031</v>
       </c>
       <c r="L23">
-        <v>0.1288861834037878</v>
+        <v>0.04232830063427784</v>
       </c>
       <c r="M23">
-        <v>0.6427121627886976</v>
+        <v>1.039312022719187</v>
       </c>
       <c r="N23">
-        <v>1.710449254626639</v>
+        <v>0.8383282146610185</v>
       </c>
       <c r="O23">
-        <v>5.954938522228503</v>
+        <v>3.293887707075783</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,19 +1458,19 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.3919532480250751</v>
+        <v>0.2950062393199033</v>
       </c>
       <c r="D24">
-        <v>0.1215460777286168</v>
+        <v>0.09655583542482304</v>
       </c>
       <c r="E24">
-        <v>0.1526921125731953</v>
+        <v>0.07223793656942235</v>
       </c>
       <c r="F24">
-        <v>2.231255999310406</v>
+        <v>1.19933985946038</v>
       </c>
       <c r="G24">
-        <v>0.002517997376027662</v>
+        <v>0.0008053940730776645</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,22 +1479,22 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.2184111790440646</v>
+        <v>0.08003340210162335</v>
       </c>
       <c r="K24">
-        <v>1.894217637138183</v>
+        <v>4.030418332294971</v>
       </c>
       <c r="L24">
-        <v>0.1295796536012528</v>
+        <v>0.04249994469055984</v>
       </c>
       <c r="M24">
-        <v>0.6048491916783405</v>
+        <v>0.8941606973523548</v>
       </c>
       <c r="N24">
-        <v>1.730237914662681</v>
+        <v>0.8801108098449646</v>
       </c>
       <c r="O24">
-        <v>5.97169180664028</v>
+        <v>3.080714685720636</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.3860154223818739</v>
+        <v>0.2578468460769159</v>
       </c>
       <c r="D25">
-        <v>0.1185531835547238</v>
+        <v>0.08301358018943716</v>
       </c>
       <c r="E25">
-        <v>0.1527074226922238</v>
+        <v>0.06726455052204372</v>
       </c>
       <c r="F25">
-        <v>2.236790295248724</v>
+        <v>1.109860822506903</v>
       </c>
       <c r="G25">
-        <v>0.002523511094935467</v>
+        <v>0.0008141003102707016</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,22 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.2204239058841502</v>
+        <v>0.07959576654507572</v>
       </c>
       <c r="K25">
-        <v>1.689772408408828</v>
+        <v>3.302556550858583</v>
       </c>
       <c r="L25">
-        <v>0.1304240119785423</v>
+        <v>0.04281503059480229</v>
       </c>
       <c r="M25">
-        <v>0.564653458386509</v>
+        <v>0.7399234170089528</v>
       </c>
       <c r="N25">
-        <v>1.753830604800243</v>
+        <v>0.9304973065629696</v>
       </c>
       <c r="O25">
-        <v>6.001224772901935</v>
+        <v>2.880457115796531</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_41/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_41/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,8 +415,14 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -424,46 +430,52 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.2316109937794977</v>
+        <v>0.07171211971859037</v>
       </c>
       <c r="D2">
-        <v>0.07322757390867451</v>
+        <v>0.02255280918688385</v>
       </c>
       <c r="E2">
-        <v>0.06387083454620068</v>
+        <v>0.1398686667754667</v>
       </c>
       <c r="F2">
-        <v>1.051639274356546</v>
+        <v>0.2595374895137894</v>
       </c>
       <c r="G2">
-        <v>0.0008207975979592277</v>
+        <v>0.2402815503010558</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.01683162392978069</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.01496138368672595</v>
       </c>
       <c r="J2">
-        <v>0.07968277256457412</v>
+        <v>0.2031894489561523</v>
       </c>
       <c r="K2">
-        <v>2.771521378239015</v>
+        <v>0.209606311000428</v>
       </c>
       <c r="L2">
-        <v>0.04315316679636716</v>
+        <v>0.3477859062812172</v>
       </c>
       <c r="M2">
-        <v>0.6278900881089982</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9717932176774582</v>
+        <v>0.3998137742285905</v>
       </c>
       <c r="O2">
-        <v>2.755005491064765</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>32.04634402235939</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0.88534521213586</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -471,46 +483,52 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.2144386742870807</v>
+        <v>0.07385517486900639</v>
       </c>
       <c r="D3">
-        <v>0.06669408884345529</v>
+        <v>0.02457408928469462</v>
       </c>
       <c r="E3">
-        <v>0.06172233965597229</v>
+        <v>0.1266141866216941</v>
       </c>
       <c r="F3">
-        <v>1.016405671018752</v>
+        <v>0.2635639218615857</v>
       </c>
       <c r="G3">
-        <v>0.0008255264242492578</v>
+        <v>0.226176801831933</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.009119588564758413</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.009131350563945873</v>
       </c>
       <c r="J3">
-        <v>0.07997656003344744</v>
+        <v>0.2061637576052036</v>
       </c>
       <c r="K3">
-        <v>2.413786445595292</v>
+        <v>0.211845620256053</v>
       </c>
       <c r="L3">
-        <v>0.04344599329085419</v>
+        <v>0.3090668669498626</v>
       </c>
       <c r="M3">
-        <v>0.5527064332387894</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>1.002227136006063</v>
+        <v>0.3498531732830088</v>
       </c>
       <c r="O3">
-        <v>2.682109957843721</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>27.60400967604488</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0.8611196321129029</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -518,46 +536,52 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.2041663483887959</v>
+        <v>0.07513518792159601</v>
       </c>
       <c r="D4">
-        <v>0.06272607878798908</v>
+        <v>0.02597568848546317</v>
       </c>
       <c r="E4">
-        <v>0.06047305992298035</v>
+        <v>0.1186774542865088</v>
       </c>
       <c r="F4">
-        <v>0.9966864407742833</v>
+        <v>0.2683669889606719</v>
       </c>
       <c r="G4">
-        <v>0.0008285270468948793</v>
+        <v>0.2193383647023666</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.005558674660678428</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.006284777218848792</v>
       </c>
       <c r="J4">
-        <v>0.08026654013731616</v>
+        <v>0.2089311389049939</v>
       </c>
       <c r="K4">
-        <v>2.194931070878511</v>
+        <v>0.214588716893342</v>
       </c>
       <c r="L4">
-        <v>0.04365642184387397</v>
+        <v>0.2855821276541235</v>
       </c>
       <c r="M4">
-        <v>0.5068460469752907</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>1.022068784905045</v>
+        <v>0.3198311384183796</v>
       </c>
       <c r="O4">
-        <v>2.642846091028758</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>24.93724809501799</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0.8520706629286394</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -565,46 +589,52 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.2000446815038828</v>
+        <v>0.07576159170110586</v>
       </c>
       <c r="D5">
-        <v>0.06111936565327625</v>
+        <v>0.02657345086873519</v>
       </c>
       <c r="E5">
-        <v>0.05998088457531736</v>
+        <v>0.1155427837136003</v>
       </c>
       <c r="F5">
-        <v>0.9891085517329969</v>
+        <v>0.2705222069040225</v>
       </c>
       <c r="G5">
-        <v>0.0008297747092172832</v>
+        <v>0.2165865399379001</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.004355805386060757</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.005335668243350966</v>
       </c>
       <c r="J5">
-        <v>0.08041139559222898</v>
+        <v>0.2100831713115099</v>
       </c>
       <c r="K5">
-        <v>2.105910229797843</v>
+        <v>0.2156507567588939</v>
       </c>
       <c r="L5">
-        <v>0.04374976805293684</v>
+        <v>0.2762664133980763</v>
       </c>
       <c r="M5">
-        <v>0.4882251656847671</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>1.030437517269768</v>
+        <v>0.3074532252795592</v>
       </c>
       <c r="O5">
-        <v>2.628159580904622</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>23.86230726910748</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0.8485056087364171</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -612,46 +642,52 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.1993640608926341</v>
+        <v>0.07600246226836305</v>
       </c>
       <c r="D6">
-        <v>0.06085317427817927</v>
+        <v>0.02666300408351319</v>
       </c>
       <c r="E6">
-        <v>0.05990016224699879</v>
+        <v>0.1150959619130667</v>
       </c>
       <c r="F6">
-        <v>0.9878772381880054</v>
+        <v>0.2705117066504243</v>
       </c>
       <c r="G6">
-        <v>0.0008299833987579497</v>
+        <v>0.2157010185050652</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.004166475768130243</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.005255978833995201</v>
       </c>
       <c r="J6">
-        <v>0.08043703588214512</v>
+        <v>0.2100540335318968</v>
       </c>
       <c r="K6">
-        <v>2.091137327028264</v>
+        <v>0.2154012688317799</v>
       </c>
       <c r="L6">
-        <v>0.04376572379034194</v>
+        <v>0.274966343375695</v>
       </c>
       <c r="M6">
-        <v>0.4851370261964192</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>1.031844030151781</v>
+        <v>0.3050747033132239</v>
       </c>
       <c r="O6">
-        <v>2.625798336307184</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>23.68437517821036</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0.8465429534832225</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -659,46 +695,52 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.2041105064335085</v>
+        <v>0.0755160592451638</v>
       </c>
       <c r="D7">
-        <v>0.06270436931911405</v>
+        <v>0.02595170402598157</v>
       </c>
       <c r="E7">
-        <v>0.06046635462981875</v>
+        <v>0.1188310516652393</v>
       </c>
       <c r="F7">
-        <v>0.9965824190472219</v>
+        <v>0.2673028134494437</v>
       </c>
       <c r="G7">
-        <v>0.0008285437719415653</v>
+        <v>0.2180612832618607</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.005530050607915719</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.006441418907077612</v>
       </c>
       <c r="J7">
-        <v>0.08026838677569259</v>
+        <v>0.2083084042950745</v>
       </c>
       <c r="K7">
-        <v>2.193729883937465</v>
+        <v>0.2133855377435978</v>
       </c>
       <c r="L7">
-        <v>0.04365765013009515</v>
+        <v>0.2861243365862691</v>
       </c>
       <c r="M7">
-        <v>0.5065946564356878</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>1.022180511712378</v>
+        <v>0.3187621311514306</v>
       </c>
       <c r="O7">
-        <v>2.642642790873595</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>24.92251731916627</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0.8480563735514153</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -706,46 +748,52 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.2256312049450031</v>
+        <v>0.07294937297233162</v>
       </c>
       <c r="D8">
-        <v>0.07096536377376594</v>
+        <v>0.02317293592759739</v>
       </c>
       <c r="E8">
-        <v>0.06311511470163111</v>
+        <v>0.1355137385945859</v>
       </c>
       <c r="F8">
-        <v>1.039078848644522</v>
+        <v>0.2589428182141873</v>
       </c>
       <c r="G8">
-        <v>0.0008224082314349272</v>
+        <v>0.2333441815309598</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.01387731278110368</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.01296741491177933</v>
       </c>
       <c r="J8">
-        <v>0.07976078501211248</v>
+        <v>0.2031547940816978</v>
       </c>
       <c r="K8">
-        <v>2.64798715047246</v>
+        <v>0.2084390948931585</v>
       </c>
       <c r="L8">
-        <v>0.04324770899372687</v>
+        <v>0.3352563662544839</v>
       </c>
       <c r="M8">
-        <v>0.6018986357910734</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>0.9820425360731377</v>
+        <v>0.3812312423722943</v>
       </c>
       <c r="O8">
-        <v>2.72868884328588</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>30.49937793239985</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0.8703756988739144</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -753,46 +801,52 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.2701762584129597</v>
+        <v>0.0668015306050691</v>
       </c>
       <c r="D9">
-        <v>0.08754418173393219</v>
+        <v>0.0192893566877288</v>
       </c>
       <c r="E9">
-        <v>0.0688959665170259</v>
+        <v>0.1700345312281115</v>
       </c>
       <c r="F9">
-        <v>1.138733837530467</v>
+        <v>0.2663791912081166</v>
       </c>
       <c r="G9">
-        <v>0.000811124567098222</v>
+        <v>0.2829260365924142</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.04204198597051739</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.03265525153873838</v>
       </c>
       <c r="J9">
-        <v>0.07967674165876559</v>
+        <v>0.2028385583565182</v>
       </c>
       <c r="K9">
-        <v>3.546852408993232</v>
+        <v>0.2137925817759623</v>
       </c>
       <c r="L9">
-        <v>0.04269204862077025</v>
+        <v>0.433735425827706</v>
       </c>
       <c r="M9">
-        <v>0.7916106861017056</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>0.9128486722793028</v>
+        <v>0.5128119466327519</v>
       </c>
       <c r="O9">
-        <v>2.944272734366905</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>42.11805541361679</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0.9761720790255026</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -800,46 +854,52 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.3046139455869081</v>
+        <v>0.06251657953017187</v>
       </c>
       <c r="D10">
-        <v>0.1000063612567459</v>
+        <v>0.01859147099898095</v>
       </c>
       <c r="E10">
-        <v>0.0735485875023798</v>
+        <v>0.203149360654109</v>
       </c>
       <c r="F10">
-        <v>1.223581313780272</v>
+        <v>0.2835762284669912</v>
       </c>
       <c r="G10">
-        <v>0.0008032573688694621</v>
+        <v>0.3281553895702558</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.07404444302507462</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.05370888400382512</v>
       </c>
       <c r="J10">
-        <v>0.08023263065748409</v>
+        <v>0.2063617337052648</v>
       </c>
       <c r="K10">
-        <v>4.214855218101377</v>
+        <v>0.2233430457475265</v>
       </c>
       <c r="L10">
-        <v>0.04244284925654362</v>
+        <v>0.5224663530124474</v>
       </c>
       <c r="M10">
-        <v>0.9333508916086046</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>0.8683326806377494</v>
+        <v>0.6312584031698805</v>
       </c>
       <c r="O10">
-        <v>3.136061730277106</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>51.44261740381091</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>1.080412719632847</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -847,46 +907,52 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.3207196233736909</v>
+        <v>0.06785181740326607</v>
       </c>
       <c r="D11">
-        <v>0.1057491258174821</v>
+        <v>0.02658361200651882</v>
       </c>
       <c r="E11">
-        <v>0.07576468021309779</v>
+        <v>0.2689526497192745</v>
       </c>
       <c r="F11">
-        <v>1.265110182836025</v>
+        <v>0.2375279847640925</v>
       </c>
       <c r="G11">
-        <v>0.0007997623525676876</v>
+        <v>0.2987440703989677</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.1074668552643772</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.0647843121087428</v>
       </c>
       <c r="J11">
-        <v>0.08063453026562328</v>
+        <v>0.1816881077149617</v>
       </c>
       <c r="K11">
-        <v>4.521052365066623</v>
+        <v>0.1866957046081019</v>
       </c>
       <c r="L11">
-        <v>0.04236587033443939</v>
+        <v>0.6779236004802414</v>
       </c>
       <c r="M11">
-        <v>0.998499298383102</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>0.8495784365593764</v>
+        <v>0.8121002009803959</v>
       </c>
       <c r="O11">
-        <v>3.231727281283696</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>55.95679973817278</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0.9668625907410728</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -894,46 +960,52 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.3268877089292346</v>
+        <v>0.07435323055032228</v>
       </c>
       <c r="D12">
-        <v>0.1079354305759352</v>
+        <v>0.03480770606124395</v>
       </c>
       <c r="E12">
-        <v>0.07661920222158969</v>
+        <v>0.3227440611823411</v>
       </c>
       <c r="F12">
-        <v>1.281294046059543</v>
+        <v>0.1980828404439876</v>
       </c>
       <c r="G12">
-        <v>0.0007984502409407939</v>
+        <v>0.266702040261066</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.1520929032247764</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.06907954869140553</v>
       </c>
       <c r="J12">
-        <v>0.0808094965810362</v>
+        <v>0.1611705278852043</v>
       </c>
       <c r="K12">
-        <v>4.637392888724605</v>
+        <v>0.1567446019009218</v>
       </c>
       <c r="L12">
-        <v>0.04234211973017032</v>
+        <v>0.8011732871172939</v>
       </c>
       <c r="M12">
-        <v>1.023279445996906</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>0.8427032516511304</v>
+        <v>0.9540815207302842</v>
       </c>
       <c r="O12">
-        <v>3.269269252138912</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>57.71747415802542</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0.8561641848155261</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -941,46 +1013,52 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.3255561229755983</v>
+        <v>0.0828187477110589</v>
       </c>
       <c r="D13">
-        <v>0.1074640351876326</v>
+        <v>0.04341058705488621</v>
       </c>
       <c r="E13">
-        <v>0.07643446657138142</v>
+        <v>0.3698555954016527</v>
       </c>
       <c r="F13">
-        <v>1.277787593708609</v>
+        <v>0.1579786541529629</v>
       </c>
       <c r="G13">
-        <v>0.0007987323330033676</v>
+        <v>0.2273375002832623</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.2058023090628893</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.0677646449491407</v>
       </c>
       <c r="J13">
-        <v>0.08077077893892692</v>
+        <v>0.1410574075754312</v>
       </c>
       <c r="K13">
-        <v>4.612318560284393</v>
+        <v>0.1273118797574568</v>
       </c>
       <c r="L13">
-        <v>0.04234699188843649</v>
+        <v>0.9060075454373759</v>
       </c>
       <c r="M13">
-        <v>1.017937484737097</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>0.8441736738830485</v>
+        <v>1.070068750917727</v>
       </c>
       <c r="O13">
-        <v>3.261123652887619</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>57.32148617655497</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0.7305812044607052</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -988,46 +1066,52 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.3212256524713553</v>
+        <v>0.09002240350868362</v>
       </c>
       <c r="D14">
-        <v>0.1059287547288221</v>
+        <v>0.04971138780015139</v>
       </c>
       <c r="E14">
-        <v>0.07583466881444423</v>
+        <v>0.4002473152848651</v>
       </c>
       <c r="F14">
-        <v>1.266432246547225</v>
+        <v>0.1302181510484175</v>
       </c>
       <c r="G14">
-        <v>0.0007996541804007035</v>
+        <v>0.1968146109968458</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.2502432487920174</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.06439499119123759</v>
       </c>
       <c r="J14">
-        <v>0.08064846030631401</v>
+        <v>0.1272932698491474</v>
       </c>
       <c r="K14">
-        <v>4.530615605127252</v>
+        <v>0.1072710012991536</v>
       </c>
       <c r="L14">
-        <v>0.04236380713437171</v>
+        <v>0.972013484717337</v>
       </c>
       <c r="M14">
-        <v>1.000535692941547</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>0.8490081999478605</v>
+        <v>1.139866247596984</v>
       </c>
       <c r="O14">
-        <v>3.234788887674057</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>56.0714366212535</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0.6369460021011975</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1035,46 +1119,52 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.3185823131213965</v>
+        <v>0.09227154284552341</v>
       </c>
       <c r="D15">
-        <v>0.1049899002201045</v>
+        <v>0.05110872860779381</v>
       </c>
       <c r="E15">
-        <v>0.07546930396672025</v>
+        <v>0.4054679145213811</v>
       </c>
       <c r="F15">
-        <v>1.259537509767142</v>
+        <v>0.1228731225094428</v>
       </c>
       <c r="G15">
-        <v>0.0008002202990682063</v>
+        <v>0.1874296375940432</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.2597414444088031</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.06246699290422075</v>
       </c>
       <c r="J15">
-        <v>0.08057654441638817</v>
+        <v>0.1238422844955096</v>
       </c>
       <c r="K15">
-        <v>4.48062278319037</v>
+        <v>0.102063367131997</v>
       </c>
       <c r="L15">
-        <v>0.04237481534834409</v>
+        <v>0.9826725105951368</v>
       </c>
       <c r="M15">
-        <v>0.989891319844439</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>0.8519993572746429</v>
+        <v>1.148739186983676</v>
       </c>
       <c r="O15">
-        <v>3.218832650626979</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>55.315736152814</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0.609752403874495</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1082,46 +1172,52 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.3035707518254753</v>
+        <v>0.09296043223965711</v>
       </c>
       <c r="D16">
-        <v>0.09963262838083864</v>
+        <v>0.04896859792792441</v>
       </c>
       <c r="E16">
-        <v>0.07340584968034847</v>
+        <v>0.3793260421541333</v>
       </c>
       <c r="F16">
-        <v>1.220929326401915</v>
+        <v>0.1193135066049145</v>
       </c>
       <c r="G16">
-        <v>0.0008034874061068815</v>
+        <v>0.1723330431887575</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.2300743669133425</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.05186086945286306</v>
       </c>
       <c r="J16">
-        <v>0.08020947703956693</v>
+        <v>0.1247964305264162</v>
       </c>
       <c r="K16">
-        <v>4.194895932292184</v>
+        <v>0.1013863820506771</v>
       </c>
       <c r="L16">
-        <v>0.0424486261889907</v>
+        <v>0.9184963598742968</v>
       </c>
       <c r="M16">
-        <v>0.9291079028936551</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>0.8695893854626107</v>
+        <v>1.065750066973976</v>
       </c>
       <c r="O16">
-        <v>3.129987958055352</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>51.1017795816694</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0.5793132708341204</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1129,46 +1225,52 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.2944783972273086</v>
+        <v>0.08943582733279243</v>
       </c>
       <c r="D17">
-        <v>0.09636570442999925</v>
+        <v>0.04401733203122404</v>
       </c>
       <c r="E17">
-        <v>0.07216619343448372</v>
+        <v>0.3432283704390642</v>
       </c>
       <c r="F17">
-        <v>1.198020168730892</v>
+        <v>0.1319221949321445</v>
       </c>
       <c r="G17">
-        <v>0.0008055126699537126</v>
+        <v>0.1774902285494377</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.182829496580851</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.04600070377904153</v>
       </c>
       <c r="J17">
-        <v>0.08002338725735925</v>
+        <v>0.1330593053124502</v>
       </c>
       <c r="K17">
-        <v>4.020244730870729</v>
+        <v>0.1117288779153789</v>
       </c>
       <c r="L17">
-        <v>0.04250334080391482</v>
+        <v>0.834418456748125</v>
       </c>
       <c r="M17">
-        <v>0.89200013202543</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>0.8807714349223019</v>
+        <v>0.9657524698591544</v>
       </c>
       <c r="O17">
-        <v>3.077713117896423</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>48.60470023759166</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0.6072765525095321</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1176,46 +1278,52 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.2892897280347313</v>
+        <v>0.08216673010820585</v>
       </c>
       <c r="D18">
-        <v>0.09449352135068523</v>
+        <v>0.03662174665394247</v>
       </c>
       <c r="E18">
-        <v>0.0714624849224279</v>
+        <v>0.2964334305556235</v>
       </c>
       <c r="F18">
-        <v>1.185117006584946</v>
+        <v>0.1605566465154986</v>
       </c>
       <c r="G18">
-        <v>0.000806685480102253</v>
+        <v>0.2011363429772715</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.125245810274798</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.04280059218111187</v>
       </c>
       <c r="J18">
-        <v>0.07993029356971704</v>
+        <v>0.1488178665267483</v>
       </c>
       <c r="K18">
-        <v>3.920004611596198</v>
+        <v>0.1336730530070369</v>
       </c>
       <c r="L18">
-        <v>0.04253822498601778</v>
+        <v>0.7275970008416266</v>
       </c>
       <c r="M18">
-        <v>0.8707189224806839</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>0.8873431570525554</v>
+        <v>0.8454112747542695</v>
       </c>
       <c r="O18">
-        <v>3.048431784353852</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>47.20039876171222</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0.6902395154204868</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1223,46 +1331,52 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.2875398031011116</v>
+        <v>0.0747925747304734</v>
       </c>
       <c r="D19">
-        <v>0.09386078067100811</v>
+        <v>0.02853792968494417</v>
       </c>
       <c r="E19">
-        <v>0.07122579045053001</v>
+        <v>0.2481996726541595</v>
       </c>
       <c r="F19">
-        <v>1.180794145419824</v>
+        <v>0.2005080674588058</v>
       </c>
       <c r="G19">
-        <v>0.0008070839556607554</v>
+        <v>0.2372131575375889</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.07950553611581057</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.04216946214919037</v>
       </c>
       <c r="J19">
-        <v>0.07990112853799403</v>
+        <v>0.1689685938552898</v>
       </c>
       <c r="K19">
-        <v>3.886100238939775</v>
+        <v>0.1630756367498876</v>
       </c>
       <c r="L19">
-        <v>0.0425506175816377</v>
+        <v>0.6187271563656509</v>
       </c>
       <c r="M19">
-        <v>0.8635237596793317</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>0.889591956267374</v>
+        <v>0.72263593961992</v>
       </c>
       <c r="O19">
-        <v>3.038649524851081</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>46.73816159735037</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0.8088509299182363</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1270,46 +1384,52 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.2954420074150619</v>
+        <v>0.0648997040757564</v>
       </c>
       <c r="D20">
-        <v>0.09671275617601083</v>
+        <v>0.01859420958520985</v>
       </c>
       <c r="E20">
-        <v>0.07229718640714111</v>
+        <v>0.195059287526</v>
       </c>
       <c r="F20">
-        <v>1.200430319472503</v>
+        <v>0.2735633835957785</v>
       </c>
       <c r="G20">
-        <v>0.0008052962609650476</v>
+        <v>0.3105927892915759</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.06442376950665185</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.04799982109811385</v>
       </c>
       <c r="J20">
-        <v>0.0800417446466426</v>
+        <v>0.2026303187034983</v>
       </c>
       <c r="K20">
-        <v>4.038814039423869</v>
+        <v>0.2156712690544289</v>
       </c>
       <c r="L20">
-        <v>0.04249716185089802</v>
+        <v>0.5013647882765611</v>
       </c>
       <c r="M20">
-        <v>0.8959437859348398</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>0.8795665061369675</v>
+        <v>0.5969325171563469</v>
       </c>
       <c r="O20">
-        <v>3.083195806589657</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>48.91260962068066</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>1.03510850799907</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1317,46 +1437,52 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.3224956882827996</v>
+        <v>0.06000013460252873</v>
       </c>
       <c r="D21">
-        <v>0.106379378987242</v>
+        <v>0.01750049850699398</v>
       </c>
       <c r="E21">
-        <v>0.07601041927675212</v>
+        <v>0.2135894369841509</v>
       </c>
       <c r="F21">
-        <v>1.269754860094196</v>
+        <v>0.3067957121898601</v>
       </c>
       <c r="G21">
-        <v>0.0007993831084171362</v>
+        <v>0.3628589617092075</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.09509890235180252</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.06729149492945918</v>
       </c>
       <c r="J21">
-        <v>0.08068375887837931</v>
+        <v>0.213877681967773</v>
       </c>
       <c r="K21">
-        <v>4.554602674144803</v>
+        <v>0.2366733650590334</v>
       </c>
       <c r="L21">
-        <v>0.04235872014359643</v>
+        <v>0.5529185810651285</v>
       </c>
       <c r="M21">
-        <v>1.005643926260959</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>0.847581935762598</v>
+        <v>0.6728820880355073</v>
       </c>
       <c r="O21">
-        <v>3.242487468251653</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>56.49753015215731</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>1.170216726791608</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1364,46 +1490,52 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.340583379016806</v>
+        <v>0.05641883466306652</v>
       </c>
       <c r="D22">
-        <v>0.1127654978356958</v>
+        <v>0.01773549962935661</v>
       </c>
       <c r="E22">
-        <v>0.07852714790777426</v>
+        <v>0.2292108436218854</v>
       </c>
       <c r="F22">
-        <v>1.317749678121771</v>
+        <v>0.3330640030105911</v>
       </c>
       <c r="G22">
-        <v>0.0007955844747734419</v>
+        <v>0.4010574664549722</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.1195643834781542</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.08210325602896518</v>
       </c>
       <c r="J22">
-        <v>0.08123680820877865</v>
+        <v>0.2228227194595007</v>
       </c>
       <c r="K22">
-        <v>4.894005279741805</v>
+        <v>0.2534082096554542</v>
       </c>
       <c r="L22">
-        <v>0.04229980098818054</v>
+        <v>0.593823385126953</v>
       </c>
       <c r="M22">
-        <v>1.077986748034206</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>0.8280051616180586</v>
+        <v>0.7346100375343241</v>
       </c>
       <c r="O22">
-        <v>3.354316246374765</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>61.81282394318515</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>1.270428675712509</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1411,46 +1543,52 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.3308903440969857</v>
+        <v>0.05794021837974483</v>
       </c>
       <c r="D23">
-        <v>0.1093504756480428</v>
+        <v>0.01758454911085039</v>
       </c>
       <c r="E23">
-        <v>0.0771753394368595</v>
+        <v>0.2205036907662929</v>
       </c>
       <c r="F23">
-        <v>1.291875323874521</v>
+        <v>0.3197244723102344</v>
       </c>
       <c r="G23">
-        <v>0.0007976060788114097</v>
+        <v>0.3816597096765832</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.1060636700746642</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.07379261917663715</v>
       </c>
       <c r="J23">
-        <v>0.08092895147726153</v>
+        <v>0.2185960409043162</v>
       </c>
       <c r="K23">
-        <v>4.712628780122031</v>
+        <v>0.2456131878592487</v>
       </c>
       <c r="L23">
-        <v>0.04232830063427784</v>
+        <v>0.5709490682919665</v>
       </c>
       <c r="M23">
-        <v>1.039312022719187</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>0.8383282146610185</v>
+        <v>0.7022398399100922</v>
       </c>
       <c r="O23">
-        <v>3.293887707075783</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>58.93658912852482</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>1.220186896629372</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1458,46 +1596,52 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.2950062393199033</v>
+        <v>0.0637697610445187</v>
       </c>
       <c r="D24">
-        <v>0.09655583542482304</v>
+        <v>0.01804053150864959</v>
       </c>
       <c r="E24">
-        <v>0.07223793656942235</v>
+        <v>0.1902736977304258</v>
       </c>
       <c r="F24">
-        <v>1.19933985946038</v>
+        <v>0.2806266492345202</v>
       </c>
       <c r="G24">
-        <v>0.0008053940730776645</v>
+        <v>0.3170726246796107</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.06427995125218705</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.04752047121820624</v>
       </c>
       <c r="J24">
-        <v>0.08003340210162335</v>
+        <v>0.2062066329332453</v>
       </c>
       <c r="K24">
-        <v>4.030418332294971</v>
+        <v>0.2216719390404229</v>
       </c>
       <c r="L24">
-        <v>0.04249994469055984</v>
+        <v>0.4898798719060409</v>
       </c>
       <c r="M24">
-        <v>0.8941606973523548</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>0.8801108098449646</v>
+        <v>0.5869159353872959</v>
       </c>
       <c r="O24">
-        <v>3.080714685720636</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>48.79647746934768</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>1.056321658806269</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1505,43 +1649,49 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.2578468460769159</v>
+        <v>0.06920841066277106</v>
       </c>
       <c r="D25">
-        <v>0.08301358018943716</v>
+        <v>0.02008688236251288</v>
       </c>
       <c r="E25">
-        <v>0.06726455052204372</v>
+        <v>0.1607360705750196</v>
       </c>
       <c r="F25">
-        <v>1.109860822506903</v>
+        <v>0.2594716799296037</v>
       </c>
       <c r="G25">
-        <v>0.0008141003102707016</v>
+        <v>0.2648834784401615</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.03272653826818769</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.02660848966529183</v>
       </c>
       <c r="J25">
-        <v>0.07959576654507572</v>
+        <v>0.2006377004023463</v>
       </c>
       <c r="K25">
-        <v>3.302556550858583</v>
+        <v>0.2083850063020023</v>
       </c>
       <c r="L25">
-        <v>0.04281503059480229</v>
+        <v>0.4077929233974089</v>
       </c>
       <c r="M25">
-        <v>0.7399234170089528</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>0.9304973065629696</v>
+        <v>0.474413697965673</v>
       </c>
       <c r="O25">
-        <v>2.880457115796531</v>
+        <v>38.86877698606338</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0.9329524122264985</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_41/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_41/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,8 +421,14 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -430,52 +436,58 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.07171211971859037</v>
+        <v>0.07912482805436127</v>
       </c>
       <c r="D2">
-        <v>0.02255280918688385</v>
+        <v>0.02120254035507685</v>
       </c>
       <c r="E2">
-        <v>0.1398686667754667</v>
+        <v>0.1435058614640496</v>
       </c>
       <c r="F2">
-        <v>0.2595374895137894</v>
+        <v>0.2432530827472021</v>
       </c>
       <c r="G2">
-        <v>0.2402815503010558</v>
+        <v>0.2048729949718364</v>
       </c>
       <c r="H2">
-        <v>0.01683162392978069</v>
+        <v>0.01550072813337611</v>
       </c>
       <c r="I2">
-        <v>0.01496138368672595</v>
+        <v>0.01327261220784592</v>
       </c>
       <c r="J2">
-        <v>0.2031894489561523</v>
+        <v>0.2382409858932348</v>
       </c>
       <c r="K2">
-        <v>0.209606311000428</v>
+        <v>0.1905692362992149</v>
       </c>
       <c r="L2">
-        <v>0.3477859062812172</v>
+        <v>0.1299016386803409</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.03624216015855808</v>
       </c>
       <c r="N2">
-        <v>0.3998137742285905</v>
+        <v>0.3607850359430955</v>
       </c>
       <c r="O2">
-        <v>32.04634402235939</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.3824521253777391</v>
       </c>
       <c r="Q2">
-        <v>0.88534521213586</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>32.0272578198028</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0.8247594486554277</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -483,52 +495,58 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.07385517486900639</v>
+        <v>0.07724493751107531</v>
       </c>
       <c r="D3">
-        <v>0.02457408928469462</v>
+        <v>0.02342536564112407</v>
       </c>
       <c r="E3">
-        <v>0.1266141866216941</v>
+        <v>0.1293691474194993</v>
       </c>
       <c r="F3">
-        <v>0.2635639218615857</v>
+        <v>0.2502901218495808</v>
       </c>
       <c r="G3">
-        <v>0.226176801831933</v>
+        <v>0.1937993729668364</v>
       </c>
       <c r="H3">
-        <v>0.009119588564758413</v>
+        <v>0.008529824792463329</v>
       </c>
       <c r="I3">
-        <v>0.009131350563945873</v>
+        <v>0.008448242479935253</v>
       </c>
       <c r="J3">
-        <v>0.2061637576052036</v>
+        <v>0.2408029825073257</v>
       </c>
       <c r="K3">
-        <v>0.211845620256053</v>
+        <v>0.195604856477356</v>
       </c>
       <c r="L3">
-        <v>0.3090668669498626</v>
+        <v>0.1359958184700716</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.03284466068301306</v>
       </c>
       <c r="N3">
-        <v>0.3498531732830088</v>
+        <v>0.3192431841308689</v>
       </c>
       <c r="O3">
-        <v>27.60400967604488</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.3358854269485505</v>
       </c>
       <c r="Q3">
-        <v>0.8611196321129029</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>27.59492163330822</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0.812450023602608</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -536,52 +554,58 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.07513518792159601</v>
+        <v>0.07606905835463351</v>
       </c>
       <c r="D4">
-        <v>0.02597568848546317</v>
+        <v>0.02498529009403327</v>
       </c>
       <c r="E4">
-        <v>0.1186774542865088</v>
+        <v>0.1209151856917572</v>
       </c>
       <c r="F4">
-        <v>0.2683669889606719</v>
+        <v>0.2565684958971488</v>
       </c>
       <c r="G4">
-        <v>0.2193383647023666</v>
+        <v>0.1887200720369648</v>
       </c>
       <c r="H4">
-        <v>0.005558674660678428</v>
+        <v>0.005284543879595149</v>
       </c>
       <c r="I4">
-        <v>0.006284777218848792</v>
+        <v>0.006053226622290353</v>
       </c>
       <c r="J4">
-        <v>0.2089311389049939</v>
+        <v>0.2428560139843299</v>
       </c>
       <c r="K4">
-        <v>0.214588716893342</v>
+        <v>0.1996916220651421</v>
       </c>
       <c r="L4">
-        <v>0.2855821276541235</v>
+        <v>0.1398978130032411</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.03195814106173955</v>
       </c>
       <c r="N4">
-        <v>0.3198311384183796</v>
+        <v>0.2940498162266465</v>
       </c>
       <c r="O4">
-        <v>24.93724809501799</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>0.3081123880172782</v>
       </c>
       <c r="Q4">
-        <v>0.8520706629286394</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>24.93264816224473</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0.809496936043729</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -589,52 +613,58 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.07576159170110586</v>
+        <v>0.07573498139368695</v>
       </c>
       <c r="D5">
-        <v>0.02657345086873519</v>
+        <v>0.02565573531928322</v>
       </c>
       <c r="E5">
-        <v>0.1155427837136003</v>
+        <v>0.1175754349878524</v>
       </c>
       <c r="F5">
-        <v>0.2705222069040225</v>
+        <v>0.2592617271338504</v>
       </c>
       <c r="G5">
-        <v>0.2165865399379001</v>
+        <v>0.1866885232155155</v>
       </c>
       <c r="H5">
-        <v>0.004355805386060757</v>
+        <v>0.004180745808388425</v>
       </c>
       <c r="I5">
-        <v>0.005335668243350966</v>
+        <v>0.005265282499180124</v>
       </c>
       <c r="J5">
-        <v>0.2100831713115099</v>
+        <v>0.2436143817603522</v>
       </c>
       <c r="K5">
-        <v>0.2156507567588939</v>
+        <v>0.2012483596573738</v>
       </c>
       <c r="L5">
-        <v>0.2762664133980763</v>
+        <v>0.1413551551272327</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.03179312403777423</v>
       </c>
       <c r="N5">
-        <v>0.3074532252795592</v>
+        <v>0.2840443887382946</v>
       </c>
       <c r="O5">
-        <v>23.86230726910748</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.2966949209944119</v>
       </c>
       <c r="Q5">
-        <v>0.8485056087364171</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>23.85921828885887</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0.8082121202614871</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -642,52 +672,58 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.07600246226836305</v>
+        <v>0.07586131812725938</v>
       </c>
       <c r="D6">
-        <v>0.02666300408351319</v>
+        <v>0.02575840003080643</v>
       </c>
       <c r="E6">
-        <v>0.1150959619130667</v>
+        <v>0.1170946947291043</v>
       </c>
       <c r="F6">
-        <v>0.2705117066504243</v>
+        <v>0.2593598950786244</v>
       </c>
       <c r="G6">
-        <v>0.2157010185050652</v>
+        <v>0.1859536073743939</v>
       </c>
       <c r="H6">
-        <v>0.004166475768130243</v>
+        <v>0.004006479024966342</v>
       </c>
       <c r="I6">
-        <v>0.005255978833995201</v>
+        <v>0.005228040132784884</v>
       </c>
       <c r="J6">
-        <v>0.2100540335318968</v>
+        <v>0.2435164803438994</v>
       </c>
       <c r="K6">
-        <v>0.2154012688317799</v>
+        <v>0.2011138795262468</v>
       </c>
       <c r="L6">
-        <v>0.274966343375695</v>
+        <v>0.1413902561232696</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.03168129191592328</v>
       </c>
       <c r="N6">
-        <v>0.3050747033132239</v>
+        <v>0.2826297870384025</v>
       </c>
       <c r="O6">
-        <v>23.68437517821036</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>0.2944892387235569</v>
       </c>
       <c r="Q6">
-        <v>0.8465429534832225</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>23.68152387365677</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0.8066966922608998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -695,52 +731,58 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.0755160592451638</v>
+        <v>0.07647454383212704</v>
       </c>
       <c r="D7">
-        <v>0.02595170402598157</v>
+        <v>0.02490515872150212</v>
       </c>
       <c r="E7">
-        <v>0.1188310516652393</v>
+        <v>0.1210001976161834</v>
       </c>
       <c r="F7">
-        <v>0.2673028134494437</v>
+        <v>0.2550294616499862</v>
       </c>
       <c r="G7">
-        <v>0.2180612832618607</v>
+        <v>0.1898185429960577</v>
       </c>
       <c r="H7">
-        <v>0.005530050607915719</v>
+        <v>0.005252913652560573</v>
       </c>
       <c r="I7">
-        <v>0.006441418907077612</v>
+        <v>0.006251613381276222</v>
       </c>
       <c r="J7">
-        <v>0.2083084042950745</v>
+        <v>0.2387189678540977</v>
       </c>
       <c r="K7">
-        <v>0.2133855377435978</v>
+        <v>0.1982047816618255</v>
       </c>
       <c r="L7">
-        <v>0.2861243365862691</v>
+        <v>0.1391614578655123</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.03155932017230789</v>
       </c>
       <c r="N7">
-        <v>0.3187621311514306</v>
+        <v>0.2946122587885327</v>
       </c>
       <c r="O7">
-        <v>24.92251731916627</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>0.3071068994735668</v>
       </c>
       <c r="Q7">
-        <v>0.8480563735514153</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>24.91785880997867</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0.8035383677876666</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -748,52 +790,58 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.07294937297233162</v>
+        <v>0.07886699455824697</v>
       </c>
       <c r="D8">
-        <v>0.02317293592759739</v>
+        <v>0.02169536386887216</v>
       </c>
       <c r="E8">
-        <v>0.1355137385945859</v>
+        <v>0.1386277480529934</v>
       </c>
       <c r="F8">
-        <v>0.2589428182141873</v>
+        <v>0.2420491258621738</v>
       </c>
       <c r="G8">
-        <v>0.2333441815309598</v>
+        <v>0.2068417070973041</v>
       </c>
       <c r="H8">
-        <v>0.01387731278110368</v>
+        <v>0.01281049839488906</v>
       </c>
       <c r="I8">
-        <v>0.01296741491177933</v>
+        <v>0.01169406997322486</v>
       </c>
       <c r="J8">
-        <v>0.2031547940816978</v>
+        <v>0.2266390347835454</v>
       </c>
       <c r="K8">
-        <v>0.2084390948931585</v>
+        <v>0.189294571651903</v>
       </c>
       <c r="L8">
-        <v>0.3352563662544839</v>
+        <v>0.1306980288362318</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.03394526592723679</v>
       </c>
       <c r="N8">
-        <v>0.3812312423722943</v>
+        <v>0.3473863074962367</v>
       </c>
       <c r="O8">
-        <v>30.49937793239985</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>0.3651143587790386</v>
       </c>
       <c r="Q8">
-        <v>0.8703756988739144</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>30.48377982278731</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0.8071451403610865</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -801,52 +849,58 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.0668015306050691</v>
+        <v>0.08258683164822855</v>
       </c>
       <c r="D9">
-        <v>0.0192893566877288</v>
+        <v>0.01750888847935528</v>
       </c>
       <c r="E9">
-        <v>0.1700345312281115</v>
+        <v>0.1754495615234362</v>
       </c>
       <c r="F9">
-        <v>0.2663791912081166</v>
+        <v>0.2386741027704673</v>
       </c>
       <c r="G9">
-        <v>0.2829260365924142</v>
+        <v>0.2504028023739977</v>
       </c>
       <c r="H9">
-        <v>0.04204198597051739</v>
+        <v>0.03802970058214661</v>
       </c>
       <c r="I9">
-        <v>0.03265525153873838</v>
+        <v>0.02756886293231986</v>
       </c>
       <c r="J9">
-        <v>0.2028385583565182</v>
+        <v>0.2206967919275868</v>
       </c>
       <c r="K9">
-        <v>0.2137925817759623</v>
+        <v>0.1845387923088957</v>
       </c>
       <c r="L9">
-        <v>0.433735425827706</v>
+        <v>0.1170457222138914</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.05040568987132588</v>
       </c>
       <c r="N9">
-        <v>0.5128119466327519</v>
+        <v>0.4530473239142339</v>
       </c>
       <c r="O9">
-        <v>42.11805541361679</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>0.4894924646152532</v>
       </c>
       <c r="Q9">
-        <v>0.9761720790255026</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>42.06206510580682</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0.8720943345346512</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -854,52 +908,58 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.06251657953017187</v>
+        <v>0.08533393771710962</v>
       </c>
       <c r="D10">
-        <v>0.01859147099898095</v>
+        <v>0.01655254018861285</v>
       </c>
       <c r="E10">
-        <v>0.203149360654109</v>
+        <v>0.2100303976652711</v>
       </c>
       <c r="F10">
-        <v>0.2835762284669912</v>
+        <v>0.2423710415188935</v>
       </c>
       <c r="G10">
-        <v>0.3281553895702558</v>
+        <v>0.3057112708691108</v>
       </c>
       <c r="H10">
-        <v>0.07404444302507462</v>
+        <v>0.06638725370833898</v>
       </c>
       <c r="I10">
-        <v>0.05370888400382512</v>
+        <v>0.04422323171329179</v>
       </c>
       <c r="J10">
-        <v>0.2063617337052648</v>
+        <v>0.197321355090935</v>
       </c>
       <c r="K10">
-        <v>0.2233430457475265</v>
+        <v>0.1822910185332809</v>
       </c>
       <c r="L10">
-        <v>0.5224663530124474</v>
+        <v>0.1055204574861577</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.0684685627267605</v>
       </c>
       <c r="N10">
-        <v>0.6312584031698805</v>
+        <v>0.547234734978403</v>
       </c>
       <c r="O10">
-        <v>51.44261740381091</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>0.604431031213025</v>
       </c>
       <c r="Q10">
-        <v>1.080412719632847</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>51.33083110268308</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0.9258291584823723</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -907,52 +967,58 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.06785181740326607</v>
+        <v>0.09462892730677908</v>
       </c>
       <c r="D11">
-        <v>0.02658361200651882</v>
+        <v>0.02362623701478839</v>
       </c>
       <c r="E11">
-        <v>0.2689526497192745</v>
+        <v>0.2755893633929318</v>
       </c>
       <c r="F11">
-        <v>0.2375279847640925</v>
+        <v>0.1932471117328802</v>
       </c>
       <c r="G11">
-        <v>0.2987440703989677</v>
+        <v>0.3118589245893588</v>
       </c>
       <c r="H11">
-        <v>0.1074668552643772</v>
+        <v>0.09780627336761682</v>
       </c>
       <c r="I11">
-        <v>0.0647843121087428</v>
+        <v>0.0529332621893186</v>
       </c>
       <c r="J11">
-        <v>0.1816881077149617</v>
+        <v>0.1396062148528259</v>
       </c>
       <c r="K11">
-        <v>0.1866957046081019</v>
+        <v>0.1454083103160784</v>
       </c>
       <c r="L11">
-        <v>0.6779236004802414</v>
+        <v>0.08749085437835902</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.06313090048202596</v>
       </c>
       <c r="N11">
-        <v>0.8121002009803959</v>
+        <v>0.7049237027070916</v>
       </c>
       <c r="O11">
-        <v>55.95679973817278</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>0.7844727897200983</v>
       </c>
       <c r="Q11">
-        <v>0.9668625907410728</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>55.80830366298829</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0.7937703505421041</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -960,52 +1026,58 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.07435323055032228</v>
+        <v>0.1024490011180959</v>
       </c>
       <c r="D12">
-        <v>0.03480770606124395</v>
+        <v>0.03118265962039146</v>
       </c>
       <c r="E12">
-        <v>0.3227440611823411</v>
+        <v>0.3288412121470969</v>
       </c>
       <c r="F12">
-        <v>0.1980828404439876</v>
+        <v>0.1564609072544485</v>
       </c>
       <c r="G12">
-        <v>0.266702040261066</v>
+        <v>0.2969462164193146</v>
       </c>
       <c r="H12">
-        <v>0.1520929032247764</v>
+        <v>0.1416184263235465</v>
       </c>
       <c r="I12">
-        <v>0.06907954869140553</v>
+        <v>0.05622522944478803</v>
       </c>
       <c r="J12">
-        <v>0.1611705278852043</v>
+        <v>0.1121210950901457</v>
       </c>
       <c r="K12">
-        <v>0.1567446019009218</v>
+        <v>0.1192443325442198</v>
       </c>
       <c r="L12">
-        <v>0.8011732871172939</v>
+        <v>0.07671502043633538</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.05601657643109093</v>
       </c>
       <c r="N12">
-        <v>0.9540815207302842</v>
+        <v>0.8283564734100253</v>
       </c>
       <c r="O12">
-        <v>57.71747415802542</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>0.9266461681179692</v>
       </c>
       <c r="Q12">
-        <v>0.8561641848155261</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>57.55301605787616</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0.6875022440087122</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1013,52 +1085,58 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.0828187477110589</v>
+        <v>0.1108971233789902</v>
       </c>
       <c r="D13">
-        <v>0.04341058705488621</v>
+        <v>0.03960120555750279</v>
       </c>
       <c r="E13">
-        <v>0.3698555954016527</v>
+        <v>0.3754368806978121</v>
       </c>
       <c r="F13">
-        <v>0.1579786541529629</v>
+        <v>0.1244011218491359</v>
       </c>
       <c r="G13">
-        <v>0.2273375002832623</v>
+        <v>0.256247704276916</v>
       </c>
       <c r="H13">
-        <v>0.2058023090628893</v>
+        <v>0.195622181091565</v>
       </c>
       <c r="I13">
-        <v>0.0677646449491407</v>
+        <v>0.0552347293470028</v>
       </c>
       <c r="J13">
-        <v>0.1410574075754312</v>
+        <v>0.1041182761139225</v>
       </c>
       <c r="K13">
-        <v>0.1273118797574568</v>
+        <v>0.09767221099738777</v>
       </c>
       <c r="L13">
-        <v>0.9060075454373759</v>
+        <v>0.06980384138521778</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.04626100846496684</v>
       </c>
       <c r="N13">
-        <v>1.070068750917727</v>
+        <v>0.931629627269956</v>
       </c>
       <c r="O13">
-        <v>57.32148617655497</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>1.043568665669682</v>
       </c>
       <c r="Q13">
-        <v>0.7305812044607052</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>57.16197152195616</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0.5885879056488363</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1066,52 +1144,58 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.09002240350868362</v>
+        <v>0.117476418836489</v>
       </c>
       <c r="D14">
-        <v>0.04971138780015139</v>
+        <v>0.04608041941174434</v>
       </c>
       <c r="E14">
-        <v>0.4002473152848651</v>
+        <v>0.4055041607474905</v>
       </c>
       <c r="F14">
-        <v>0.1302181510484175</v>
+        <v>0.1040625547240381</v>
       </c>
       <c r="G14">
-        <v>0.1968146109968458</v>
+        <v>0.2179085851923048</v>
       </c>
       <c r="H14">
-        <v>0.2502432487920174</v>
+        <v>0.2407502800331685</v>
       </c>
       <c r="I14">
-        <v>0.06439499119123759</v>
+        <v>0.05269480748773159</v>
       </c>
       <c r="J14">
-        <v>0.1272932698491474</v>
+        <v>0.1053828599298292</v>
       </c>
       <c r="K14">
-        <v>0.1072710012991536</v>
+        <v>0.08449305100958782</v>
       </c>
       <c r="L14">
-        <v>0.972013484717337</v>
+        <v>0.0664675114339488</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.03837736847831152</v>
       </c>
       <c r="N14">
-        <v>1.139866247596984</v>
+        <v>0.9956795112500174</v>
       </c>
       <c r="O14">
-        <v>56.0714366212535</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>1.114512190944254</v>
       </c>
       <c r="Q14">
-        <v>0.6369460021011975</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>55.92448085211385</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0.5217817318215481</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1119,52 +1203,58 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.09227154284552341</v>
+        <v>0.119395441610294</v>
       </c>
       <c r="D15">
-        <v>0.05110872860779381</v>
+        <v>0.0476551657408848</v>
       </c>
       <c r="E15">
-        <v>0.4054679145213811</v>
+        <v>0.4106821934000564</v>
       </c>
       <c r="F15">
-        <v>0.1228731225094428</v>
+        <v>0.09938180678181041</v>
       </c>
       <c r="G15">
-        <v>0.1874296375940432</v>
+        <v>0.2039218532277332</v>
       </c>
       <c r="H15">
-        <v>0.2597414444088031</v>
+        <v>0.2506483178561183</v>
       </c>
       <c r="I15">
-        <v>0.06246699290422075</v>
+        <v>0.05126620177196894</v>
       </c>
       <c r="J15">
-        <v>0.1238422844955096</v>
+        <v>0.1085751677544806</v>
       </c>
       <c r="K15">
-        <v>0.102063367131997</v>
+        <v>0.0816494978682698</v>
       </c>
       <c r="L15">
-        <v>0.9826725105951368</v>
+        <v>0.06615871783786353</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.03575734744642034</v>
       </c>
       <c r="N15">
-        <v>1.148739186983676</v>
+        <v>1.005547172290477</v>
       </c>
       <c r="O15">
-        <v>55.315736152814</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>1.123824522898019</v>
       </c>
       <c r="Q15">
-        <v>0.609752403874495</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>55.17586721047257</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0.5048793363247199</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1172,52 +1262,58 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.09296043223965711</v>
+        <v>0.1180836423212099</v>
       </c>
       <c r="D16">
-        <v>0.04896859792792441</v>
+        <v>0.04652921672872878</v>
       </c>
       <c r="E16">
-        <v>0.3793260421541333</v>
+        <v>0.3848118854211577</v>
       </c>
       <c r="F16">
-        <v>0.1193135066049145</v>
+        <v>0.1034148997051645</v>
       </c>
       <c r="G16">
-        <v>0.1723330431887575</v>
+        <v>0.1667410916777357</v>
       </c>
       <c r="H16">
-        <v>0.2300743669133425</v>
+        <v>0.2230648968426294</v>
       </c>
       <c r="I16">
-        <v>0.05186086945286306</v>
+        <v>0.04312384533384428</v>
       </c>
       <c r="J16">
-        <v>0.1247964305264162</v>
+        <v>0.1369945433243771</v>
       </c>
       <c r="K16">
-        <v>0.1013863820506771</v>
+        <v>0.08694828310197522</v>
       </c>
       <c r="L16">
-        <v>0.9184963598742968</v>
+        <v>0.07163558876958298</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.02999893882996929</v>
       </c>
       <c r="N16">
-        <v>1.065750066973976</v>
+        <v>0.9388590601514295</v>
       </c>
       <c r="O16">
-        <v>51.1017795816694</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>1.041910828420356</v>
       </c>
       <c r="Q16">
-        <v>0.5793132708341204</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>50.99662633243753</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0.5068346430681174</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1225,52 +1321,58 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.08943582733279243</v>
+        <v>0.1131816862393009</v>
       </c>
       <c r="D17">
-        <v>0.04401733203122404</v>
+        <v>0.04202454936870481</v>
       </c>
       <c r="E17">
-        <v>0.3432283704390642</v>
+        <v>0.3489111527364201</v>
       </c>
       <c r="F17">
-        <v>0.1319221949321445</v>
+        <v>0.1177201342184802</v>
       </c>
       <c r="G17">
-        <v>0.1774902285494377</v>
+        <v>0.1613750436891621</v>
       </c>
       <c r="H17">
-        <v>0.182829496580851</v>
+        <v>0.1769116462431981</v>
       </c>
       <c r="I17">
-        <v>0.04600070377904153</v>
+        <v>0.03857525850607679</v>
       </c>
       <c r="J17">
-        <v>0.1330593053124502</v>
+        <v>0.1573717986753564</v>
       </c>
       <c r="K17">
-        <v>0.1117288779153789</v>
+        <v>0.09809934388044184</v>
       </c>
       <c r="L17">
-        <v>0.834418456748125</v>
+        <v>0.07782020842524418</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.02981132749648907</v>
       </c>
       <c r="N17">
-        <v>0.9657524698591544</v>
+        <v>0.8540311994169372</v>
       </c>
       <c r="O17">
-        <v>48.60470023759166</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>0.9421323954467766</v>
       </c>
       <c r="Q17">
-        <v>0.6072765525095321</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>48.51674822905545</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0.5437151960459374</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1278,52 +1380,58 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.08216673010820585</v>
+        <v>0.1048602006747785</v>
       </c>
       <c r="D18">
-        <v>0.03662174665394247</v>
+        <v>0.03481075533444766</v>
       </c>
       <c r="E18">
-        <v>0.2964334305556235</v>
+        <v>0.3023831048956538</v>
       </c>
       <c r="F18">
-        <v>0.1605566465154986</v>
+        <v>0.1441921456797814</v>
       </c>
       <c r="G18">
-        <v>0.2011363429772715</v>
+        <v>0.1774167600035099</v>
       </c>
       <c r="H18">
-        <v>0.125245810274798</v>
+        <v>0.1198579966011764</v>
       </c>
       <c r="I18">
-        <v>0.04280059218111187</v>
+        <v>0.03597232671878992</v>
       </c>
       <c r="J18">
-        <v>0.1488178665267483</v>
+        <v>0.1771815785507869</v>
       </c>
       <c r="K18">
-        <v>0.1336730530070369</v>
+        <v>0.1171715885323934</v>
       </c>
       <c r="L18">
-        <v>0.7275970008416266</v>
+        <v>0.08616565574079793</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.03455014517757427</v>
       </c>
       <c r="N18">
-        <v>0.8454112747542695</v>
+        <v>0.7475887779348227</v>
       </c>
       <c r="O18">
-        <v>47.20039876171222</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>0.8212641027575103</v>
       </c>
       <c r="Q18">
-        <v>0.6902395154204868</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>47.1207708316129</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0.6209960553233174</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1331,52 +1439,58 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.0747925747304734</v>
+        <v>0.09679239195599365</v>
       </c>
       <c r="D19">
-        <v>0.02853792968494417</v>
+        <v>0.02679690843476124</v>
       </c>
       <c r="E19">
-        <v>0.2481996726541595</v>
+        <v>0.254432297372837</v>
       </c>
       <c r="F19">
-        <v>0.2005080674588058</v>
+        <v>0.1791983539224979</v>
       </c>
       <c r="G19">
-        <v>0.2372131575375889</v>
+        <v>0.2068450777960535</v>
       </c>
       <c r="H19">
-        <v>0.07950553611581057</v>
+        <v>0.07419493644696473</v>
       </c>
       <c r="I19">
-        <v>0.04216946214919037</v>
+        <v>0.03550138343870479</v>
       </c>
       <c r="J19">
-        <v>0.1689685938552898</v>
+        <v>0.1964562548074795</v>
       </c>
       <c r="K19">
-        <v>0.1630756367498876</v>
+        <v>0.1410915846349532</v>
       </c>
       <c r="L19">
-        <v>0.6187271563656509</v>
+        <v>0.09558041783670745</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.04277303635689478</v>
       </c>
       <c r="N19">
-        <v>0.72263593961992</v>
+        <v>0.6396168284689026</v>
       </c>
       <c r="O19">
-        <v>46.73816159735037</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>0.6977856935222349</v>
       </c>
       <c r="Q19">
-        <v>0.8088509299182363</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>46.66046054933673</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0.7239618867742053</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1384,52 +1498,58 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.0648997040757564</v>
+        <v>0.08681437996280295</v>
       </c>
       <c r="D20">
-        <v>0.01859420958520985</v>
+        <v>0.01679903707345787</v>
       </c>
       <c r="E20">
-        <v>0.195059287526</v>
+        <v>0.2017643705811309</v>
       </c>
       <c r="F20">
-        <v>0.2735633835957785</v>
+        <v>0.238610378907623</v>
       </c>
       <c r="G20">
-        <v>0.3105927892915759</v>
+        <v>0.2770160039185043</v>
       </c>
       <c r="H20">
-        <v>0.06442376950665185</v>
+        <v>0.05793049777805548</v>
       </c>
       <c r="I20">
-        <v>0.04799982109811385</v>
+        <v>0.04005911689213892</v>
       </c>
       <c r="J20">
-        <v>0.2026303187034983</v>
+        <v>0.2132307071211414</v>
       </c>
       <c r="K20">
-        <v>0.2156712690544289</v>
+        <v>0.180007812483673</v>
       </c>
       <c r="L20">
-        <v>0.5013647882765611</v>
+        <v>0.1076431566710347</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.06216224011771487</v>
       </c>
       <c r="N20">
-        <v>0.5969325171563469</v>
+        <v>0.5245694276545834</v>
       </c>
       <c r="O20">
-        <v>48.91260962068066</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>0.5709352987834677</v>
       </c>
       <c r="Q20">
-        <v>1.03510850799907</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>48.81923794351769</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0.9042314883429583</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1437,52 +1557,58 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.06000013460252873</v>
+        <v>0.08514444740603722</v>
       </c>
       <c r="D21">
-        <v>0.01750049850699398</v>
+        <v>0.0146991693912959</v>
       </c>
       <c r="E21">
-        <v>0.2135894369841509</v>
+        <v>0.2203368040043543</v>
       </c>
       <c r="F21">
-        <v>0.3067957121898601</v>
+        <v>0.2474685062778619</v>
       </c>
       <c r="G21">
-        <v>0.3628589617092075</v>
+        <v>0.3851567962492055</v>
       </c>
       <c r="H21">
-        <v>0.09509890235180252</v>
+        <v>0.08470539473181637</v>
       </c>
       <c r="I21">
-        <v>0.06729149492945918</v>
+        <v>0.05484787397132695</v>
       </c>
       <c r="J21">
-        <v>0.213877681967773</v>
+        <v>0.1452728548384812</v>
       </c>
       <c r="K21">
-        <v>0.2366733650590334</v>
+        <v>0.1811163726441904</v>
       </c>
       <c r="L21">
-        <v>0.5529185810651285</v>
+        <v>0.0991645667516714</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.07908161063168251</v>
       </c>
       <c r="N21">
-        <v>0.6728820880355073</v>
+        <v>0.5810814884500104</v>
       </c>
       <c r="O21">
-        <v>56.49753015215731</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>0.6454523936077265</v>
       </c>
       <c r="Q21">
-        <v>1.170216726791608</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>56.3404711978817</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0.9471457470702376</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1490,52 +1616,58 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.05641883466306652</v>
+        <v>0.0834137840134801</v>
       </c>
       <c r="D22">
-        <v>0.01773549962935661</v>
+        <v>0.01433170794054561</v>
       </c>
       <c r="E22">
-        <v>0.2292108436218854</v>
+        <v>0.2359210613110463</v>
       </c>
       <c r="F22">
-        <v>0.3330640030105911</v>
+        <v>0.2557445086635042</v>
       </c>
       <c r="G22">
-        <v>0.4010574664549722</v>
+        <v>0.4687442827281814</v>
       </c>
       <c r="H22">
-        <v>0.1195643834781542</v>
+        <v>0.1059620466860078</v>
       </c>
       <c r="I22">
-        <v>0.08210325602896518</v>
+        <v>0.06599507672524574</v>
       </c>
       <c r="J22">
-        <v>0.2228227194595007</v>
+        <v>0.1065236782280863</v>
       </c>
       <c r="K22">
-        <v>0.2534082096554542</v>
+        <v>0.1831784193040313</v>
       </c>
       <c r="L22">
-        <v>0.593823385126953</v>
+        <v>0.09354569492573361</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.09214111036682837</v>
       </c>
       <c r="N22">
-        <v>0.7346100375343241</v>
+        <v>0.625230991449456</v>
       </c>
       <c r="O22">
-        <v>61.81282394318515</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>0.7068253589982731</v>
       </c>
       <c r="Q22">
-        <v>1.270428675712509</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>61.59760292267913</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0.9797815144970627</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1543,52 +1675,58 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.05794021837974483</v>
+        <v>0.08395059102763014</v>
       </c>
       <c r="D23">
-        <v>0.01758454911085039</v>
+        <v>0.01461689712855829</v>
       </c>
       <c r="E23">
-        <v>0.2205036907662929</v>
+        <v>0.2273946679662089</v>
       </c>
       <c r="F23">
-        <v>0.3197244723102344</v>
+        <v>0.2534980686524264</v>
       </c>
       <c r="G23">
-        <v>0.3816597096765832</v>
+        <v>0.4172601985978446</v>
       </c>
       <c r="H23">
-        <v>0.1060636700746642</v>
+        <v>0.09428053053542662</v>
       </c>
       <c r="I23">
-        <v>0.07379261917663715</v>
+        <v>0.05967040450824879</v>
       </c>
       <c r="J23">
-        <v>0.2185960409043162</v>
+        <v>0.1328209133618827</v>
       </c>
       <c r="K23">
-        <v>0.2456131878592487</v>
+        <v>0.184160196298965</v>
       </c>
       <c r="L23">
-        <v>0.5709490682919665</v>
+        <v>0.09729429910091625</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.08593159618875745</v>
       </c>
       <c r="N23">
-        <v>0.7022398399100922</v>
+        <v>0.6005212994624713</v>
       </c>
       <c r="O23">
-        <v>58.93658912852482</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>0.674460882301716</v>
       </c>
       <c r="Q23">
-        <v>1.220186896629372</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>58.75494182356391</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0.9715143470599514</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1596,52 +1734,58 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.0637697610445187</v>
+        <v>0.08509978883396485</v>
       </c>
       <c r="D24">
-        <v>0.01804053150864959</v>
+        <v>0.01626388307004945</v>
       </c>
       <c r="E24">
-        <v>0.1902736977304258</v>
+        <v>0.1969766146726428</v>
       </c>
       <c r="F24">
-        <v>0.2806266492345202</v>
+        <v>0.2449602789200824</v>
       </c>
       <c r="G24">
-        <v>0.3170726246796107</v>
+        <v>0.2822209860728861</v>
       </c>
       <c r="H24">
-        <v>0.06427995125218705</v>
+        <v>0.05780148348560504</v>
       </c>
       <c r="I24">
-        <v>0.04752047121820624</v>
+        <v>0.03950423669562309</v>
       </c>
       <c r="J24">
-        <v>0.2062066329332453</v>
+        <v>0.2170187793392628</v>
       </c>
       <c r="K24">
-        <v>0.2216719390404229</v>
+        <v>0.185096710038799</v>
       </c>
       <c r="L24">
-        <v>0.4898798719060409</v>
+        <v>0.1096358857199391</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.06393843951988742</v>
       </c>
       <c r="N24">
-        <v>0.5869159353872959</v>
+        <v>0.5130451589045322</v>
       </c>
       <c r="O24">
-        <v>48.79647746934768</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>0.5608922730566945</v>
       </c>
       <c r="Q24">
-        <v>1.056321658806269</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>48.70365290170611</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0.9232931485088613</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1649,49 +1793,55 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.06920841066277106</v>
+        <v>0.08276783377586838</v>
       </c>
       <c r="D25">
-        <v>0.02008688236251288</v>
+        <v>0.0184269963607484</v>
       </c>
       <c r="E25">
-        <v>0.1607360705750196</v>
+        <v>0.165592723690601</v>
       </c>
       <c r="F25">
-        <v>0.2594716799296037</v>
+        <v>0.2361495282027022</v>
       </c>
       <c r="G25">
-        <v>0.2648834784401615</v>
+        <v>0.2308943960123102</v>
       </c>
       <c r="H25">
-        <v>0.03272653826818769</v>
+        <v>0.02973279774209979</v>
       </c>
       <c r="I25">
-        <v>0.02660848966529183</v>
+        <v>0.02289222191232376</v>
       </c>
       <c r="J25">
-        <v>0.2006377004023463</v>
+        <v>0.2256168046490785</v>
       </c>
       <c r="K25">
-        <v>0.2083850063020023</v>
+        <v>0.1831797687481753</v>
       </c>
       <c r="L25">
-        <v>0.4077929233974089</v>
+        <v>0.1200084539387802</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.04408349514297072</v>
       </c>
       <c r="N25">
-        <v>0.474413697965673</v>
+        <v>0.4251048401351198</v>
       </c>
       <c r="O25">
-        <v>38.86877698606338</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>0.4528486540431373</v>
       </c>
       <c r="Q25">
-        <v>0.9329524122264985</v>
+        <v>38.82709957356104</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>0.8453077847299681</v>
       </c>
     </row>
   </sheetData>
